--- a/Framework/Database/TestDataDB.xlsx
+++ b/Framework/Database/TestDataDB.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="LoginDetails" sheetId="2" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="71">
   <si>
     <t>Application_Details</t>
   </si>
@@ -232,54 +232,6 @@
     <t>testing123</t>
   </si>
   <si>
-    <t>YES</t>
-  </si>
-  <si>
-    <t>IDP</t>
-  </si>
-  <si>
-    <t>NewCustomer</t>
-  </si>
-  <si>
-    <t>Consumer Prepaid Provision</t>
-  </si>
-  <si>
-    <t>MSISDN--97412345678||SIM--89898989989898998889||PlanName--Prepaid Red Promotion||Nationality--Bahraini||</t>
-  </si>
-  <si>
-    <t>Consumer Postpaid Provision</t>
-  </si>
-  <si>
-    <t>MSISDN--97412345679||SIM--89898989989898998888||PlanName--Postpaid Red 750 Promotion||</t>
-  </si>
-  <si>
-    <t>DP</t>
-  </si>
-  <si>
-    <t>ConsumerPrepaid</t>
-  </si>
-  <si>
-    <t>ConsumerPostpaid</t>
-  </si>
-  <si>
-    <t>Adding an addon</t>
-  </si>
-  <si>
-    <t>MSISDN--97412345679||Add_Addon--Paid Addons,Vodafone Passport||</t>
-  </si>
-  <si>
-    <t>Plan change fron one to another</t>
-  </si>
-  <si>
-    <t>MSISDN--97412345679||Existing_PlanName--Postpaid Red 750 Promotion||New_PlanName--Postpaid Red 250 Promotion||</t>
-  </si>
-  <si>
-    <t>Remoing an addon</t>
-  </si>
-  <si>
-    <t>MSISDN--97412345678||Remove_Addon--Paid Addons,Vodafone Passport||</t>
-  </si>
-  <si>
     <t>OSM_APP</t>
   </si>
   <si>
@@ -287,9 +239,6 @@
   </si>
   <si>
     <t>RTB_Validation--Yes||</t>
-  </si>
-  <si>
-    <t>No</t>
   </si>
 </sst>
 </file>
@@ -716,7 +665,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
@@ -783,7 +732,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>84</v>
+        <v>68</v>
       </c>
       <c r="B4" t="s">
         <v>59</v>
@@ -806,22 +755,22 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="37.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="30.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="30" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="113.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="37.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
@@ -850,128 +799,19 @@
         <v>58</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>87</v>
-      </c>
-      <c r="C2" t="s">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>69</v>
       </c>
-      <c r="D2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E2" t="s">
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>70</v>
       </c>
-      <c r="F2" t="s">
-        <v>71</v>
-      </c>
-      <c r="G2" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>68</v>
-      </c>
-      <c r="C3" t="s">
-        <v>69</v>
-      </c>
-      <c r="D3" t="s">
-        <v>29</v>
-      </c>
-      <c r="E3" t="s">
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>70</v>
-      </c>
-      <c r="F3" t="s">
-        <v>73</v>
-      </c>
-      <c r="G3" t="s">
-        <v>74</v>
-      </c>
-      <c r="H3" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>68</v>
-      </c>
-      <c r="C4" t="s">
-        <v>75</v>
-      </c>
-      <c r="D4" t="s">
-        <v>37</v>
-      </c>
-      <c r="E4" t="s">
-        <v>77</v>
-      </c>
-      <c r="F4" t="s">
-        <v>78</v>
-      </c>
-      <c r="G4" t="s">
-        <v>79</v>
-      </c>
-      <c r="H4" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>68</v>
-      </c>
-      <c r="C5" t="s">
-        <v>75</v>
-      </c>
-      <c r="D5" t="s">
-        <v>39</v>
-      </c>
-      <c r="E5" t="s">
-        <v>77</v>
-      </c>
-      <c r="F5" t="s">
-        <v>80</v>
-      </c>
-      <c r="G5" t="s">
-        <v>81</v>
-      </c>
-      <c r="H5" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>68</v>
-      </c>
-      <c r="C6" t="s">
-        <v>69</v>
-      </c>
-      <c r="D6" t="s">
-        <v>37</v>
-      </c>
-      <c r="E6" t="s">
-        <v>76</v>
-      </c>
-      <c r="F6" t="s">
-        <v>82</v>
-      </c>
-      <c r="G6" t="s">
-        <v>83</v>
       </c>
     </row>
   </sheetData>

--- a/Framework/Database/TestDataDB.xlsx
+++ b/Framework/Database/TestDataDB.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="78">
   <si>
     <t>Application_Details</t>
   </si>
@@ -235,10 +235,31 @@
     <t>OSM_APP</t>
   </si>
   <si>
-    <t>SmartLimit--Yes||RTB_Validation--No||</t>
-  </si>
-  <si>
-    <t>RTB_Validation--Yes||</t>
+    <t>YES</t>
+  </si>
+  <si>
+    <t>IDP</t>
+  </si>
+  <si>
+    <t>NewCustomer</t>
+  </si>
+  <si>
+    <t>MSISDN--97412345678||SIM--8989898989898989||PlanName--Prepaid Red Promotion||</t>
+  </si>
+  <si>
+    <t>DP</t>
+  </si>
+  <si>
+    <t>ExtCustomer</t>
+  </si>
+  <si>
+    <t>MSISDN--97412345678||SIM--8989898989898989||PlanName--Prepaid Red Promotion||Account_No--Fetch#IDP||</t>
+  </si>
+  <si>
+    <t>MSISDN--97412345678||SIM--8989898989898989||PlanName--Postpaid Red 250 Promotion||Account_No--Fetch#IDP||</t>
+  </si>
+  <si>
+    <t>MSISDN--97412345678||SIM--8989898989898989||PlanName--Postpaid Red 250 Promotion||</t>
   </si>
 </sst>
 </file>
@@ -755,21 +776,21 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="37.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.85546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="22.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="109" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="14.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -799,19 +820,124 @@
         <v>58</v>
       </c>
     </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" t="s">
+        <v>71</v>
+      </c>
+      <c r="G2" t="s">
+        <v>72</v>
+      </c>
+    </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
         <v>69</v>
       </c>
+      <c r="C3" t="s">
+        <v>73</v>
+      </c>
+      <c r="D3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" t="s">
+        <v>74</v>
+      </c>
+      <c r="G3" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C4" t="s">
+        <v>73</v>
+      </c>
+      <c r="D4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E4" t="s">
+        <v>74</v>
+      </c>
+      <c r="G4" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>69</v>
+      </c>
+      <c r="C5" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>70</v>
+      <c r="D5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E5" t="s">
+        <v>71</v>
+      </c>
+      <c r="G5" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>69</v>
+      </c>
+      <c r="C6" t="s">
+        <v>73</v>
+      </c>
+      <c r="D6" t="s">
+        <v>29</v>
+      </c>
+      <c r="E6" t="s">
+        <v>74</v>
+      </c>
+      <c r="G6" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>69</v>
+      </c>
+      <c r="C7" t="s">
+        <v>73</v>
+      </c>
+      <c r="D7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" t="s">
+        <v>74</v>
+      </c>
+      <c r="G7" t="s">
+        <v>75</v>
       </c>
     </row>
   </sheetData>
@@ -825,7 +951,7 @@
   <dimension ref="A1:E51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -942,9 +1068,7 @@
       <c r="A7" s="3">
         <v>6</v>
       </c>
-      <c r="B7" s="4" t="s">
-        <v>13</v>
-      </c>
+      <c r="B7" s="4"/>
       <c r="C7" s="5" t="s">
         <v>25</v>
       </c>
@@ -1061,9 +1185,7 @@
       <c r="A15" s="3">
         <v>6</v>
       </c>
-      <c r="B15" s="4" t="s">
-        <v>29</v>
-      </c>
+      <c r="B15" s="4"/>
       <c r="C15" s="5" t="s">
         <v>25</v>
       </c>
@@ -1078,9 +1200,7 @@
       <c r="A16" s="3">
         <v>8</v>
       </c>
-      <c r="B16" s="4" t="s">
-        <v>29</v>
-      </c>
+      <c r="B16" s="4"/>
       <c r="C16" s="6" t="s">
         <v>30</v>
       </c>
@@ -1095,9 +1215,7 @@
       <c r="A17" s="3">
         <v>9</v>
       </c>
-      <c r="B17" s="4" t="s">
-        <v>29</v>
-      </c>
+      <c r="B17" s="4"/>
       <c r="C17" s="6" t="s">
         <v>32</v>
       </c>
@@ -1112,9 +1230,7 @@
       <c r="A18" s="3">
         <v>10</v>
       </c>
-      <c r="B18" s="4" t="s">
-        <v>29</v>
-      </c>
+      <c r="B18" s="4"/>
       <c r="C18" s="6" t="s">
         <v>34</v>
       </c>

--- a/Framework/Database/TestDataDB.xlsx
+++ b/Framework/Database/TestDataDB.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="383" uniqueCount="87">
   <si>
     <t>Application_Details</t>
   </si>
@@ -211,55 +211,82 @@
     <t>https://10.162.53.100:4443/ecommunications_oui_enu/start.swe?</t>
   </si>
   <si>
+    <t>Chrome</t>
+  </si>
+  <si>
+    <t>http://10.162.53.91:8001/soa-infra/services/vfqamrgdomain/QueryRealTimeBalanceSiebelReqABCSImpl/queryrealtimebalancesiebelreqabcsimpl_client_ep?WSDL</t>
+  </si>
+  <si>
+    <t>10.162.53.102:7001/OrderManagement/control/home</t>
+  </si>
+  <si>
+    <t>testing</t>
+  </si>
+  <si>
+    <t>testing123</t>
+  </si>
+  <si>
+    <t>OSM_APP</t>
+  </si>
+  <si>
+    <t>EnterprisePostpaid_Provisioning</t>
+  </si>
+  <si>
+    <t>Suspend</t>
+  </si>
+  <si>
+    <t>Suspension</t>
+  </si>
+  <si>
+    <t>Suspension of an account</t>
+  </si>
+  <si>
+    <t>Resume</t>
+  </si>
+  <si>
+    <t>Resumption of an account</t>
+  </si>
+  <si>
+    <t>Disconnect</t>
+  </si>
+  <si>
+    <t>Disconnecting a number</t>
+  </si>
+  <si>
+    <t>Change_PrimaryNumber</t>
+  </si>
+  <si>
+    <t>Change Primary Number</t>
+  </si>
+  <si>
+    <t>Barring</t>
+  </si>
+  <si>
+    <t>UnBarring</t>
+  </si>
+  <si>
+    <t>Change_MSISDN</t>
+  </si>
+  <si>
+    <t>Change MSISDN</t>
+  </si>
+  <si>
     <t>KALISARAVANAN</t>
   </si>
   <si>
     <t>Mav@2017</t>
   </si>
   <si>
-    <t>Chrome</t>
-  </si>
-  <si>
-    <t>http://10.162.53.91:8001/soa-infra/services/vfqamrgdomain/QueryRealTimeBalanceSiebelReqABCSImpl/queryrealtimebalancesiebelreqabcsimpl_client_ep?WSDL</t>
-  </si>
-  <si>
-    <t>10.162.53.102:7001/OrderManagement/control/home</t>
-  </si>
-  <si>
-    <t>testing</t>
-  </si>
-  <si>
-    <t>testing123</t>
-  </si>
-  <si>
-    <t>OSM_APP</t>
-  </si>
-  <si>
-    <t>YES</t>
-  </si>
-  <si>
-    <t>IDP</t>
-  </si>
-  <si>
-    <t>NewCustomer</t>
-  </si>
-  <si>
-    <t>MSISDN--97412345678||SIM--8989898989898989||PlanName--Prepaid Red Promotion||</t>
-  </si>
-  <si>
-    <t>DP</t>
-  </si>
-  <si>
-    <t>ExtCustomer</t>
-  </si>
-  <si>
-    <t>MSISDN--97412345678||SIM--8989898989898989||PlanName--Prepaid Red Promotion||Account_No--Fetch#IDP||</t>
-  </si>
-  <si>
-    <t>MSISDN--97412345678||SIM--8989898989898989||PlanName--Postpaid Red 250 Promotion||Account_No--Fetch#IDP||</t>
-  </si>
-  <si>
-    <t>MSISDN--97412345678||SIM--8989898989898989||PlanName--Postpaid Red 250 Promotion||</t>
+    <t>Consumer_Migration</t>
+  </si>
+  <si>
+    <t>ConsumerMigration</t>
+  </si>
+  <si>
+    <t>Enterprise_Migration</t>
+  </si>
+  <si>
+    <t>EnterpriseMigration</t>
   </si>
 </sst>
 </file>
@@ -686,8 +713,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -731,13 +758,13 @@
         <v>60</v>
       </c>
       <c r="D2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E2" t="s">
+        <v>82</v>
+      </c>
+      <c r="F2" t="s">
         <v>61</v>
-      </c>
-      <c r="E2" t="s">
-        <v>62</v>
-      </c>
-      <c r="F2" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -748,24 +775,24 @@
         <v>59</v>
       </c>
       <c r="C3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B4" t="s">
         <v>59</v>
       </c>
       <c r="C4" t="s">
+        <v>63</v>
+      </c>
+      <c r="D4" t="s">
+        <v>64</v>
+      </c>
+      <c r="E4" t="s">
         <v>65</v>
-      </c>
-      <c r="D4" t="s">
-        <v>66</v>
-      </c>
-      <c r="E4" t="s">
-        <v>67</v>
       </c>
     </row>
   </sheetData>
@@ -776,10 +803,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:H1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -787,10 +814,10 @@
     <col min="1" max="1" width="6.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="30.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="22.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="109" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.7109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="14.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -818,126 +845,6 @@
       </c>
       <c r="H1" s="10" t="s">
         <v>58</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>69</v>
-      </c>
-      <c r="C2" t="s">
-        <v>70</v>
-      </c>
-      <c r="D2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E2" t="s">
-        <v>71</v>
-      </c>
-      <c r="G2" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>69</v>
-      </c>
-      <c r="C3" t="s">
-        <v>73</v>
-      </c>
-      <c r="D3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3" t="s">
-        <v>74</v>
-      </c>
-      <c r="G3" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>69</v>
-      </c>
-      <c r="C4" t="s">
-        <v>73</v>
-      </c>
-      <c r="D4" t="s">
-        <v>29</v>
-      </c>
-      <c r="E4" t="s">
-        <v>74</v>
-      </c>
-      <c r="G4" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>69</v>
-      </c>
-      <c r="C5" t="s">
-        <v>70</v>
-      </c>
-      <c r="D5" t="s">
-        <v>29</v>
-      </c>
-      <c r="E5" t="s">
-        <v>71</v>
-      </c>
-      <c r="G5" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>69</v>
-      </c>
-      <c r="C6" t="s">
-        <v>73</v>
-      </c>
-      <c r="D6" t="s">
-        <v>29</v>
-      </c>
-      <c r="E6" t="s">
-        <v>74</v>
-      </c>
-      <c r="G6" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7" t="s">
-        <v>69</v>
-      </c>
-      <c r="C7" t="s">
-        <v>73</v>
-      </c>
-      <c r="D7" t="s">
-        <v>13</v>
-      </c>
-      <c r="E7" t="s">
-        <v>74</v>
-      </c>
-      <c r="G7" t="s">
-        <v>75</v>
       </c>
     </row>
   </sheetData>
@@ -948,10 +855,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:E51"/>
+  <dimension ref="A1:E107"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView topLeftCell="A88" workbookViewId="0">
+      <selection activeCell="K97" sqref="K97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1717,7 +1624,780 @@
         <v>22</v>
       </c>
     </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52" s="3">
+        <v>5</v>
+      </c>
+      <c r="B52" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C52" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D52" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E52" s="5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53" s="3">
+        <v>6</v>
+      </c>
+      <c r="B53" s="4"/>
+      <c r="C53" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D53" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E53" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54" s="3">
+        <v>7</v>
+      </c>
+      <c r="B54" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C54" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D54" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E54" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A56" s="3">
+        <v>1</v>
+      </c>
+      <c r="B56" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C56" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D56" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E56" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A57" s="3">
+        <v>2</v>
+      </c>
+      <c r="B57" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C57" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D57" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E57" s="5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A58" s="3">
+        <v>3</v>
+      </c>
+      <c r="B58" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C58" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="D58" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E58" s="5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A59" s="3">
+        <v>4</v>
+      </c>
+      <c r="B59" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C59" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D59" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E59" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A60" s="3">
+        <v>5</v>
+      </c>
+      <c r="B60" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C60" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D60" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E60" s="5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A61" s="3">
+        <v>6</v>
+      </c>
+      <c r="B61" s="4"/>
+      <c r="C61" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D61" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E61" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A62" s="3">
+        <v>7</v>
+      </c>
+      <c r="B62" s="4"/>
+      <c r="C62" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D62" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E62" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A63" s="3">
+        <v>8</v>
+      </c>
+      <c r="B63" s="4"/>
+      <c r="C63" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D63" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E63" s="6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A64" s="3">
+        <v>9</v>
+      </c>
+      <c r="B64" s="4"/>
+      <c r="C64" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D64" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E64" s="6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A65" s="3">
+        <v>10</v>
+      </c>
+      <c r="B65" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C65" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D65" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E65" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A67" s="3">
+        <v>1</v>
+      </c>
+      <c r="B67" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="C67" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D67" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E67" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A68" s="3">
+        <v>2</v>
+      </c>
+      <c r="B68" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="C68" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="D68" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E68" s="6" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A69" s="3">
+        <v>3</v>
+      </c>
+      <c r="B69" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="C69" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D69" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E69" s="6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A71" s="3">
+        <v>1</v>
+      </c>
+      <c r="B71" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="C71" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D71" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E71" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A72" s="3">
+        <v>2</v>
+      </c>
+      <c r="B72" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="C72" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="D72" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E72" s="6" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A73" s="3">
+        <v>3</v>
+      </c>
+      <c r="B73" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="C73" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D73" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E73" s="6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A75" s="3">
+        <v>1</v>
+      </c>
+      <c r="B75" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="C75" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D75" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E75" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A76" s="3">
+        <v>2</v>
+      </c>
+      <c r="B76" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="C76" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="D76" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E76" s="6" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A77" s="3">
+        <v>3</v>
+      </c>
+      <c r="B77" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="C77" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D77" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E77" s="6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A79" s="3">
+        <v>1</v>
+      </c>
+      <c r="B79" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="C79" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D79" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E79" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A80" s="3">
+        <v>2</v>
+      </c>
+      <c r="B80" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="C80" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="D80" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E80" s="6" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A81" s="3">
+        <v>3</v>
+      </c>
+      <c r="B81" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="C81" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D81" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E81" s="6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A83" s="3">
+        <v>1</v>
+      </c>
+      <c r="B83" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="C83" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D83" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E83" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A84" s="3">
+        <v>2</v>
+      </c>
+      <c r="B84" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="C84" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="D84" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E84" s="6" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A85" s="3">
+        <v>3</v>
+      </c>
+      <c r="B85" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="C85" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D85" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E85" s="6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A87" s="3">
+        <v>1</v>
+      </c>
+      <c r="B87" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="C87" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D87" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E87" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A88" s="3">
+        <v>2</v>
+      </c>
+      <c r="B88" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="C88" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="D88" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E88" s="6" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A89" s="3">
+        <v>3</v>
+      </c>
+      <c r="B89" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="C89" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D89" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E89" s="6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A91" s="3">
+        <v>1</v>
+      </c>
+      <c r="B91" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="C91" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D91" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E91" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A92" s="3">
+        <v>2</v>
+      </c>
+      <c r="B92" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="C92" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="D92" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E92" s="6" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A93" s="3">
+        <v>3</v>
+      </c>
+      <c r="B93" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="C93" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D93" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E93" s="6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A95" s="3">
+        <v>1</v>
+      </c>
+      <c r="B95" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="C95" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D95" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E95" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A96" s="3">
+        <v>2</v>
+      </c>
+      <c r="B96" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="C96" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="D96" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E96" s="6" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A97" s="3">
+        <v>3</v>
+      </c>
+      <c r="B97" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="C97" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D97" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E97" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A98" s="3">
+        <v>4</v>
+      </c>
+      <c r="B98" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="C98" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D98" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E98" s="6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A99" s="3">
+        <v>5</v>
+      </c>
+      <c r="B99" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="C99" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D99" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E99" s="6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A100" s="3">
+        <v>6</v>
+      </c>
+      <c r="B100" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="C100" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D100" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E100" s="6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A102" s="3">
+        <v>1</v>
+      </c>
+      <c r="B102" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="C102" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D102" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E102" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A103" s="3">
+        <v>2</v>
+      </c>
+      <c r="B103" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="C103" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="D103" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E103" s="6" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A104" s="3">
+        <v>3</v>
+      </c>
+      <c r="B104" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="C104" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D104" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E104" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A105" s="3">
+        <v>4</v>
+      </c>
+      <c r="B105" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="C105" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D105" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E105" s="6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A106" s="3">
+        <v>5</v>
+      </c>
+      <c r="B106" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="C106" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D106" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E106" s="6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A107" s="3">
+        <v>6</v>
+      </c>
+      <c r="B107" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="C107" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D107" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E107" s="6" t="s">
+        <v>28</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Framework/Database/TestDataDB.xlsx
+++ b/Framework/Database/TestDataDB.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="383" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="87">
   <si>
     <t>Application_Details</t>
   </si>
@@ -857,8 +857,8 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:E107"/>
   <sheetViews>
-    <sheetView topLeftCell="A88" workbookViewId="0">
-      <selection activeCell="K97" sqref="K97"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6:B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -975,7 +975,9 @@
       <c r="A7" s="3">
         <v>6</v>
       </c>
-      <c r="B7" s="4"/>
+      <c r="B7" s="4" t="s">
+        <v>13</v>
+      </c>
       <c r="C7" s="5" t="s">
         <v>25</v>
       </c>
@@ -1092,7 +1094,9 @@
       <c r="A15" s="3">
         <v>6</v>
       </c>
-      <c r="B15" s="4"/>
+      <c r="B15" s="4" t="s">
+        <v>29</v>
+      </c>
       <c r="C15" s="5" t="s">
         <v>25</v>
       </c>
@@ -1107,7 +1111,9 @@
       <c r="A16" s="3">
         <v>8</v>
       </c>
-      <c r="B16" s="4"/>
+      <c r="B16" s="4" t="s">
+        <v>29</v>
+      </c>
       <c r="C16" s="6" t="s">
         <v>30</v>
       </c>
@@ -1122,7 +1128,9 @@
       <c r="A17" s="3">
         <v>9</v>
       </c>
-      <c r="B17" s="4"/>
+      <c r="B17" s="4" t="s">
+        <v>29</v>
+      </c>
       <c r="C17" s="6" t="s">
         <v>32</v>
       </c>
@@ -1137,7 +1145,9 @@
       <c r="A18" s="3">
         <v>10</v>
       </c>
-      <c r="B18" s="4"/>
+      <c r="B18" s="4" t="s">
+        <v>29</v>
+      </c>
       <c r="C18" s="6" t="s">
         <v>34</v>
       </c>
@@ -1645,7 +1655,9 @@
       <c r="A53" s="3">
         <v>6</v>
       </c>
-      <c r="B53" s="4"/>
+      <c r="B53" s="4" t="s">
+        <v>49</v>
+      </c>
       <c r="C53" s="5" t="s">
         <v>25</v>
       </c>
@@ -1762,7 +1774,9 @@
       <c r="A61" s="3">
         <v>6</v>
       </c>
-      <c r="B61" s="4"/>
+      <c r="B61" s="4" t="s">
+        <v>67</v>
+      </c>
       <c r="C61" s="5" t="s">
         <v>25</v>
       </c>
@@ -1777,7 +1791,9 @@
       <c r="A62" s="3">
         <v>7</v>
       </c>
-      <c r="B62" s="4"/>
+      <c r="B62" s="4" t="s">
+        <v>67</v>
+      </c>
       <c r="C62" s="6" t="s">
         <v>30</v>
       </c>
@@ -1792,7 +1808,9 @@
       <c r="A63" s="3">
         <v>8</v>
       </c>
-      <c r="B63" s="4"/>
+      <c r="B63" s="4" t="s">
+        <v>67</v>
+      </c>
       <c r="C63" s="6" t="s">
         <v>32</v>
       </c>
@@ -1807,7 +1825,9 @@
       <c r="A64" s="3">
         <v>9</v>
       </c>
-      <c r="B64" s="4"/>
+      <c r="B64" s="4" t="s">
+        <v>67</v>
+      </c>
       <c r="C64" s="6" t="s">
         <v>34</v>
       </c>

--- a/Framework/Database/TestDataDB.xlsx
+++ b/Framework/Database/TestDataDB.xlsx
@@ -713,7 +713,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
@@ -805,8 +805,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:H1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -857,8 +857,8 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:E107"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6:B7"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Framework/Database/TestDataDB.xlsx
+++ b/Framework/Database/TestDataDB.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="LoginDetails" sheetId="2" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="421" uniqueCount="89">
   <si>
     <t>Application_Details</t>
   </si>
@@ -287,6 +287,12 @@
   </si>
   <si>
     <t>EnterpriseMigration</t>
+  </si>
+  <si>
+    <t>RealTimeBalance_Screen</t>
+  </si>
+  <si>
+    <t>RTB Screen Navigating in CRM</t>
   </si>
 </sst>
 </file>
@@ -713,7 +719,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
@@ -855,10 +861,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:E107"/>
+  <dimension ref="A1:E114"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
+      <selection activeCell="G114" sqref="G114"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -990,1390 +996,1407 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="C8" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="3">
+        <v>8</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="D8" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="E8" s="6" t="s">
+      <c r="D9" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E9" s="6" t="s">
         <v>28</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="3">
-        <v>1</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="E10" s="6" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B11" s="4" t="s">
         <v>29</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>29</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D12" s="6" t="s">
         <v>17</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B13" s="4" t="s">
         <v>29</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D13" s="6" t="s">
         <v>17</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B14" s="4" t="s">
         <v>29</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D14" s="6" t="s">
         <v>17</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B15" s="4" t="s">
         <v>29</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D15" s="6" t="s">
         <v>17</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B16" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="C16" s="6" t="s">
-        <v>30</v>
+      <c r="C16" s="5" t="s">
+        <v>25</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B17" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="C17" s="6" t="s">
-        <v>32</v>
+      <c r="C17" s="5" t="s">
+        <v>87</v>
       </c>
       <c r="D17" s="6" t="s">
         <v>17</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>33</v>
+        <v>88</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B18" s="4" t="s">
         <v>29</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B19" s="4" t="s">
         <v>29</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>28</v>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="3">
+        <v>10</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
-        <v>1</v>
-      </c>
-      <c r="B21" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="C21" s="5" t="s">
-        <v>14</v>
+        <v>11</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>27</v>
       </c>
       <c r="D21" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="E21" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="3">
-        <v>2</v>
-      </c>
-      <c r="B22" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="C22" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="D22" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="E22" s="5" t="s">
-        <v>36</v>
+      <c r="E21" s="6" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B23" s="7" t="s">
         <v>35</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="D23" s="6" t="s">
         <v>6</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>28</v>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="3">
+        <v>2</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="3">
-        <v>1</v>
-      </c>
-      <c r="B25" s="8" t="s">
-        <v>37</v>
+        <v>3</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>35</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="D25" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="E25" s="6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="3">
-        <v>2</v>
-      </c>
-      <c r="B26" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="C26" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="D26" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="E26" s="6" t="s">
-        <v>38</v>
+      <c r="E25" s="5" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B27" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="C27" s="6" t="s">
-        <v>30</v>
+      <c r="C27" s="5" t="s">
+        <v>14</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E27" s="6" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B28" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="C28" s="6" t="s">
-        <v>32</v>
+      <c r="C28" s="5" t="s">
+        <v>37</v>
       </c>
       <c r="D28" s="6" t="s">
         <v>17</v>
       </c>
       <c r="E28" s="6" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B29" s="8" t="s">
         <v>37</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D29" s="6" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="E29" s="6" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="3">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B30" s="8" t="s">
         <v>37</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="E30" s="6" t="s">
-        <v>28</v>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" s="3">
+        <v>5</v>
+      </c>
+      <c r="B31" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="C31" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D31" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E31" s="6" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="3">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B32" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="C32" s="5" t="s">
-        <v>14</v>
+        <v>37</v>
+      </c>
+      <c r="C32" s="6" t="s">
+        <v>27</v>
       </c>
       <c r="D32" s="6" t="s">
         <v>6</v>
       </c>
       <c r="E32" s="6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="3">
-        <v>2</v>
-      </c>
-      <c r="B33" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="C33" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="D33" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="E33" s="6" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B34" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="C34" s="6" t="s">
-        <v>30</v>
+      <c r="C34" s="5" t="s">
+        <v>14</v>
       </c>
       <c r="D34" s="6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E34" s="6" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B35" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="C35" s="6" t="s">
-        <v>32</v>
+      <c r="C35" s="5" t="s">
+        <v>39</v>
       </c>
       <c r="D35" s="6" t="s">
         <v>17</v>
       </c>
       <c r="E35" s="6" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B36" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="C36" s="6" t="s">
-        <v>34</v>
+      <c r="C36" s="5" t="s">
+        <v>87</v>
       </c>
       <c r="D36" s="6" t="s">
         <v>17</v>
       </c>
       <c r="E36" s="6" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="3">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B37" s="8" t="s">
         <v>39</v>
       </c>
       <c r="C37" s="6" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D37" s="6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E37" s="6" t="s">
-        <v>28</v>
+        <v>88</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" s="3">
+        <v>5</v>
+      </c>
+      <c r="B38" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="C38" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D38" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E38" s="6" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="3">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B39" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="C39" s="5" t="s">
-        <v>14</v>
+        <v>39</v>
+      </c>
+      <c r="C39" s="6" t="s">
+        <v>34</v>
       </c>
       <c r="D39" s="6" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="E39" s="6" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="3">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B40" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="C40" s="5" t="s">
-        <v>42</v>
+        <v>39</v>
+      </c>
+      <c r="C40" s="6" t="s">
+        <v>27</v>
       </c>
       <c r="D40" s="6" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="E40" s="6" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A41" s="3">
-        <v>3</v>
-      </c>
-      <c r="B41" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="C41" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="D41" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="E41" s="6" t="s">
-        <v>45</v>
+        <v>28</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B42" s="8" t="s">
         <v>41</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="D42" s="6" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="E42" s="6" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B43" s="8" t="s">
         <v>41</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="D43" s="6" t="s">
         <v>17</v>
       </c>
       <c r="E43" s="6" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="3">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B44" s="8" t="s">
         <v>41</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="D44" s="6" t="s">
         <v>17</v>
       </c>
       <c r="E44" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="3">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B45" s="8" t="s">
         <v>41</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>47</v>
+        <v>21</v>
       </c>
       <c r="D45" s="6" t="s">
         <v>17</v>
       </c>
       <c r="E45" s="6" t="s">
-        <v>48</v>
+        <v>22</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="3">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B46" s="8" t="s">
         <v>41</v>
       </c>
       <c r="C46" s="5" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D46" s="6" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="E46" s="6" t="s">
-        <v>28</v>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47" s="3">
+        <v>6</v>
+      </c>
+      <c r="B47" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="C47" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D47" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E47" s="6" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="3">
-        <v>1</v>
-      </c>
-      <c r="B48" s="4" t="s">
-        <v>49</v>
+        <v>7</v>
+      </c>
+      <c r="B48" s="8" t="s">
+        <v>41</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>14</v>
+        <v>47</v>
       </c>
       <c r="D48" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="E48" s="5" t="s">
-        <v>15</v>
+        <v>17</v>
+      </c>
+      <c r="E48" s="6" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="3">
-        <v>2</v>
-      </c>
-      <c r="B49" s="4" t="s">
-        <v>49</v>
+        <v>8</v>
+      </c>
+      <c r="B49" s="8" t="s">
+        <v>41</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="D49" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="E49" s="5" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A50" s="3">
-        <v>3</v>
-      </c>
-      <c r="B50" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="C50" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="D50" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="E50" s="5" t="s">
-        <v>51</v>
+        <v>6</v>
+      </c>
+      <c r="E49" s="6" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B51" s="4" t="s">
         <v>49</v>
       </c>
       <c r="C51" s="5" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="D51" s="6" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="E51" s="5" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" s="3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B52" s="4" t="s">
         <v>49</v>
       </c>
       <c r="C52" s="5" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="D52" s="6" t="s">
         <v>17</v>
       </c>
       <c r="E52" s="5" t="s">
-        <v>24</v>
+        <v>50</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" s="3">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B53" s="4" t="s">
         <v>49</v>
       </c>
       <c r="C53" s="5" t="s">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="D53" s="6" t="s">
         <v>17</v>
       </c>
       <c r="E53" s="5" t="s">
-        <v>26</v>
+        <v>51</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" s="3">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B54" s="4" t="s">
         <v>49</v>
       </c>
       <c r="C54" s="5" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="D54" s="6" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="E54" s="5" t="s">
-        <v>28</v>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A55" s="3">
+        <v>5</v>
+      </c>
+      <c r="B55" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C55" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D55" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E55" s="5" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" s="3">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>67</v>
+        <v>49</v>
       </c>
       <c r="C56" s="5" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="D56" s="6" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="E56" s="5" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" s="3">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>67</v>
+        <v>49</v>
       </c>
       <c r="C57" s="5" t="s">
-        <v>42</v>
+        <v>87</v>
       </c>
       <c r="D57" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="E57" s="5" t="s">
-        <v>50</v>
+      <c r="E57" s="6" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" s="3">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>67</v>
+        <v>49</v>
       </c>
       <c r="C58" s="5" t="s">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="D58" s="6" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="E58" s="5" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A59" s="3">
-        <v>4</v>
-      </c>
-      <c r="B59" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="C59" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D59" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="E59" s="5" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" s="3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B60" s="4" t="s">
         <v>67</v>
       </c>
       <c r="C60" s="5" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="D60" s="6" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="E60" s="5" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" s="3">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B61" s="4" t="s">
         <v>67</v>
       </c>
       <c r="C61" s="5" t="s">
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="D61" s="6" t="s">
         <v>17</v>
       </c>
       <c r="E61" s="5" t="s">
-        <v>26</v>
+        <v>50</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" s="3">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B62" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="C62" s="6" t="s">
-        <v>30</v>
+      <c r="C62" s="5" t="s">
+        <v>44</v>
       </c>
       <c r="D62" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="E62" s="6" t="s">
-        <v>31</v>
+        <v>17</v>
+      </c>
+      <c r="E62" s="5" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" s="3">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B63" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="C63" s="6" t="s">
-        <v>32</v>
+      <c r="C63" s="5" t="s">
+        <v>21</v>
       </c>
       <c r="D63" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="E63" s="6" t="s">
-        <v>33</v>
+      <c r="E63" s="5" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" s="3">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B64" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="C64" s="6" t="s">
-        <v>34</v>
+      <c r="C64" s="5" t="s">
+        <v>23</v>
       </c>
       <c r="D64" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="E64" s="6" t="s">
-        <v>33</v>
+      <c r="E64" s="5" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" s="3">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B65" s="4" t="s">
         <v>67</v>
       </c>
       <c r="C65" s="5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D65" s="6" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="E65" s="5" t="s">
-        <v>28</v>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A66" s="3">
+        <v>7</v>
+      </c>
+      <c r="B66" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C66" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="D66" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E66" s="6" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" s="3">
-        <v>1</v>
-      </c>
-      <c r="B67" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="C67" s="5" t="s">
-        <v>14</v>
+        <v>8</v>
+      </c>
+      <c r="B67" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C67" s="6" t="s">
+        <v>30</v>
       </c>
       <c r="D67" s="6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E67" s="6" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" s="3">
-        <v>2</v>
-      </c>
-      <c r="B68" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="C68" s="5" t="s">
-        <v>69</v>
+        <v>9</v>
+      </c>
+      <c r="B68" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C68" s="6" t="s">
+        <v>32</v>
       </c>
       <c r="D68" s="6" t="s">
         <v>17</v>
       </c>
       <c r="E68" s="6" t="s">
-        <v>70</v>
+        <v>33</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" s="3">
-        <v>3</v>
-      </c>
-      <c r="B69" s="8" t="s">
-        <v>68</v>
+        <v>10</v>
+      </c>
+      <c r="B69" s="4" t="s">
+        <v>67</v>
       </c>
       <c r="C69" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D69" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E69" s="6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A70" s="3">
+        <v>11</v>
+      </c>
+      <c r="B70" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C70" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="D69" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="E69" s="6" t="s">
+      <c r="D70" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E70" s="5" t="s">
         <v>28</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A71" s="3">
-        <v>1</v>
-      </c>
-      <c r="B71" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="C71" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D71" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="E71" s="6" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B72" s="8" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C72" s="5" t="s">
-        <v>71</v>
+        <v>14</v>
       </c>
       <c r="D72" s="6" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="E72" s="6" t="s">
-        <v>72</v>
+        <v>15</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" s="3">
+        <v>2</v>
+      </c>
+      <c r="B73" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="C73" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="D73" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E73" s="6" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A74" s="3">
         <v>3</v>
       </c>
-      <c r="B73" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="C73" s="6" t="s">
+      <c r="B74" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="C74" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="D73" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="E73" s="6" t="s">
+      <c r="D74" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E74" s="6" t="s">
         <v>28</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A75" s="3">
-        <v>1</v>
-      </c>
-      <c r="B75" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="C75" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D75" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="E75" s="6" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B76" s="8" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C76" s="5" t="s">
-        <v>73</v>
+        <v>14</v>
       </c>
       <c r="D76" s="6" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="E76" s="6" t="s">
-        <v>74</v>
+        <v>15</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" s="3">
+        <v>2</v>
+      </c>
+      <c r="B77" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="C77" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="D77" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E77" s="6" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A78" s="3">
         <v>3</v>
       </c>
-      <c r="B77" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="C77" s="6" t="s">
+      <c r="B78" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="C78" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="D77" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="E77" s="6" t="s">
+      <c r="D78" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E78" s="6" t="s">
         <v>28</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A79" s="3">
-        <v>1</v>
-      </c>
-      <c r="B79" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="C79" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D79" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="E79" s="6" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B80" s="8" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C80" s="5" t="s">
-        <v>75</v>
+        <v>14</v>
       </c>
       <c r="D80" s="6" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="E80" s="6" t="s">
-        <v>76</v>
+        <v>15</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" s="3">
+        <v>2</v>
+      </c>
+      <c r="B81" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="C81" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="D81" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E81" s="6" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A82" s="3">
         <v>3</v>
       </c>
-      <c r="B81" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="C81" s="6" t="s">
+      <c r="B82" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="C82" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="D81" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="E81" s="6" t="s">
+      <c r="D82" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E82" s="6" t="s">
         <v>28</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A83" s="3">
-        <v>1</v>
-      </c>
-      <c r="B83" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="C83" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D83" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="E83" s="6" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B84" s="8" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C84" s="5" t="s">
-        <v>77</v>
+        <v>14</v>
       </c>
       <c r="D84" s="6" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="E84" s="6" t="s">
-        <v>70</v>
+        <v>15</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" s="3">
+        <v>2</v>
+      </c>
+      <c r="B85" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="C85" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="D85" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E85" s="6" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A86" s="3">
         <v>3</v>
       </c>
-      <c r="B85" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="C85" s="6" t="s">
+      <c r="B86" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="C86" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="D85" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="E85" s="6" t="s">
+      <c r="D86" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E86" s="6" t="s">
         <v>28</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A87" s="3">
-        <v>1</v>
-      </c>
-      <c r="B87" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="C87" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D87" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="E87" s="6" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B88" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="C88" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
+      </c>
+      <c r="C88" s="5" t="s">
+        <v>14</v>
       </c>
       <c r="D88" s="6" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="E88" s="6" t="s">
-        <v>72</v>
+        <v>15</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89" s="3">
+        <v>2</v>
+      </c>
+      <c r="B89" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="C89" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="D89" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E89" s="6" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A90" s="3">
         <v>3</v>
       </c>
-      <c r="B89" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="C89" s="5" t="s">
+      <c r="B90" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="C90" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="D89" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="E89" s="6" t="s">
+      <c r="D90" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E90" s="6" t="s">
         <v>28</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A91" s="3">
-        <v>1</v>
-      </c>
-      <c r="B91" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="C91" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D91" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="E91" s="6" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B92" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="C92" s="6" t="s">
-        <v>79</v>
+        <v>78</v>
+      </c>
+      <c r="C92" s="5" t="s">
+        <v>14</v>
       </c>
       <c r="D92" s="6" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="E92" s="6" t="s">
-        <v>80</v>
+        <v>15</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93" s="3">
+        <v>2</v>
+      </c>
+      <c r="B93" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="C93" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="D93" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E93" s="6" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A94" s="3">
         <v>3</v>
       </c>
-      <c r="B93" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="C93" s="5" t="s">
+      <c r="B94" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="C94" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="D93" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="E93" s="6" t="s">
+      <c r="D94" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E94" s="6" t="s">
         <v>28</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A95" s="3">
-        <v>1</v>
-      </c>
-      <c r="B95" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="C95" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D95" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="E95" s="6" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96" s="3">
-        <v>2</v>
-      </c>
-      <c r="B96" s="4" t="s">
-        <v>83</v>
+        <v>1</v>
+      </c>
+      <c r="B96" s="8" t="s">
+        <v>79</v>
       </c>
       <c r="C96" s="5" t="s">
-        <v>83</v>
+        <v>14</v>
       </c>
       <c r="D96" s="6" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="E96" s="6" t="s">
-        <v>84</v>
+        <v>15</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97" s="3">
-        <v>3</v>
-      </c>
-      <c r="B97" s="4" t="s">
-        <v>83</v>
+        <v>2</v>
+      </c>
+      <c r="B97" s="8" t="s">
+        <v>79</v>
       </c>
       <c r="C97" s="6" t="s">
-        <v>30</v>
+        <v>79</v>
       </c>
       <c r="D97" s="6" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E97" s="6" t="s">
-        <v>31</v>
+        <v>80</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98" s="3">
-        <v>4</v>
-      </c>
-      <c r="B98" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="C98" s="6" t="s">
-        <v>32</v>
+        <v>3</v>
+      </c>
+      <c r="B98" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="C98" s="5" t="s">
+        <v>27</v>
       </c>
       <c r="D98" s="6" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="E98" s="6" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A99" s="3">
-        <v>5</v>
-      </c>
-      <c r="B99" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="C99" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="D99" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="E99" s="6" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100" s="3">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B100" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="C100" s="6" t="s">
-        <v>27</v>
+      <c r="C100" s="5" t="s">
+        <v>14</v>
       </c>
       <c r="D100" s="6" t="s">
         <v>6</v>
       </c>
       <c r="E100" s="6" t="s">
-        <v>28</v>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A101" s="3">
+        <v>2</v>
+      </c>
+      <c r="B101" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="C101" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="D101" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E101" s="6" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B102" s="4" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C102" s="5" t="s">
-        <v>14</v>
+        <v>87</v>
       </c>
       <c r="D102" s="6" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="E102" s="6" t="s">
-        <v>15</v>
+        <v>88</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B103" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="C103" s="5" t="s">
-        <v>85</v>
+        <v>83</v>
+      </c>
+      <c r="C103" s="6" t="s">
+        <v>30</v>
       </c>
       <c r="D103" s="6" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="E103" s="6" t="s">
-        <v>86</v>
+        <v>31</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B104" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="C104" s="5" t="s">
-        <v>30</v>
+        <v>83</v>
+      </c>
+      <c r="C104" s="6" t="s">
+        <v>32</v>
       </c>
       <c r="D104" s="6" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E104" s="6" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105" s="3">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B105" s="4" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C105" s="6" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D105" s="6" t="s">
         <v>17</v>
@@ -2384,35 +2407,137 @@
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A106" s="3">
+        <v>7</v>
+      </c>
+      <c r="B106" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="C106" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D106" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E106" s="6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A108" s="3">
+        <v>1</v>
+      </c>
+      <c r="B108" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="C108" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D108" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E108" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A109" s="3">
+        <v>2</v>
+      </c>
+      <c r="B109" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="C109" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="D109" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E109" s="6" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A110" s="3">
+        <v>3</v>
+      </c>
+      <c r="B110" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="C110" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="D110" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E110" s="6" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A111" s="3">
+        <v>4</v>
+      </c>
+      <c r="B111" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="C111" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D111" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E111" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A112" s="3">
         <v>5</v>
       </c>
-      <c r="B106" s="4" t="s">
+      <c r="B112" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="C106" s="6" t="s">
+      <c r="C112" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D112" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E112" s="6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A113" s="3">
+        <v>6</v>
+      </c>
+      <c r="B113" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="C113" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="D106" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="E106" s="6" t="s">
+      <c r="D113" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E113" s="6" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A107" s="3">
-        <v>6</v>
-      </c>
-      <c r="B107" s="4" t="s">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A114" s="3">
+        <v>7</v>
+      </c>
+      <c r="B114" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="C107" s="6" t="s">
+      <c r="C114" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="D107" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="E107" s="6" t="s">
+      <c r="D114" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E114" s="6" t="s">
         <v>28</v>
       </c>
     </row>

--- a/Framework/Database/TestDataDB.xlsx
+++ b/Framework/Database/TestDataDB.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="421" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="439" uniqueCount="98">
   <si>
     <t>Application_Details</t>
   </si>
@@ -293,13 +293,40 @@
   </si>
   <si>
     <t>RTB Screen Navigating in CRM</t>
+  </si>
+  <si>
+    <t>RTB_Check</t>
+  </si>
+  <si>
+    <t>IDP</t>
+  </si>
+  <si>
+    <t>YES</t>
+  </si>
+  <si>
+    <t>Prepaid_To_Postpaid</t>
+  </si>
+  <si>
+    <t>MSISDN--97478152934||New_PlanName--Postpaid Red 750 Promotion||</t>
+  </si>
+  <si>
+    <t>RTB_Validation--Yes||SmartLimit--Yes||</t>
+  </si>
+  <si>
+    <t>RTB Validation check</t>
+  </si>
+  <si>
+    <t>RTB Validation Check</t>
+  </si>
+  <si>
+    <t>RTB Validation Compare</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -327,6 +354,25 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="6">
@@ -412,7 +458,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -435,6 +481,18 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -809,10 +867,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:H1"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -820,11 +878,10 @@
     <col min="1" max="1" width="6.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="20.42578125" customWidth="1"/>
     <col min="6" max="6" width="22.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="50.5703125" customWidth="1"/>
+    <col min="8" max="8" width="46.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
@@ -853,18 +910,46 @@
         <v>58</v>
       </c>
     </row>
+    <row r="2" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" s="11">
+        <v>9</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="F2" s="13"/>
+      <c r="G2" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="H2" s="12" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="14"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:E114"/>
+  <dimension ref="A1:E118"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
-      <selection activeCell="G114" sqref="G114"/>
+    <sheetView tabSelected="1" topLeftCell="A100" workbookViewId="0">
+      <selection activeCell="C117" sqref="C117"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1195,7 +1280,7 @@
         <v>17</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>33</v>
+        <v>95</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
@@ -1348,7 +1433,7 @@
         <v>17</v>
       </c>
       <c r="E31" s="6" t="s">
-        <v>33</v>
+        <v>95</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
@@ -1467,7 +1552,7 @@
         <v>17</v>
       </c>
       <c r="E39" s="6" t="s">
-        <v>33</v>
+        <v>95</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
@@ -1926,7 +2011,7 @@
         <v>17</v>
       </c>
       <c r="E69" s="6" t="s">
-        <v>33</v>
+        <v>95</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
@@ -2328,13 +2413,13 @@
         <v>83</v>
       </c>
       <c r="C101" s="5" t="s">
-        <v>83</v>
+        <v>30</v>
       </c>
       <c r="D101" s="6" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="E101" s="6" t="s">
-        <v>84</v>
+        <v>31</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.25">
@@ -2344,14 +2429,14 @@
       <c r="B102" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="C102" s="5" t="s">
-        <v>87</v>
+      <c r="C102" s="6" t="s">
+        <v>32</v>
       </c>
       <c r="D102" s="6" t="s">
         <v>17</v>
       </c>
       <c r="E102" s="6" t="s">
-        <v>88</v>
+        <v>33</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.25">
@@ -2361,14 +2446,14 @@
       <c r="B103" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="C103" s="6" t="s">
-        <v>30</v>
+      <c r="C103" s="5" t="s">
+        <v>83</v>
       </c>
       <c r="D103" s="6" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E103" s="6" t="s">
-        <v>31</v>
+        <v>84</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.25">
@@ -2378,14 +2463,14 @@
       <c r="B104" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="C104" s="6" t="s">
-        <v>32</v>
+      <c r="C104" s="5" t="s">
+        <v>87</v>
       </c>
       <c r="D104" s="6" t="s">
         <v>17</v>
       </c>
       <c r="E104" s="6" t="s">
-        <v>33</v>
+        <v>88</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.25">
@@ -2396,13 +2481,13 @@
         <v>83</v>
       </c>
       <c r="C105" s="6" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D105" s="6" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="E105" s="6" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.25">
@@ -2413,69 +2498,67 @@
         <v>83</v>
       </c>
       <c r="C106" s="6" t="s">
-        <v>27</v>
+        <v>89</v>
       </c>
       <c r="D106" s="6" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="E106" s="6" t="s">
-        <v>28</v>
+        <v>96</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A107" s="3">
+        <v>8</v>
+      </c>
+      <c r="B107" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="C107" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D107" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E107" s="6" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A108" s="3">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="B108" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="C108" s="5" t="s">
-        <v>14</v>
+        <v>83</v>
+      </c>
+      <c r="C108" s="6" t="s">
+        <v>27</v>
       </c>
       <c r="D108" s="6" t="s">
         <v>6</v>
       </c>
       <c r="E108" s="6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A109" s="3">
-        <v>2</v>
-      </c>
-      <c r="B109" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="C109" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="D109" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="E109" s="6" t="s">
-        <v>86</v>
+        <v>28</v>
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A110" s="3">
-        <v>3</v>
-      </c>
-      <c r="B110" s="4" t="s">
-        <v>85</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="B110" s="4"/>
       <c r="C110" s="5" t="s">
-        <v>87</v>
+        <v>14</v>
       </c>
       <c r="D110" s="6" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="E110" s="6" t="s">
-        <v>88</v>
+        <v>15</v>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A111" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B111" s="4" t="s">
         <v>85</v>
@@ -2492,7 +2575,7 @@
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A112" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B112" s="4" t="s">
         <v>85</v>
@@ -2509,35 +2592,97 @@
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A113" s="3">
-        <v>6</v>
-      </c>
-      <c r="B113" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B113" s="4"/>
+      <c r="C113" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="C113" s="6" t="s">
-        <v>34</v>
-      </c>
       <c r="D113" s="6" t="s">
         <v>17</v>
       </c>
       <c r="E113" s="6" t="s">
-        <v>33</v>
+        <v>86</v>
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A114" s="3">
+        <v>5</v>
+      </c>
+      <c r="B114" s="4"/>
+      <c r="C114" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="D114" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E114" s="6" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A115" s="3">
+        <v>6</v>
+      </c>
+      <c r="B115" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="C115" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D115" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B114" s="4" t="s">
+      <c r="E115" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A116" s="3">
+        <v>7</v>
+      </c>
+      <c r="B116" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="C114" s="6" t="s">
+      <c r="C116" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="D116" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E116" s="6" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A117" s="3">
+        <v>8</v>
+      </c>
+      <c r="B117" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="C117" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D117" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E117" s="6" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A118" s="3">
+        <v>9</v>
+      </c>
+      <c r="B118" s="4"/>
+      <c r="C118" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="D114" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="E114" s="6" t="s">
+      <c r="D118" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E118" s="6" t="s">
         <v>28</v>
       </c>
     </row>

--- a/Framework/Database/TestDataDB.xlsx
+++ b/Framework/Database/TestDataDB.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="LoginDetails" sheetId="2" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="439" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="497" uniqueCount="111">
   <si>
     <t>Application_Details</t>
   </si>
@@ -169,12 +169,6 @@
     <t>Plan Item Selection for SIPT</t>
   </si>
   <si>
-    <t>OrderSubmission</t>
-  </si>
-  <si>
-    <t>Submit</t>
-  </si>
-  <si>
     <t>EnterprisePrepaid_Provisioning</t>
   </si>
   <si>
@@ -301,32 +295,77 @@
     <t>IDP</t>
   </si>
   <si>
+    <t>Prepaid_To_Postpaid</t>
+  </si>
+  <si>
+    <t>RTB Validation check</t>
+  </si>
+  <si>
+    <t>RTB Validation Check</t>
+  </si>
+  <si>
+    <t>RTB Validation Compare</t>
+  </si>
+  <si>
+    <t>NewCustomer</t>
+  </si>
+  <si>
+    <t>MSISDN--97478152943||SIM--8962702800901163943||PlanName--Prepaid Red Promotion||</t>
+  </si>
+  <si>
+    <t>ExtCustomer</t>
+  </si>
+  <si>
+    <t>RTB_Validation--Yes||</t>
+  </si>
+  <si>
+    <t>EnterprisePostpaid</t>
+  </si>
+  <si>
+    <t>MSISDN--97478152945||Add_Addon--Paid Addons,Vodafone Passport||</t>
+  </si>
+  <si>
+    <t>MSISDN--97478152944||Add_Addon--Paid Addons,Vodafone Passport||</t>
+  </si>
+  <si>
+    <t>MSISDN--97478152946||Add_Addon--Paid Addons,Vodafone Passport||</t>
+  </si>
+  <si>
+    <t>MSISDN--97478152945||New_PlanName--Postpaid Basic Promotion||</t>
+  </si>
+  <si>
+    <t>MSISDN--97478152943||New_PlanName--Postpaid Standard Promotion||</t>
+  </si>
+  <si>
+    <t>Postpaid_To_Prepaid</t>
+  </si>
+  <si>
+    <t>MSISDN--97478152944||New_PlanName--Prepaid Red Promotion||</t>
+  </si>
+  <si>
+    <t>MSISDN--97478152946||New_SIM--8962702800901163947||</t>
+  </si>
+  <si>
     <t>YES</t>
   </si>
   <si>
-    <t>Prepaid_To_Postpaid</t>
-  </si>
-  <si>
-    <t>MSISDN--97478152934||New_PlanName--Postpaid Red 750 Promotion||</t>
-  </si>
-  <si>
-    <t>RTB_Validation--Yes||SmartLimit--Yes||</t>
-  </si>
-  <si>
-    <t>RTB Validation check</t>
-  </si>
-  <si>
-    <t>RTB Validation Check</t>
-  </si>
-  <si>
-    <t>RTB Validation Compare</t>
+    <t>MSISDN--97478152944||SIM--8962702800901163944||PlanName--Postpaid Professional Promotion||Account_No--09214461761||</t>
+  </si>
+  <si>
+    <t>MSISDN--97478152945||SIM--8962702800901163945||PlanName--Postpaid Standard Promotion||Account_No--09214461761||Bill_NewProfile--Yes||</t>
+  </si>
+  <si>
+    <t>MSISDN--97478152946||SIM--8962702800901163946||PlanName--Postpaid Basic Promotion||Account_No--09214461761||</t>
+  </si>
+  <si>
+    <t>No</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -358,19 +397,6 @@
     <font>
       <sz val="10"/>
       <color theme="1"/>
-      <name val="Segoe UI"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
       <name val="Segoe UI"/>
       <family val="2"/>
     </font>
@@ -458,7 +484,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -481,15 +507,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -778,7 +795,7 @@
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -816,19 +833,19 @@
         <v>6</v>
       </c>
       <c r="B2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D2" t="s">
+        <v>79</v>
+      </c>
+      <c r="E2" t="s">
+        <v>80</v>
+      </c>
+      <c r="F2" t="s">
         <v>59</v>
-      </c>
-      <c r="C2" t="s">
-        <v>60</v>
-      </c>
-      <c r="D2" t="s">
-        <v>81</v>
-      </c>
-      <c r="E2" t="s">
-        <v>82</v>
-      </c>
-      <c r="F2" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -836,27 +853,27 @@
         <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B4" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C4" t="s">
+        <v>61</v>
+      </c>
+      <c r="D4" t="s">
+        <v>62</v>
+      </c>
+      <c r="E4" t="s">
         <v>63</v>
-      </c>
-      <c r="D4" t="s">
-        <v>64</v>
-      </c>
-      <c r="E4" t="s">
-        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -867,10 +884,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -878,10 +895,11 @@
     <col min="1" max="1" width="6.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="20.42578125" customWidth="1"/>
+    <col min="4" max="4" width="30.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="22.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="50.5703125" customWidth="1"/>
-    <col min="8" max="8" width="46.28515625" customWidth="1"/>
+    <col min="7" max="7" width="134.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
@@ -889,53 +907,273 @@
         <v>8</v>
       </c>
       <c r="B1" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="D1" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="E1" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="F1" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="G1" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="H1" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="G1" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="H1" s="10" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" s="11">
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C2" t="s">
+        <v>88</v>
+      </c>
+      <c r="D2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E2" t="s">
+        <v>93</v>
+      </c>
+      <c r="G2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>106</v>
+      </c>
+      <c r="C3" t="s">
+        <v>88</v>
+      </c>
+      <c r="D3" t="s">
+        <v>65</v>
+      </c>
+      <c r="E3" t="s">
+        <v>95</v>
+      </c>
+      <c r="G3" t="s">
+        <v>107</v>
+      </c>
+      <c r="H3" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>106</v>
+      </c>
+      <c r="C4" t="s">
+        <v>88</v>
+      </c>
+      <c r="D4" t="s">
+        <v>65</v>
+      </c>
+      <c r="E4" t="s">
+        <v>95</v>
+      </c>
+      <c r="G4" t="s">
+        <v>108</v>
+      </c>
+      <c r="H4" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>106</v>
+      </c>
+      <c r="C5" t="s">
+        <v>88</v>
+      </c>
+      <c r="D5" t="s">
+        <v>37</v>
+      </c>
+      <c r="E5" t="s">
+        <v>97</v>
+      </c>
+      <c r="G5" t="s">
+        <v>98</v>
+      </c>
+      <c r="H5" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>106</v>
+      </c>
+      <c r="C6" t="s">
+        <v>88</v>
+      </c>
+      <c r="D6" t="s">
+        <v>37</v>
+      </c>
+      <c r="E6" t="s">
+        <v>97</v>
+      </c>
+      <c r="G6" t="s">
+        <v>99</v>
+      </c>
+      <c r="H6" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>106</v>
+      </c>
+      <c r="C7" t="s">
+        <v>88</v>
+      </c>
+      <c r="D7" t="s">
+        <v>65</v>
+      </c>
+      <c r="E7" t="s">
+        <v>95</v>
+      </c>
+      <c r="G7" t="s">
+        <v>109</v>
+      </c>
+      <c r="H7" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>106</v>
+      </c>
+      <c r="C8" t="s">
+        <v>88</v>
+      </c>
+      <c r="D8" t="s">
+        <v>37</v>
+      </c>
+      <c r="E8" t="s">
+        <v>97</v>
+      </c>
+      <c r="G8" t="s">
+        <v>100</v>
+      </c>
+      <c r="H8" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>106</v>
+      </c>
+      <c r="C9" t="s">
+        <v>88</v>
+      </c>
+      <c r="D9" t="s">
+        <v>39</v>
+      </c>
+      <c r="E9" t="s">
+        <v>97</v>
+      </c>
+      <c r="G9" t="s">
+        <v>101</v>
+      </c>
+      <c r="H9" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10">
         <v>9</v>
       </c>
-      <c r="B2" s="12" t="s">
-        <v>91</v>
-      </c>
-      <c r="C2" s="12" t="s">
-        <v>90</v>
-      </c>
-      <c r="D2" s="12" t="s">
-        <v>85</v>
-      </c>
-      <c r="E2" s="12" t="s">
-        <v>92</v>
-      </c>
-      <c r="F2" s="13"/>
-      <c r="G2" s="12" t="s">
-        <v>93</v>
-      </c>
-      <c r="H2" s="12" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="14"/>
+      <c r="B10" t="s">
+        <v>106</v>
+      </c>
+      <c r="C10" t="s">
+        <v>88</v>
+      </c>
+      <c r="D10" t="s">
+        <v>83</v>
+      </c>
+      <c r="E10" t="s">
+        <v>89</v>
+      </c>
+      <c r="G10" t="s">
+        <v>102</v>
+      </c>
+      <c r="H10" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>106</v>
+      </c>
+      <c r="C11" t="s">
+        <v>88</v>
+      </c>
+      <c r="D11" t="s">
+        <v>83</v>
+      </c>
+      <c r="E11" t="s">
+        <v>103</v>
+      </c>
+      <c r="G11" t="s">
+        <v>104</v>
+      </c>
+      <c r="H11" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>106</v>
+      </c>
+      <c r="C12" t="s">
+        <v>88</v>
+      </c>
+      <c r="D12" t="s">
+        <v>35</v>
+      </c>
+      <c r="E12" t="s">
+        <v>97</v>
+      </c>
+      <c r="G12" t="s">
+        <v>105</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -948,8 +1186,8 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:E118"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A100" workbookViewId="0">
-      <selection activeCell="C117" sqref="C117"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G56" sqref="G56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1087,13 +1325,13 @@
         <v>13</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D8" s="6" t="s">
         <v>17</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -1223,13 +1461,13 @@
         <v>29</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D17" s="6" t="s">
         <v>17</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -1280,7 +1518,7 @@
         <v>17</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
@@ -1433,7 +1671,7 @@
         <v>17</v>
       </c>
       <c r="E31" s="6" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
@@ -1495,7 +1733,7 @@
         <v>39</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D36" s="6" t="s">
         <v>17</v>
@@ -1518,7 +1756,7 @@
         <v>7</v>
       </c>
       <c r="E37" s="6" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
@@ -1552,7 +1790,7 @@
         <v>17</v>
       </c>
       <c r="E39" s="6" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
@@ -1576,7 +1814,7 @@
       <c r="A42" s="3">
         <v>1</v>
       </c>
-      <c r="B42" s="8" t="s">
+      <c r="B42" s="4" t="s">
         <v>41</v>
       </c>
       <c r="C42" s="5" t="s">
@@ -1585,7 +1823,7 @@
       <c r="D42" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="E42" s="6" t="s">
+      <c r="E42" s="5" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1593,7 +1831,7 @@
       <c r="A43" s="3">
         <v>2</v>
       </c>
-      <c r="B43" s="8" t="s">
+      <c r="B43" s="4" t="s">
         <v>41</v>
       </c>
       <c r="C43" s="5" t="s">
@@ -1602,7 +1840,7 @@
       <c r="D43" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="E43" s="6" t="s">
+      <c r="E43" s="5" t="s">
         <v>43</v>
       </c>
     </row>
@@ -1610,7 +1848,7 @@
       <c r="A44" s="3">
         <v>3</v>
       </c>
-      <c r="B44" s="8" t="s">
+      <c r="B44" s="4" t="s">
         <v>41</v>
       </c>
       <c r="C44" s="5" t="s">
@@ -1619,7 +1857,7 @@
       <c r="D44" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="E44" s="6" t="s">
+      <c r="E44" s="5" t="s">
         <v>45</v>
       </c>
     </row>
@@ -1627,7 +1865,7 @@
       <c r="A45" s="3">
         <v>4</v>
       </c>
-      <c r="B45" s="8" t="s">
+      <c r="B45" s="4" t="s">
         <v>41</v>
       </c>
       <c r="C45" s="5" t="s">
@@ -1636,7 +1874,7 @@
       <c r="D45" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="E45" s="6" t="s">
+      <c r="E45" s="5" t="s">
         <v>22</v>
       </c>
     </row>
@@ -1644,7 +1882,7 @@
       <c r="A46" s="3">
         <v>5</v>
       </c>
-      <c r="B46" s="8" t="s">
+      <c r="B46" s="4" t="s">
         <v>41</v>
       </c>
       <c r="C46" s="5" t="s">
@@ -1653,7 +1891,7 @@
       <c r="D46" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="E46" s="6" t="s">
+      <c r="E46" s="5" t="s">
         <v>24</v>
       </c>
     </row>
@@ -1661,7 +1899,7 @@
       <c r="A47" s="3">
         <v>6</v>
       </c>
-      <c r="B47" s="8" t="s">
+      <c r="B47" s="4" t="s">
         <v>41</v>
       </c>
       <c r="C47" s="5" t="s">
@@ -1670,7 +1908,7 @@
       <c r="D47" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="E47" s="6" t="s">
+      <c r="E47" s="5" t="s">
         <v>46</v>
       </c>
     </row>
@@ -1678,42 +1916,28 @@
       <c r="A48" s="3">
         <v>7</v>
       </c>
-      <c r="B48" s="8" t="s">
+      <c r="B48" s="4" t="s">
         <v>41</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>47</v>
+        <v>27</v>
       </c>
       <c r="D48" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="E48" s="6" t="s">
-        <v>48</v>
+        <v>6</v>
+      </c>
+      <c r="E48" s="5" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A49" s="3">
-        <v>8</v>
-      </c>
-      <c r="B49" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="C49" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="D49" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="E49" s="6" t="s">
-        <v>28</v>
-      </c>
+      <c r="A49" s="11"/>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="3">
         <v>1</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C51" s="5" t="s">
         <v>14</v>
@@ -1730,7 +1954,7 @@
         <v>2</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C52" s="5" t="s">
         <v>42</v>
@@ -1739,7 +1963,7 @@
         <v>17</v>
       </c>
       <c r="E52" s="5" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
@@ -1747,7 +1971,7 @@
         <v>3</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C53" s="5" t="s">
         <v>44</v>
@@ -1756,7 +1980,7 @@
         <v>17</v>
       </c>
       <c r="E53" s="5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
@@ -1764,7 +1988,7 @@
         <v>4</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C54" s="5" t="s">
         <v>21</v>
@@ -1781,7 +2005,7 @@
         <v>5</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C55" s="5" t="s">
         <v>23</v>
@@ -1798,7 +2022,7 @@
         <v>6</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C56" s="5" t="s">
         <v>25</v>
@@ -1815,16 +2039,16 @@
         <v>7</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C57" s="5" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D57" s="6" t="s">
         <v>17</v>
       </c>
       <c r="E57" s="6" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
@@ -1832,7 +2056,7 @@
         <v>8</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C58" s="5" t="s">
         <v>27</v>
@@ -1849,7 +2073,7 @@
         <v>1</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C60" s="5" t="s">
         <v>14</v>
@@ -1866,7 +2090,7 @@
         <v>2</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C61" s="5" t="s">
         <v>42</v>
@@ -1875,7 +2099,7 @@
         <v>17</v>
       </c>
       <c r="E61" s="5" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
@@ -1883,7 +2107,7 @@
         <v>3</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C62" s="5" t="s">
         <v>44</v>
@@ -1892,7 +2116,7 @@
         <v>17</v>
       </c>
       <c r="E62" s="5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
@@ -1900,7 +2124,7 @@
         <v>4</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C63" s="5" t="s">
         <v>21</v>
@@ -1917,7 +2141,7 @@
         <v>5</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C64" s="5" t="s">
         <v>23</v>
@@ -1934,7 +2158,7 @@
         <v>6</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C65" s="5" t="s">
         <v>25</v>
@@ -1951,16 +2175,16 @@
         <v>7</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C66" s="5" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D66" s="6" t="s">
         <v>17</v>
       </c>
       <c r="E66" s="6" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
@@ -1968,7 +2192,7 @@
         <v>8</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C67" s="6" t="s">
         <v>30</v>
@@ -1985,7 +2209,7 @@
         <v>9</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C68" s="6" t="s">
         <v>32</v>
@@ -2002,7 +2226,7 @@
         <v>10</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C69" s="6" t="s">
         <v>34</v>
@@ -2011,7 +2235,7 @@
         <v>17</v>
       </c>
       <c r="E69" s="6" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
@@ -2019,7 +2243,7 @@
         <v>11</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C70" s="5" t="s">
         <v>27</v>
@@ -2036,7 +2260,7 @@
         <v>1</v>
       </c>
       <c r="B72" s="8" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C72" s="5" t="s">
         <v>14</v>
@@ -2053,16 +2277,16 @@
         <v>2</v>
       </c>
       <c r="B73" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="C73" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="D73" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E73" s="6" t="s">
         <v>68</v>
-      </c>
-      <c r="C73" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="D73" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="E73" s="6" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
@@ -2070,7 +2294,7 @@
         <v>3</v>
       </c>
       <c r="B74" s="8" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C74" s="6" t="s">
         <v>27</v>
@@ -2087,7 +2311,7 @@
         <v>1</v>
       </c>
       <c r="B76" s="8" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C76" s="5" t="s">
         <v>14</v>
@@ -2104,16 +2328,16 @@
         <v>2</v>
       </c>
       <c r="B77" s="8" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C77" s="5" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D77" s="6" t="s">
         <v>17</v>
       </c>
       <c r="E77" s="6" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
@@ -2121,7 +2345,7 @@
         <v>3</v>
       </c>
       <c r="B78" s="8" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C78" s="6" t="s">
         <v>27</v>
@@ -2138,7 +2362,7 @@
         <v>1</v>
       </c>
       <c r="B80" s="8" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C80" s="5" t="s">
         <v>14</v>
@@ -2155,16 +2379,16 @@
         <v>2</v>
       </c>
       <c r="B81" s="8" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C81" s="5" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D81" s="6" t="s">
         <v>17</v>
       </c>
       <c r="E81" s="6" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
@@ -2172,7 +2396,7 @@
         <v>3</v>
       </c>
       <c r="B82" s="8" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C82" s="6" t="s">
         <v>27</v>
@@ -2189,7 +2413,7 @@
         <v>1</v>
       </c>
       <c r="B84" s="8" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C84" s="5" t="s">
         <v>14</v>
@@ -2206,16 +2430,16 @@
         <v>2</v>
       </c>
       <c r="B85" s="8" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C85" s="5" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D85" s="6" t="s">
         <v>17</v>
       </c>
       <c r="E85" s="6" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
@@ -2223,7 +2447,7 @@
         <v>3</v>
       </c>
       <c r="B86" s="8" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C86" s="6" t="s">
         <v>27</v>
@@ -2240,7 +2464,7 @@
         <v>1</v>
       </c>
       <c r="B88" s="8" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C88" s="5" t="s">
         <v>14</v>
@@ -2257,16 +2481,16 @@
         <v>2</v>
       </c>
       <c r="B89" s="8" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C89" s="5" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D89" s="6" t="s">
         <v>17</v>
       </c>
       <c r="E89" s="6" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.25">
@@ -2274,7 +2498,7 @@
         <v>3</v>
       </c>
       <c r="B90" s="8" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C90" s="6" t="s">
         <v>27</v>
@@ -2291,7 +2515,7 @@
         <v>1</v>
       </c>
       <c r="B92" s="8" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C92" s="5" t="s">
         <v>14</v>
@@ -2308,16 +2532,16 @@
         <v>2</v>
       </c>
       <c r="B93" s="8" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C93" s="6" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D93" s="6" t="s">
         <v>17</v>
       </c>
       <c r="E93" s="6" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.25">
@@ -2325,7 +2549,7 @@
         <v>3</v>
       </c>
       <c r="B94" s="8" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C94" s="5" t="s">
         <v>27</v>
@@ -2342,7 +2566,7 @@
         <v>1</v>
       </c>
       <c r="B96" s="8" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C96" s="5" t="s">
         <v>14</v>
@@ -2359,16 +2583,16 @@
         <v>2</v>
       </c>
       <c r="B97" s="8" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C97" s="6" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D97" s="6" t="s">
         <v>17</v>
       </c>
       <c r="E97" s="6" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.25">
@@ -2376,7 +2600,7 @@
         <v>3</v>
       </c>
       <c r="B98" s="8" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C98" s="5" t="s">
         <v>27</v>
@@ -2393,7 +2617,7 @@
         <v>1</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C100" s="5" t="s">
         <v>14</v>
@@ -2410,7 +2634,7 @@
         <v>2</v>
       </c>
       <c r="B101" s="4" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C101" s="5" t="s">
         <v>30</v>
@@ -2427,7 +2651,7 @@
         <v>3</v>
       </c>
       <c r="B102" s="4" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C102" s="6" t="s">
         <v>32</v>
@@ -2444,16 +2668,16 @@
         <v>4</v>
       </c>
       <c r="B103" s="4" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C103" s="5" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D103" s="6" t="s">
         <v>17</v>
       </c>
       <c r="E103" s="6" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.25">
@@ -2461,16 +2685,16 @@
         <v>5</v>
       </c>
       <c r="B104" s="4" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C104" s="5" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D104" s="6" t="s">
         <v>17</v>
       </c>
       <c r="E104" s="6" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.25">
@@ -2478,7 +2702,7 @@
         <v>6</v>
       </c>
       <c r="B105" s="4" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C105" s="6" t="s">
         <v>30</v>
@@ -2495,16 +2719,16 @@
         <v>7</v>
       </c>
       <c r="B106" s="4" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C106" s="6" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D106" s="6" t="s">
         <v>17</v>
       </c>
       <c r="E106" s="6" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.25">
@@ -2512,7 +2736,7 @@
         <v>8</v>
       </c>
       <c r="B107" s="4" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C107" s="6" t="s">
         <v>34</v>
@@ -2521,7 +2745,7 @@
         <v>17</v>
       </c>
       <c r="E107" s="6" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.25">
@@ -2529,7 +2753,7 @@
         <v>9</v>
       </c>
       <c r="B108" s="4" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C108" s="6" t="s">
         <v>27</v>
@@ -2545,7 +2769,9 @@
       <c r="A110" s="3">
         <v>1</v>
       </c>
-      <c r="B110" s="4"/>
+      <c r="B110" s="4" t="s">
+        <v>83</v>
+      </c>
       <c r="C110" s="5" t="s">
         <v>14</v>
       </c>
@@ -2561,7 +2787,7 @@
         <v>2</v>
       </c>
       <c r="B111" s="4" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C111" s="5" t="s">
         <v>30</v>
@@ -2578,7 +2804,7 @@
         <v>3</v>
       </c>
       <c r="B112" s="4" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C112" s="6" t="s">
         <v>32</v>
@@ -2594,30 +2820,34 @@
       <c r="A113" s="3">
         <v>4</v>
       </c>
-      <c r="B113" s="4"/>
+      <c r="B113" s="4" t="s">
+        <v>83</v>
+      </c>
       <c r="C113" s="5" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D113" s="6" t="s">
         <v>17</v>
       </c>
       <c r="E113" s="6" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A114" s="3">
         <v>5</v>
       </c>
-      <c r="B114" s="4"/>
+      <c r="B114" s="4" t="s">
+        <v>83</v>
+      </c>
       <c r="C114" s="5" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D114" s="6" t="s">
         <v>17</v>
       </c>
       <c r="E114" s="6" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.25">
@@ -2625,7 +2855,7 @@
         <v>6</v>
       </c>
       <c r="B115" s="4" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C115" s="5" t="s">
         <v>30</v>
@@ -2642,16 +2872,16 @@
         <v>7</v>
       </c>
       <c r="B116" s="4" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C116" s="6" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D116" s="6" t="s">
         <v>17</v>
       </c>
       <c r="E116" s="6" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.25">
@@ -2659,7 +2889,7 @@
         <v>8</v>
       </c>
       <c r="B117" s="4" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C117" s="6" t="s">
         <v>34</v>
@@ -2668,14 +2898,16 @@
         <v>17</v>
       </c>
       <c r="E117" s="6" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A118" s="3">
         <v>9</v>
       </c>
-      <c r="B118" s="4"/>
+      <c r="B118" s="4" t="s">
+        <v>83</v>
+      </c>
       <c r="C118" s="6" t="s">
         <v>27</v>
       </c>

--- a/Framework/Database/TestDataDB.xlsx
+++ b/Framework/Database/TestDataDB.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="LoginDetails" sheetId="2" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="497" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="497" uniqueCount="110">
   <si>
     <t>Application_Details</t>
   </si>
@@ -310,9 +310,6 @@
     <t>NewCustomer</t>
   </si>
   <si>
-    <t>MSISDN--97478152943||SIM--8962702800901163943||PlanName--Prepaid Red Promotion||</t>
-  </si>
-  <si>
     <t>ExtCustomer</t>
   </si>
   <si>
@@ -349,16 +346,16 @@
     <t>YES</t>
   </si>
   <si>
-    <t>MSISDN--97478152944||SIM--8962702800901163944||PlanName--Postpaid Professional Promotion||Account_No--09214461761||</t>
-  </si>
-  <si>
-    <t>MSISDN--97478152945||SIM--8962702800901163945||PlanName--Postpaid Standard Promotion||Account_No--09214461761||Bill_NewProfile--Yes||</t>
-  </si>
-  <si>
-    <t>MSISDN--97478152946||SIM--8962702800901163946||PlanName--Postpaid Basic Promotion||Account_No--09214461761||</t>
-  </si>
-  <si>
-    <t>No</t>
+    <t>MSISDN--97478152945||SIM--8962702800901163945||PlanName--Postpaid Standard Promotion||Account_No--Fetch#IDP||Bill_NewProfile--Yes||</t>
+  </si>
+  <si>
+    <t>MSISDN--97478152946||SIM--8962702800901163946||PlanName--Postpaid Basic Promotion||Account_No--Fetch#IDP||</t>
+  </si>
+  <si>
+    <t>MSISDN--97478152944||SIM--8962702800901163944||PlanName--Postpaid Professional Promotion||Account_No--Fetch#IDP||</t>
+  </si>
+  <si>
+    <t>MSISDN--97478152947||SIM--8962702800901163947||PlanName--Prepaid Red Promotion||</t>
   </si>
 </sst>
 </file>
@@ -794,7 +791,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
@@ -886,8 +883,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:H12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -933,7 +930,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="C2" t="s">
         <v>88</v>
@@ -945,7 +942,7 @@
         <v>93</v>
       </c>
       <c r="G2" t="s">
-        <v>94</v>
+        <v>109</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -953,7 +950,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C3" t="s">
         <v>88</v>
@@ -962,13 +959,13 @@
         <v>65</v>
       </c>
       <c r="E3" t="s">
+        <v>94</v>
+      </c>
+      <c r="G3" t="s">
+        <v>108</v>
+      </c>
+      <c r="H3" t="s">
         <v>95</v>
-      </c>
-      <c r="G3" t="s">
-        <v>107</v>
-      </c>
-      <c r="H3" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -976,7 +973,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C4" t="s">
         <v>88</v>
@@ -985,13 +982,13 @@
         <v>65</v>
       </c>
       <c r="E4" t="s">
+        <v>94</v>
+      </c>
+      <c r="G4" t="s">
+        <v>106</v>
+      </c>
+      <c r="H4" t="s">
         <v>95</v>
-      </c>
-      <c r="G4" t="s">
-        <v>108</v>
-      </c>
-      <c r="H4" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -999,7 +996,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C5" t="s">
         <v>88</v>
@@ -1008,13 +1005,13 @@
         <v>37</v>
       </c>
       <c r="E5" t="s">
+        <v>96</v>
+      </c>
+      <c r="G5" t="s">
         <v>97</v>
       </c>
-      <c r="G5" t="s">
-        <v>98</v>
-      </c>
       <c r="H5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -1022,7 +1019,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C6" t="s">
         <v>88</v>
@@ -1031,13 +1028,13 @@
         <v>37</v>
       </c>
       <c r="E6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -1045,7 +1042,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C7" t="s">
         <v>88</v>
@@ -1054,13 +1051,13 @@
         <v>65</v>
       </c>
       <c r="E7" t="s">
+        <v>94</v>
+      </c>
+      <c r="G7" t="s">
+        <v>107</v>
+      </c>
+      <c r="H7" t="s">
         <v>95</v>
-      </c>
-      <c r="G7" t="s">
-        <v>109</v>
-      </c>
-      <c r="H7" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -1068,7 +1065,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C8" t="s">
         <v>88</v>
@@ -1077,13 +1074,13 @@
         <v>37</v>
       </c>
       <c r="E8" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G8" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H8" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -1091,7 +1088,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C9" t="s">
         <v>88</v>
@@ -1100,13 +1097,13 @@
         <v>39</v>
       </c>
       <c r="E9" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G9" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="H9" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
@@ -1114,7 +1111,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C10" t="s">
         <v>88</v>
@@ -1126,10 +1123,10 @@
         <v>89</v>
       </c>
       <c r="G10" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H10" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -1137,7 +1134,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C11" t="s">
         <v>88</v>
@@ -1146,13 +1143,13 @@
         <v>83</v>
       </c>
       <c r="E11" t="s">
+        <v>102</v>
+      </c>
+      <c r="G11" t="s">
         <v>103</v>
       </c>
-      <c r="G11" t="s">
-        <v>104</v>
-      </c>
       <c r="H11" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
@@ -1160,7 +1157,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C12" t="s">
         <v>88</v>
@@ -1169,10 +1166,10 @@
         <v>35</v>
       </c>
       <c r="E12" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G12" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
   </sheetData>
@@ -1186,8 +1183,8 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:E118"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G56" sqref="G56"/>
+    <sheetView topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Framework/Database/TestDataDB.xlsx
+++ b/Framework/Database/TestDataDB.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="LoginDetails" sheetId="2" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="497" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="497" uniqueCount="111">
   <si>
     <t>Application_Details</t>
   </si>
@@ -346,16 +346,19 @@
     <t>YES</t>
   </si>
   <si>
-    <t>MSISDN--97478152945||SIM--8962702800901163945||PlanName--Postpaid Standard Promotion||Account_No--Fetch#IDP||Bill_NewProfile--Yes||</t>
-  </si>
-  <si>
-    <t>MSISDN--97478152946||SIM--8962702800901163946||PlanName--Postpaid Basic Promotion||Account_No--Fetch#IDP||</t>
-  </si>
-  <si>
-    <t>MSISDN--97478152944||SIM--8962702800901163944||PlanName--Postpaid Professional Promotion||Account_No--Fetch#IDP||</t>
-  </si>
-  <si>
     <t>MSISDN--97478152947||SIM--8962702800901163947||PlanName--Prepaid Red Promotion||</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>MSISDN--97478152944||SIM--8962702800901163944||PlanName--Postpaid Professional Promotion||Account_No--09222369021||</t>
+  </si>
+  <si>
+    <t>MSISDN--97478152945||SIM--8962702800901163945||PlanName--Postpaid Standard Promotion||Account_No--09222369021||Bill_NewProfile--Yes||</t>
+  </si>
+  <si>
+    <t>MSISDN--97478152946||SIM--8962702800901163946||PlanName--Postpaid Basic Promotion||Account_No--09222369021||</t>
   </si>
 </sst>
 </file>
@@ -791,7 +794,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
@@ -883,8 +886,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:H12"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -930,7 +933,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="C2" t="s">
         <v>88</v>
@@ -942,7 +945,7 @@
         <v>93</v>
       </c>
       <c r="G2" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -950,7 +953,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="C3" t="s">
         <v>88</v>
@@ -985,7 +988,7 @@
         <v>94</v>
       </c>
       <c r="G4" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="H4" t="s">
         <v>95</v>
@@ -1054,7 +1057,7 @@
         <v>94</v>
       </c>
       <c r="G7" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="H7" t="s">
         <v>95</v>
@@ -1183,8 +1186,8 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:E118"/>
   <sheetViews>
-    <sheetView topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+    <sheetView topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="H65" sqref="H65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Framework/Database/TestDataDB.xlsx
+++ b/Framework/Database/TestDataDB.xlsx
@@ -887,7 +887,7 @@
   <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -976,7 +976,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="C4" t="s">
         <v>88</v>

--- a/Framework/Database/TestDataDB.xlsx
+++ b/Framework/Database/TestDataDB.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="LoginDetails" sheetId="2" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="497" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="455" uniqueCount="103">
   <si>
     <t>Application_Details</t>
   </si>
@@ -316,49 +316,25 @@
     <t>RTB_Validation--Yes||</t>
   </si>
   <si>
-    <t>EnterprisePostpaid</t>
-  </si>
-  <si>
-    <t>MSISDN--97478152945||Add_Addon--Paid Addons,Vodafone Passport||</t>
-  </si>
-  <si>
-    <t>MSISDN--97478152944||Add_Addon--Paid Addons,Vodafone Passport||</t>
-  </si>
-  <si>
-    <t>MSISDN--97478152946||Add_Addon--Paid Addons,Vodafone Passport||</t>
-  </si>
-  <si>
-    <t>MSISDN--97478152945||New_PlanName--Postpaid Basic Promotion||</t>
-  </si>
-  <si>
-    <t>MSISDN--97478152943||New_PlanName--Postpaid Standard Promotion||</t>
+    <t>YES</t>
+  </si>
+  <si>
+    <t>MSISDN--97478152949||SIM--8962702800901163949||PlanName--Prepaid Red Promotion||</t>
+  </si>
+  <si>
+    <t>MSISDN--97478152949||New_PlanName--Postpaid Professional Promotion||Bill_NewProfile--Yes||</t>
+  </si>
+  <si>
+    <t>NO</t>
+  </si>
+  <si>
+    <t>MSISDN--97478152950||SIM--8962702800901163950||PlanName--Postpaid Standard Promotion||Account_No--09224884961||</t>
   </si>
   <si>
     <t>Postpaid_To_Prepaid</t>
   </si>
   <si>
-    <t>MSISDN--97478152944||New_PlanName--Prepaid Red Promotion||</t>
-  </si>
-  <si>
-    <t>MSISDN--97478152946||New_SIM--8962702800901163947||</t>
-  </si>
-  <si>
-    <t>YES</t>
-  </si>
-  <si>
-    <t>MSISDN--97478152947||SIM--8962702800901163947||PlanName--Prepaid Red Promotion||</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>MSISDN--97478152944||SIM--8962702800901163944||PlanName--Postpaid Professional Promotion||Account_No--09222369021||</t>
-  </si>
-  <si>
-    <t>MSISDN--97478152945||SIM--8962702800901163945||PlanName--Postpaid Standard Promotion||Account_No--09222369021||Bill_NewProfile--Yes||</t>
-  </si>
-  <si>
-    <t>MSISDN--97478152946||SIM--8962702800901163946||PlanName--Postpaid Basic Promotion||Account_No--09222369021||</t>
+    <t>MSISDN--97478152949||New_PlanName--Prepaid Red Promotion||</t>
   </si>
 </sst>
 </file>
@@ -794,7 +770,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
@@ -884,10 +860,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -898,7 +874,7 @@
     <col min="4" max="4" width="30.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="20" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="22.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="134.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="115.28515625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="21.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -933,7 +909,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="C2" t="s">
         <v>88</v>
@@ -945,7 +921,7 @@
         <v>93</v>
       </c>
       <c r="G2" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -953,7 +929,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="C3" t="s">
         <v>88</v>
@@ -965,7 +941,7 @@
         <v>94</v>
       </c>
       <c r="G3" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="H3" t="s">
         <v>95</v>
@@ -976,19 +952,19 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="C4" t="s">
         <v>88</v>
       </c>
       <c r="D4" t="s">
-        <v>65</v>
+        <v>83</v>
       </c>
       <c r="E4" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="G4" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="H4" t="s">
         <v>95</v>
@@ -999,180 +975,19 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="C5" t="s">
         <v>88</v>
       </c>
       <c r="D5" t="s">
-        <v>37</v>
+        <v>83</v>
       </c>
       <c r="E5" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="G5" t="s">
-        <v>97</v>
-      </c>
-      <c r="H5" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>105</v>
-      </c>
-      <c r="C6" t="s">
-        <v>88</v>
-      </c>
-      <c r="D6" t="s">
-        <v>37</v>
-      </c>
-      <c r="E6" t="s">
-        <v>96</v>
-      </c>
-      <c r="G6" t="s">
-        <v>98</v>
-      </c>
-      <c r="H6" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7" t="s">
-        <v>105</v>
-      </c>
-      <c r="C7" t="s">
-        <v>88</v>
-      </c>
-      <c r="D7" t="s">
-        <v>65</v>
-      </c>
-      <c r="E7" t="s">
-        <v>94</v>
-      </c>
-      <c r="G7" t="s">
-        <v>110</v>
-      </c>
-      <c r="H7" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8" t="s">
-        <v>105</v>
-      </c>
-      <c r="C8" t="s">
-        <v>88</v>
-      </c>
-      <c r="D8" t="s">
-        <v>37</v>
-      </c>
-      <c r="E8" t="s">
-        <v>96</v>
-      </c>
-      <c r="G8" t="s">
-        <v>99</v>
-      </c>
-      <c r="H8" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="B9" t="s">
-        <v>105</v>
-      </c>
-      <c r="C9" t="s">
-        <v>88</v>
-      </c>
-      <c r="D9" t="s">
-        <v>39</v>
-      </c>
-      <c r="E9" t="s">
-        <v>96</v>
-      </c>
-      <c r="G9" t="s">
-        <v>100</v>
-      </c>
-      <c r="H9" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>9</v>
-      </c>
-      <c r="B10" t="s">
-        <v>105</v>
-      </c>
-      <c r="C10" t="s">
-        <v>88</v>
-      </c>
-      <c r="D10" t="s">
-        <v>83</v>
-      </c>
-      <c r="E10" t="s">
-        <v>89</v>
-      </c>
-      <c r="G10" t="s">
-        <v>101</v>
-      </c>
-      <c r="H10" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>10</v>
-      </c>
-      <c r="B11" t="s">
-        <v>105</v>
-      </c>
-      <c r="C11" t="s">
-        <v>88</v>
-      </c>
-      <c r="D11" t="s">
-        <v>83</v>
-      </c>
-      <c r="E11" t="s">
         <v>102</v>
-      </c>
-      <c r="G11" t="s">
-        <v>103</v>
-      </c>
-      <c r="H11" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>11</v>
-      </c>
-      <c r="B12" t="s">
-        <v>105</v>
-      </c>
-      <c r="C12" t="s">
-        <v>88</v>
-      </c>
-      <c r="D12" t="s">
-        <v>35</v>
-      </c>
-      <c r="E12" t="s">
-        <v>96</v>
-      </c>
-      <c r="G12" t="s">
-        <v>104</v>
       </c>
     </row>
   </sheetData>
@@ -1186,8 +1001,8 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:E118"/>
   <sheetViews>
-    <sheetView topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="H65" sqref="H65"/>
+    <sheetView topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="B70" sqref="B70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Framework/Database/TestDataDB.xlsx
+++ b/Framework/Database/TestDataDB.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="455" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="433" uniqueCount="91">
   <si>
     <t>Application_Details</t>
   </si>
@@ -292,12 +292,6 @@
     <t>RTB_Check</t>
   </si>
   <si>
-    <t>IDP</t>
-  </si>
-  <si>
-    <t>Prepaid_To_Postpaid</t>
-  </si>
-  <si>
     <t>RTB Validation check</t>
   </si>
   <si>
@@ -305,36 +299,6 @@
   </si>
   <si>
     <t>RTB Validation Compare</t>
-  </si>
-  <si>
-    <t>NewCustomer</t>
-  </si>
-  <si>
-    <t>ExtCustomer</t>
-  </si>
-  <si>
-    <t>RTB_Validation--Yes||</t>
-  </si>
-  <si>
-    <t>YES</t>
-  </si>
-  <si>
-    <t>MSISDN--97478152949||SIM--8962702800901163949||PlanName--Prepaid Red Promotion||</t>
-  </si>
-  <si>
-    <t>MSISDN--97478152949||New_PlanName--Postpaid Professional Promotion||Bill_NewProfile--Yes||</t>
-  </si>
-  <si>
-    <t>NO</t>
-  </si>
-  <si>
-    <t>MSISDN--97478152950||SIM--8962702800901163950||PlanName--Postpaid Standard Promotion||Account_No--09224884961||</t>
-  </si>
-  <si>
-    <t>Postpaid_To_Prepaid</t>
-  </si>
-  <si>
-    <t>MSISDN--97478152949||New_PlanName--Prepaid Red Promotion||</t>
   </si>
 </sst>
 </file>
@@ -771,7 +735,7 @@
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -860,10 +824,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:H1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -871,11 +835,11 @@
     <col min="1" max="1" width="6.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="30.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="22.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="115.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
@@ -902,92 +866,6 @@
       </c>
       <c r="H1" s="10" t="s">
         <v>56</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>99</v>
-      </c>
-      <c r="C2" t="s">
-        <v>88</v>
-      </c>
-      <c r="D2" t="s">
-        <v>47</v>
-      </c>
-      <c r="E2" t="s">
-        <v>93</v>
-      </c>
-      <c r="G2" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>99</v>
-      </c>
-      <c r="C3" t="s">
-        <v>88</v>
-      </c>
-      <c r="D3" t="s">
-        <v>65</v>
-      </c>
-      <c r="E3" t="s">
-        <v>94</v>
-      </c>
-      <c r="G3" t="s">
-        <v>100</v>
-      </c>
-      <c r="H3" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>96</v>
-      </c>
-      <c r="C4" t="s">
-        <v>88</v>
-      </c>
-      <c r="D4" t="s">
-        <v>83</v>
-      </c>
-      <c r="E4" t="s">
-        <v>89</v>
-      </c>
-      <c r="G4" t="s">
-        <v>98</v>
-      </c>
-      <c r="H4" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>96</v>
-      </c>
-      <c r="C5" t="s">
-        <v>88</v>
-      </c>
-      <c r="D5" t="s">
-        <v>83</v>
-      </c>
-      <c r="E5" t="s">
-        <v>101</v>
-      </c>
-      <c r="G5" t="s">
-        <v>102</v>
       </c>
     </row>
   </sheetData>
@@ -1002,7 +880,7 @@
   <dimension ref="A1:E118"/>
   <sheetViews>
     <sheetView topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="B70" sqref="B70"/>
+      <selection activeCell="F61" sqref="F61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1333,7 +1211,7 @@
         <v>17</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
@@ -1486,7 +1364,7 @@
         <v>17</v>
       </c>
       <c r="E31" s="6" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
@@ -1605,7 +1483,7 @@
         <v>17</v>
       </c>
       <c r="E39" s="6" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
@@ -2050,7 +1928,7 @@
         <v>17</v>
       </c>
       <c r="E69" s="6" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
@@ -2543,7 +2421,7 @@
         <v>17</v>
       </c>
       <c r="E106" s="6" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.25">
@@ -2560,7 +2438,7 @@
         <v>17</v>
       </c>
       <c r="E107" s="6" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.25">
@@ -2696,7 +2574,7 @@
         <v>17</v>
       </c>
       <c r="E116" s="6" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.25">
@@ -2713,7 +2591,7 @@
         <v>17</v>
       </c>
       <c r="E117" s="6" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.25">

--- a/Framework/Database/TestDataDB.xlsx
+++ b/Framework/Database/TestDataDB.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="LoginDetails" sheetId="2" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="433" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="477" uniqueCount="94">
   <si>
     <t>Application_Details</t>
   </si>
@@ -202,9 +202,6 @@
     <t>QA06</t>
   </si>
   <si>
-    <t>https://10.162.53.100:4443/ecommunications_oui_enu/start.swe?</t>
-  </si>
-  <si>
     <t>Chrome</t>
   </si>
   <si>
@@ -265,40 +262,52 @@
     <t>Change MSISDN</t>
   </si>
   <si>
+    <t>Consumer_Migration</t>
+  </si>
+  <si>
+    <t>ConsumerMigration</t>
+  </si>
+  <si>
+    <t>Enterprise_Migration</t>
+  </si>
+  <si>
+    <t>EnterpriseMigration</t>
+  </si>
+  <si>
+    <t>RealTimeBalance_Screen</t>
+  </si>
+  <si>
+    <t>RTB Screen Navigating in CRM</t>
+  </si>
+  <si>
+    <t>RTB_Check</t>
+  </si>
+  <si>
+    <t>RTB Validation check</t>
+  </si>
+  <si>
+    <t>RTB Validation Check</t>
+  </si>
+  <si>
+    <t>RTB Validation Compare</t>
+  </si>
+  <si>
+    <t>RTB_Compare</t>
+  </si>
+  <si>
+    <t>Change_SmartLimit</t>
+  </si>
+  <si>
+    <t>QA07</t>
+  </si>
+  <si>
+    <t>https://10.162.53.125:4443/ecommunications_oui_enu/start.swe?</t>
+  </si>
+  <si>
     <t>KALISARAVANAN</t>
   </si>
   <si>
     <t>Mav@2017</t>
-  </si>
-  <si>
-    <t>Consumer_Migration</t>
-  </si>
-  <si>
-    <t>ConsumerMigration</t>
-  </si>
-  <si>
-    <t>Enterprise_Migration</t>
-  </si>
-  <si>
-    <t>EnterpriseMigration</t>
-  </si>
-  <si>
-    <t>RealTimeBalance_Screen</t>
-  </si>
-  <si>
-    <t>RTB Screen Navigating in CRM</t>
-  </si>
-  <si>
-    <t>RTB_Check</t>
-  </si>
-  <si>
-    <t>RTB Validation check</t>
-  </si>
-  <si>
-    <t>RTB Validation Check</t>
-  </si>
-  <si>
-    <t>RTB Validation Compare</t>
   </si>
 </sst>
 </file>
@@ -734,8 +743,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -773,19 +782,19 @@
         <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>57</v>
+        <v>90</v>
       </c>
       <c r="C2" t="s">
+        <v>91</v>
+      </c>
+      <c r="D2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E2" t="s">
+        <v>93</v>
+      </c>
+      <c r="F2" t="s">
         <v>58</v>
-      </c>
-      <c r="D2" t="s">
-        <v>79</v>
-      </c>
-      <c r="E2" t="s">
-        <v>80</v>
-      </c>
-      <c r="F2" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -796,24 +805,24 @@
         <v>57</v>
       </c>
       <c r="C3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B4" t="s">
         <v>57</v>
       </c>
       <c r="C4" t="s">
+        <v>60</v>
+      </c>
+      <c r="D4" t="s">
         <v>61</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>62</v>
-      </c>
-      <c r="E4" t="s">
-        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -826,8 +835,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:H1"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -877,10 +886,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:E118"/>
+  <dimension ref="A1:E130"/>
   <sheetViews>
-    <sheetView topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="F61" sqref="F61"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J50" sqref="J49:J50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1018,13 +1027,13 @@
         <v>13</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="D8" s="6" t="s">
         <v>17</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -1154,13 +1163,13 @@
         <v>29</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="D17" s="6" t="s">
         <v>17</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -1211,7 +1220,7 @@
         <v>17</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
@@ -1364,7 +1373,7 @@
         <v>17</v>
       </c>
       <c r="E31" s="6" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
@@ -1426,7 +1435,7 @@
         <v>39</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="D36" s="6" t="s">
         <v>17</v>
@@ -1449,7 +1458,7 @@
         <v>7</v>
       </c>
       <c r="E37" s="6" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
@@ -1483,7 +1492,7 @@
         <v>17</v>
       </c>
       <c r="E39" s="6" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
@@ -1735,13 +1744,13 @@
         <v>47</v>
       </c>
       <c r="C57" s="5" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="D57" s="6" t="s">
         <v>17</v>
       </c>
       <c r="E57" s="6" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
@@ -1766,7 +1775,7 @@
         <v>1</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C60" s="5" t="s">
         <v>14</v>
@@ -1783,7 +1792,7 @@
         <v>2</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C61" s="5" t="s">
         <v>42</v>
@@ -1800,7 +1809,7 @@
         <v>3</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C62" s="5" t="s">
         <v>44</v>
@@ -1817,7 +1826,7 @@
         <v>4</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C63" s="5" t="s">
         <v>21</v>
@@ -1834,7 +1843,7 @@
         <v>5</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C64" s="5" t="s">
         <v>23</v>
@@ -1851,7 +1860,7 @@
         <v>6</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C65" s="5" t="s">
         <v>25</v>
@@ -1868,16 +1877,16 @@
         <v>7</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C66" s="5" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="D66" s="6" t="s">
         <v>17</v>
       </c>
       <c r="E66" s="6" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
@@ -1885,7 +1894,7 @@
         <v>8</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C67" s="6" t="s">
         <v>30</v>
@@ -1902,7 +1911,7 @@
         <v>9</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C68" s="6" t="s">
         <v>32</v>
@@ -1919,7 +1928,7 @@
         <v>10</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C69" s="6" t="s">
         <v>34</v>
@@ -1928,7 +1937,7 @@
         <v>17</v>
       </c>
       <c r="E69" s="6" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
@@ -1936,7 +1945,7 @@
         <v>11</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C70" s="5" t="s">
         <v>27</v>
@@ -1953,7 +1962,7 @@
         <v>1</v>
       </c>
       <c r="B72" s="8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C72" s="5" t="s">
         <v>14</v>
@@ -1970,16 +1979,16 @@
         <v>2</v>
       </c>
       <c r="B73" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="C73" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="C73" s="5" t="s">
+      <c r="D73" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E73" s="6" t="s">
         <v>67</v>
-      </c>
-      <c r="D73" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="E73" s="6" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
@@ -1987,7 +1996,7 @@
         <v>3</v>
       </c>
       <c r="B74" s="8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C74" s="6" t="s">
         <v>27</v>
@@ -2004,7 +2013,7 @@
         <v>1</v>
       </c>
       <c r="B76" s="8" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C76" s="5" t="s">
         <v>14</v>
@@ -2021,16 +2030,16 @@
         <v>2</v>
       </c>
       <c r="B77" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="C77" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="D77" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E77" s="6" t="s">
         <v>69</v>
-      </c>
-      <c r="C77" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="D77" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="E77" s="6" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
@@ -2038,7 +2047,7 @@
         <v>3</v>
       </c>
       <c r="B78" s="8" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C78" s="6" t="s">
         <v>27</v>
@@ -2055,7 +2064,7 @@
         <v>1</v>
       </c>
       <c r="B80" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C80" s="5" t="s">
         <v>14</v>
@@ -2072,16 +2081,16 @@
         <v>2</v>
       </c>
       <c r="B81" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="C81" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="D81" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E81" s="6" t="s">
         <v>71</v>
-      </c>
-      <c r="C81" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="D81" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="E81" s="6" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
@@ -2089,7 +2098,7 @@
         <v>3</v>
       </c>
       <c r="B82" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C82" s="6" t="s">
         <v>27</v>
@@ -2106,7 +2115,7 @@
         <v>1</v>
       </c>
       <c r="B84" s="8" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C84" s="5" t="s">
         <v>14</v>
@@ -2123,16 +2132,16 @@
         <v>2</v>
       </c>
       <c r="B85" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="C85" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="D85" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E85" s="6" t="s">
         <v>73</v>
-      </c>
-      <c r="C85" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="D85" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="E85" s="6" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
@@ -2140,7 +2149,7 @@
         <v>3</v>
       </c>
       <c r="B86" s="8" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C86" s="6" t="s">
         <v>27</v>
@@ -2157,7 +2166,7 @@
         <v>1</v>
       </c>
       <c r="B88" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C88" s="5" t="s">
         <v>14</v>
@@ -2174,16 +2183,16 @@
         <v>2</v>
       </c>
       <c r="B89" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C89" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D89" s="6" t="s">
         <v>17</v>
       </c>
       <c r="E89" s="6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.25">
@@ -2191,7 +2200,7 @@
         <v>3</v>
       </c>
       <c r="B90" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C90" s="6" t="s">
         <v>27</v>
@@ -2208,7 +2217,7 @@
         <v>1</v>
       </c>
       <c r="B92" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C92" s="5" t="s">
         <v>14</v>
@@ -2225,16 +2234,16 @@
         <v>2</v>
       </c>
       <c r="B93" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C93" s="6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D93" s="6" t="s">
         <v>17</v>
       </c>
       <c r="E93" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.25">
@@ -2242,7 +2251,7 @@
         <v>3</v>
       </c>
       <c r="B94" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C94" s="5" t="s">
         <v>27</v>
@@ -2259,7 +2268,7 @@
         <v>1</v>
       </c>
       <c r="B96" s="8" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C96" s="5" t="s">
         <v>14</v>
@@ -2276,16 +2285,16 @@
         <v>2</v>
       </c>
       <c r="B97" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="C97" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
+      </c>
+      <c r="C97" s="5" t="s">
+        <v>30</v>
       </c>
       <c r="D97" s="6" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="E97" s="6" t="s">
-        <v>78</v>
+        <v>31</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.25">
@@ -2293,43 +2302,60 @@
         <v>3</v>
       </c>
       <c r="B98" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="C98" s="5" t="s">
-        <v>27</v>
+        <v>76</v>
+      </c>
+      <c r="C98" s="6" t="s">
+        <v>32</v>
       </c>
       <c r="D98" s="6" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="E98" s="6" t="s">
-        <v>28</v>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A99" s="3">
+        <v>4</v>
+      </c>
+      <c r="B99" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="C99" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="D99" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E99" s="6" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100" s="3">
-        <v>1</v>
-      </c>
-      <c r="B100" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="C100" s="5" t="s">
-        <v>14</v>
+        <v>5</v>
+      </c>
+      <c r="B100" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="C100" s="6" t="s">
+        <v>76</v>
       </c>
       <c r="D100" s="6" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="E100" s="6" t="s">
-        <v>15</v>
+        <v>77</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101" s="3">
-        <v>2</v>
-      </c>
-      <c r="B101" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="C101" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B101" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="C101" s="6" t="s">
         <v>30</v>
       </c>
       <c r="D101" s="6" t="s">
@@ -2341,273 +2367,443 @@
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102" s="3">
-        <v>3</v>
-      </c>
-      <c r="B102" s="4" t="s">
-        <v>81</v>
+        <v>8</v>
+      </c>
+      <c r="B102" s="8" t="s">
+        <v>76</v>
       </c>
       <c r="C102" s="6" t="s">
-        <v>32</v>
+        <v>88</v>
       </c>
       <c r="D102" s="6" t="s">
         <v>17</v>
       </c>
       <c r="E102" s="6" t="s">
-        <v>33</v>
+        <v>86</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103" s="3">
-        <v>4</v>
-      </c>
-      <c r="B103" s="4" t="s">
-        <v>81</v>
+        <v>9</v>
+      </c>
+      <c r="B103" s="8" t="s">
+        <v>76</v>
       </c>
       <c r="C103" s="5" t="s">
-        <v>81</v>
+        <v>27</v>
       </c>
       <c r="D103" s="6" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="E103" s="6" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A104" s="3">
-        <v>5</v>
-      </c>
-      <c r="B104" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="C104" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="D104" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="E104" s="6" t="s">
-        <v>86</v>
+        <v>28</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105" s="3">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B105" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="C105" s="6" t="s">
-        <v>30</v>
+        <v>78</v>
+      </c>
+      <c r="C105" s="5" t="s">
+        <v>14</v>
       </c>
       <c r="D105" s="6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E105" s="6" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A106" s="3">
+        <v>2</v>
+      </c>
+      <c r="B106" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="C106" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D106" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B106" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="C106" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="D106" s="6" t="s">
-        <v>17</v>
-      </c>
       <c r="E106" s="6" t="s">
-        <v>89</v>
+        <v>31</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A107" s="3">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B107" s="4" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C107" s="6" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D107" s="6" t="s">
         <v>17</v>
       </c>
       <c r="E107" s="6" t="s">
-        <v>90</v>
+        <v>33</v>
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A108" s="3">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B108" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="C108" s="6" t="s">
-        <v>27</v>
+        <v>78</v>
+      </c>
+      <c r="C108" s="5" t="s">
+        <v>78</v>
       </c>
       <c r="D108" s="6" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="E108" s="6" t="s">
-        <v>28</v>
+        <v>79</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A109" s="3">
+        <v>5</v>
+      </c>
+      <c r="B109" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="C109" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="D109" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E109" s="6" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A110" s="3">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B110" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="C110" s="5" t="s">
-        <v>14</v>
+        <v>78</v>
+      </c>
+      <c r="C110" s="6" t="s">
+        <v>30</v>
       </c>
       <c r="D110" s="6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E110" s="6" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A111" s="3">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B111" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="C111" s="5" t="s">
-        <v>30</v>
+        <v>78</v>
+      </c>
+      <c r="C111" s="6" t="s">
+        <v>84</v>
       </c>
       <c r="D111" s="6" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E111" s="6" t="s">
-        <v>31</v>
+        <v>86</v>
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A112" s="3">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="B112" s="4" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="C112" s="6" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D112" s="6" t="s">
         <v>17</v>
       </c>
       <c r="E112" s="6" t="s">
-        <v>33</v>
+        <v>87</v>
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A113" s="3">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B113" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="C113" s="5" t="s">
-        <v>83</v>
+        <v>78</v>
+      </c>
+      <c r="C113" s="6" t="s">
+        <v>27</v>
       </c>
       <c r="D113" s="6" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="E113" s="6" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A114" s="3">
-        <v>5</v>
-      </c>
-      <c r="B114" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="C114" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="D114" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="E114" s="6" t="s">
-        <v>86</v>
+        <v>28</v>
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A115" s="3">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B115" s="4" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C115" s="5" t="s">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="D115" s="6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E115" s="6" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A116" s="3">
+        <v>2</v>
+      </c>
+      <c r="B116" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="C116" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D116" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B116" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="C116" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="D116" s="6" t="s">
-        <v>17</v>
-      </c>
       <c r="E116" s="6" t="s">
-        <v>89</v>
+        <v>31</v>
       </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A117" s="3">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B117" s="4" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C117" s="6" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D117" s="6" t="s">
         <v>17</v>
       </c>
       <c r="E117" s="6" t="s">
-        <v>90</v>
+        <v>33</v>
       </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A118" s="3">
+        <v>4</v>
+      </c>
+      <c r="B118" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="C118" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="D118" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E118" s="6" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A119" s="3">
+        <v>5</v>
+      </c>
+      <c r="B119" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="C119" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="D119" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E119" s="6" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A120" s="3">
+        <v>6</v>
+      </c>
+      <c r="B120" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="C120" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D120" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E120" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A121" s="3">
+        <v>7</v>
+      </c>
+      <c r="B121" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="C121" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="D121" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E121" s="6" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A122" s="3">
+        <v>8</v>
+      </c>
+      <c r="B122" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="C122" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D122" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E122" s="6" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A123" s="3">
         <v>9</v>
       </c>
-      <c r="B118" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="C118" s="6" t="s">
+      <c r="B123" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="C123" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="D118" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="E118" s="6" t="s">
+      <c r="D123" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E123" s="6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A125" s="3">
+        <v>1</v>
+      </c>
+      <c r="B125" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="C125" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D125" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E125" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A126" s="3">
+        <v>2</v>
+      </c>
+      <c r="B126" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="C126" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="D126" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E126" s="6" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A127" s="3">
+        <v>3</v>
+      </c>
+      <c r="B127" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="C127" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D127" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E127" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A128" s="3">
+        <v>4</v>
+      </c>
+      <c r="B128" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="C128" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D128" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E128" s="6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A129" s="3">
+        <v>5</v>
+      </c>
+      <c r="B129" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="C129" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D129" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E129" s="6" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A130" s="3">
+        <v>6</v>
+      </c>
+      <c r="B130" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="C130" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D130" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E130" s="6" t="s">
         <v>28</v>
       </c>
     </row>

--- a/Framework/Database/TestDataDB.xlsx
+++ b/Framework/Database/TestDataDB.xlsx
@@ -744,7 +744,7 @@
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -836,7 +836,7 @@
   <dimension ref="A1:H1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -844,10 +844,10 @@
     <col min="1" max="1" width="6.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="22.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.85546875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="14.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -886,10 +886,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:E130"/>
+  <dimension ref="A1:E129"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J50" sqref="J49:J50"/>
+    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="D77" sqref="D77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1244,8 +1244,8 @@
       <c r="A23" s="3">
         <v>1</v>
       </c>
-      <c r="B23" s="7" t="s">
-        <v>35</v>
+      <c r="B23" s="8" t="s">
+        <v>37</v>
       </c>
       <c r="C23" s="5" t="s">
         <v>14</v>
@@ -1253,7 +1253,7 @@
       <c r="D23" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="E23" s="5" t="s">
+      <c r="E23" s="6" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1261,254 +1261,254 @@
       <c r="A24" s="3">
         <v>2</v>
       </c>
-      <c r="B24" s="7" t="s">
-        <v>35</v>
+      <c r="B24" s="8" t="s">
+        <v>37</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D24" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="E24" s="5" t="s">
-        <v>36</v>
+      <c r="E24" s="6" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="3">
         <v>3</v>
       </c>
-      <c r="B25" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="C25" s="5" t="s">
-        <v>27</v>
+      <c r="B25" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>30</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="E25" s="5" t="s">
-        <v>28</v>
+        <v>7</v>
+      </c>
+      <c r="E25" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="3">
+        <v>4</v>
+      </c>
+      <c r="B26" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E26" s="6" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="3">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B27" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="C27" s="5" t="s">
-        <v>14</v>
+      <c r="C27" s="6" t="s">
+        <v>34</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="E27" s="6" t="s">
-        <v>15</v>
+        <v>85</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="3">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B28" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="C28" s="5" t="s">
-        <v>37</v>
+      <c r="C28" s="6" t="s">
+        <v>27</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="E28" s="6" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="3">
-        <v>3</v>
-      </c>
-      <c r="B29" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="C29" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="D29" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="E29" s="6" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="C30" s="6" t="s">
-        <v>32</v>
+        <v>39</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>14</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="E30" s="6" t="s">
-        <v>33</v>
+        <v>15</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="C31" s="6" t="s">
-        <v>34</v>
+        <v>39</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>39</v>
       </c>
       <c r="D31" s="6" t="s">
         <v>17</v>
       </c>
       <c r="E31" s="6" t="s">
-        <v>85</v>
+        <v>40</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="3">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B32" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="C32" s="6" t="s">
-        <v>27</v>
+        <v>39</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>82</v>
       </c>
       <c r="D32" s="6" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="E32" s="6" t="s">
-        <v>28</v>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" s="3">
+        <v>4</v>
+      </c>
+      <c r="B33" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="C33" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D33" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E33" s="6" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="3">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B34" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="C34" s="5" t="s">
-        <v>14</v>
+      <c r="C34" s="6" t="s">
+        <v>32</v>
       </c>
       <c r="D34" s="6" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="E34" s="6" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="3">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B35" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="C35" s="5" t="s">
-        <v>39</v>
+      <c r="C35" s="6" t="s">
+        <v>34</v>
       </c>
       <c r="D35" s="6" t="s">
         <v>17</v>
       </c>
       <c r="E35" s="6" t="s">
-        <v>40</v>
+        <v>85</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="3">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B36" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="C36" s="5" t="s">
-        <v>82</v>
+      <c r="C36" s="6" t="s">
+        <v>27</v>
       </c>
       <c r="D36" s="6" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="E36" s="6" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" s="3">
-        <v>4</v>
-      </c>
-      <c r="B37" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="C37" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="D37" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="E37" s="6" t="s">
-        <v>83</v>
+        <v>28</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="3">
-        <v>5</v>
-      </c>
-      <c r="B38" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="C38" s="6" t="s">
-        <v>32</v>
+        <v>1</v>
+      </c>
+      <c r="B38" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="C38" s="5" t="s">
+        <v>14</v>
       </c>
       <c r="D38" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="E38" s="6" t="s">
-        <v>33</v>
+        <v>6</v>
+      </c>
+      <c r="E38" s="5" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="3">
-        <v>6</v>
-      </c>
-      <c r="B39" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="C39" s="6" t="s">
-        <v>34</v>
+        <v>2</v>
+      </c>
+      <c r="B39" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="C39" s="5" t="s">
+        <v>35</v>
       </c>
       <c r="D39" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="E39" s="6" t="s">
-        <v>85</v>
+      <c r="E39" s="5" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="3">
-        <v>7</v>
-      </c>
-      <c r="B40" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="C40" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B40" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="C40" s="5" t="s">
         <v>27</v>
       </c>
       <c r="D40" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="E40" s="6" t="s">
+      <c r="E40" s="5" t="s">
         <v>28</v>
       </c>
     </row>
@@ -1631,916 +1631,967 @@
         <v>28</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A49" s="11"/>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50" s="3">
+        <v>1</v>
+      </c>
+      <c r="B50" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="C50" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D50" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E50" s="5" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>47</v>
+        <v>64</v>
       </c>
       <c r="C51" s="5" t="s">
-        <v>14</v>
+        <v>42</v>
       </c>
       <c r="D51" s="6" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="E51" s="5" t="s">
-        <v>15</v>
+        <v>48</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>47</v>
+        <v>64</v>
       </c>
       <c r="C52" s="5" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D52" s="6" t="s">
         <v>17</v>
       </c>
       <c r="E52" s="5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>47</v>
+        <v>64</v>
       </c>
       <c r="C53" s="5" t="s">
-        <v>44</v>
+        <v>21</v>
       </c>
       <c r="D53" s="6" t="s">
         <v>17</v>
       </c>
       <c r="E53" s="5" t="s">
-        <v>49</v>
+        <v>22</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>47</v>
+        <v>64</v>
       </c>
       <c r="C54" s="5" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D54" s="6" t="s">
         <v>17</v>
       </c>
       <c r="E54" s="5" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>47</v>
+        <v>64</v>
       </c>
       <c r="C55" s="5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D55" s="6" t="s">
         <v>17</v>
       </c>
       <c r="E55" s="5" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" s="3">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>47</v>
+        <v>64</v>
       </c>
       <c r="C56" s="5" t="s">
-        <v>25</v>
+        <v>82</v>
       </c>
       <c r="D56" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="E56" s="5" t="s">
-        <v>26</v>
+      <c r="E56" s="6" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" s="3">
+        <v>8</v>
+      </c>
+      <c r="B57" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="C57" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D57" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B57" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="C57" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="D57" s="6" t="s">
-        <v>17</v>
-      </c>
       <c r="E57" s="6" t="s">
-        <v>83</v>
+        <v>31</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" s="3">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="C58" s="5" t="s">
-        <v>27</v>
+        <v>64</v>
+      </c>
+      <c r="C58" s="6" t="s">
+        <v>32</v>
       </c>
       <c r="D58" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="E58" s="5" t="s">
-        <v>28</v>
+        <v>17</v>
+      </c>
+      <c r="E58" s="6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A59" s="3">
+        <v>10</v>
+      </c>
+      <c r="B59" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="C59" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D59" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E59" s="6" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" s="3">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="B60" s="4" t="s">
         <v>64</v>
       </c>
       <c r="C60" s="5" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="D60" s="6" t="s">
         <v>6</v>
       </c>
       <c r="E60" s="5" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A61" s="3">
-        <v>2</v>
-      </c>
-      <c r="B61" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="C61" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="D61" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="E61" s="5" t="s">
-        <v>48</v>
-      </c>
+      <c r="A61" s="11"/>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>64</v>
+        <v>47</v>
       </c>
       <c r="C62" s="5" t="s">
-        <v>44</v>
+        <v>14</v>
       </c>
       <c r="D62" s="6" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="E62" s="5" t="s">
-        <v>49</v>
+        <v>15</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>64</v>
+        <v>47</v>
       </c>
       <c r="C63" s="5" t="s">
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="D63" s="6" t="s">
         <v>17</v>
       </c>
       <c r="E63" s="5" t="s">
-        <v>22</v>
+        <v>48</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>64</v>
+        <v>47</v>
       </c>
       <c r="C64" s="5" t="s">
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="D64" s="6" t="s">
         <v>17</v>
       </c>
       <c r="E64" s="5" t="s">
-        <v>24</v>
+        <v>49</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" s="3">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>64</v>
+        <v>47</v>
       </c>
       <c r="C65" s="5" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D65" s="6" t="s">
         <v>17</v>
       </c>
       <c r="E65" s="5" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" s="3">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>64</v>
+        <v>47</v>
       </c>
       <c r="C66" s="5" t="s">
-        <v>82</v>
+        <v>23</v>
       </c>
       <c r="D66" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="E66" s="6" t="s">
-        <v>83</v>
+      <c r="E66" s="5" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" s="3">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="C67" s="6" t="s">
-        <v>30</v>
+        <v>47</v>
+      </c>
+      <c r="C67" s="5" t="s">
+        <v>25</v>
       </c>
       <c r="D67" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="E67" s="6" t="s">
-        <v>31</v>
+        <v>17</v>
+      </c>
+      <c r="E67" s="5" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" s="3">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="C68" s="6" t="s">
-        <v>32</v>
+        <v>47</v>
+      </c>
+      <c r="C68" s="5" t="s">
+        <v>82</v>
       </c>
       <c r="D68" s="6" t="s">
         <v>17</v>
       </c>
       <c r="E68" s="6" t="s">
-        <v>33</v>
+        <v>83</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" s="3">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="C69" s="6" t="s">
-        <v>34</v>
+        <v>47</v>
+      </c>
+      <c r="C69" s="5" t="s">
+        <v>27</v>
       </c>
       <c r="D69" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="E69" s="6" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A70" s="3">
-        <v>11</v>
-      </c>
-      <c r="B70" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="C70" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="D70" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="E70" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E69" s="5" t="s">
         <v>28</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A71" s="3">
+        <v>1</v>
+      </c>
+      <c r="B71" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="C71" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D71" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E71" s="6" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" s="3">
-        <v>1</v>
-      </c>
-      <c r="B72" s="8" t="s">
-        <v>65</v>
+        <v>2</v>
+      </c>
+      <c r="B72" s="4" t="s">
+        <v>78</v>
       </c>
       <c r="C72" s="5" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="D72" s="6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E72" s="6" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" s="3">
-        <v>2</v>
-      </c>
-      <c r="B73" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="C73" s="5" t="s">
-        <v>66</v>
+        <v>3</v>
+      </c>
+      <c r="B73" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="C73" s="6" t="s">
+        <v>32</v>
       </c>
       <c r="D73" s="6" t="s">
         <v>17</v>
       </c>
       <c r="E73" s="6" t="s">
-        <v>67</v>
+        <v>33</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" s="3">
-        <v>3</v>
-      </c>
-      <c r="B74" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="C74" s="6" t="s">
-        <v>27</v>
+        <v>4</v>
+      </c>
+      <c r="B74" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="C74" s="5" t="s">
+        <v>78</v>
       </c>
       <c r="D74" s="6" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="E74" s="6" t="s">
-        <v>28</v>
+        <v>79</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A75" s="3">
+        <v>5</v>
+      </c>
+      <c r="B75" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="C75" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="D75" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E75" s="6" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" s="3">
-        <v>1</v>
-      </c>
-      <c r="B76" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="C76" s="5" t="s">
-        <v>14</v>
+        <v>6</v>
+      </c>
+      <c r="B76" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="C76" s="6" t="s">
+        <v>30</v>
       </c>
       <c r="D76" s="6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E76" s="6" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" s="3">
-        <v>2</v>
-      </c>
-      <c r="B77" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="C77" s="5" t="s">
-        <v>68</v>
+        <v>7</v>
+      </c>
+      <c r="B77" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="C77" s="6" t="s">
+        <v>84</v>
       </c>
       <c r="D77" s="6" t="s">
         <v>17</v>
       </c>
       <c r="E77" s="6" t="s">
-        <v>69</v>
+        <v>86</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" s="3">
-        <v>3</v>
-      </c>
-      <c r="B78" s="8" t="s">
-        <v>68</v>
+        <v>8</v>
+      </c>
+      <c r="B78" s="4" t="s">
+        <v>78</v>
       </c>
       <c r="C78" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D78" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E78" s="6" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A79" s="3">
+        <v>9</v>
+      </c>
+      <c r="B79" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="C79" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="D78" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="E78" s="6" t="s">
+      <c r="D79" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E79" s="6" t="s">
         <v>28</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A80" s="3">
-        <v>1</v>
-      </c>
-      <c r="B80" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="C80" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D80" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="E80" s="6" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" s="3">
-        <v>2</v>
-      </c>
-      <c r="B81" s="8" t="s">
-        <v>70</v>
+        <v>1</v>
+      </c>
+      <c r="B81" s="4" t="s">
+        <v>80</v>
       </c>
       <c r="C81" s="5" t="s">
-        <v>70</v>
+        <v>14</v>
       </c>
       <c r="D81" s="6" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="E81" s="6" t="s">
-        <v>71</v>
+        <v>15</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" s="3">
+        <v>2</v>
+      </c>
+      <c r="B82" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="C82" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D82" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E82" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A83" s="3">
         <v>3</v>
       </c>
-      <c r="B82" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="C82" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="D82" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="E82" s="6" t="s">
-        <v>28</v>
+      <c r="B83" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="C83" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D83" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E83" s="6" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" s="3">
-        <v>1</v>
-      </c>
-      <c r="B84" s="8" t="s">
-        <v>72</v>
+        <v>4</v>
+      </c>
+      <c r="B84" s="4" t="s">
+        <v>80</v>
       </c>
       <c r="C84" s="5" t="s">
-        <v>14</v>
+        <v>80</v>
       </c>
       <c r="D84" s="6" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="E84" s="6" t="s">
-        <v>15</v>
+        <v>81</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" s="3">
-        <v>2</v>
-      </c>
-      <c r="B85" s="8" t="s">
-        <v>72</v>
+        <v>5</v>
+      </c>
+      <c r="B85" s="4" t="s">
+        <v>80</v>
       </c>
       <c r="C85" s="5" t="s">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="D85" s="6" t="s">
         <v>17</v>
       </c>
       <c r="E85" s="6" t="s">
-        <v>73</v>
+        <v>83</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" s="3">
-        <v>3</v>
-      </c>
-      <c r="B86" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="C86" s="6" t="s">
-        <v>27</v>
+        <v>6</v>
+      </c>
+      <c r="B86" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="C86" s="5" t="s">
+        <v>30</v>
       </c>
       <c r="D86" s="6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E86" s="6" t="s">
-        <v>28</v>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A87" s="3">
+        <v>7</v>
+      </c>
+      <c r="B87" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="C87" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="D87" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E87" s="6" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" s="3">
-        <v>1</v>
-      </c>
-      <c r="B88" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="C88" s="5" t="s">
-        <v>14</v>
+        <v>8</v>
+      </c>
+      <c r="B88" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="C88" s="6" t="s">
+        <v>34</v>
       </c>
       <c r="D88" s="6" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="E88" s="6" t="s">
-        <v>15</v>
+        <v>87</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89" s="3">
-        <v>2</v>
-      </c>
-      <c r="B89" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="C89" s="5" t="s">
-        <v>74</v>
+        <v>9</v>
+      </c>
+      <c r="B89" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="C89" s="6" t="s">
+        <v>27</v>
       </c>
       <c r="D89" s="6" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="E89" s="6" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A90" s="3">
-        <v>3</v>
-      </c>
-      <c r="B90" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="C90" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="D90" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="E90" s="6" t="s">
         <v>28</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A91" s="3">
+        <v>1</v>
+      </c>
+      <c r="B91" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="C91" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D91" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E91" s="6" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B92" s="8" t="s">
-        <v>75</v>
+        <v>89</v>
       </c>
       <c r="C92" s="5" t="s">
-        <v>14</v>
+        <v>89</v>
       </c>
       <c r="D92" s="6" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="E92" s="6" t="s">
-        <v>15</v>
+        <v>38</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B93" s="8" t="s">
-        <v>75</v>
+        <v>89</v>
       </c>
       <c r="C93" s="6" t="s">
-        <v>75</v>
+        <v>30</v>
       </c>
       <c r="D93" s="6" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="E93" s="6" t="s">
-        <v>69</v>
+        <v>31</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B94" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="C94" s="5" t="s">
-        <v>27</v>
+        <v>89</v>
+      </c>
+      <c r="C94" s="6" t="s">
+        <v>32</v>
       </c>
       <c r="D94" s="6" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="E94" s="6" t="s">
-        <v>28</v>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A95" s="3">
+        <v>5</v>
+      </c>
+      <c r="B95" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="C95" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D95" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E95" s="6" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96" s="3">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B96" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="C96" s="5" t="s">
-        <v>14</v>
+        <v>89</v>
+      </c>
+      <c r="C96" s="6" t="s">
+        <v>27</v>
       </c>
       <c r="D96" s="6" t="s">
         <v>6</v>
       </c>
       <c r="E96" s="6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A97" s="3">
-        <v>2</v>
-      </c>
-      <c r="B97" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="C97" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="D97" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="E97" s="6" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B98" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="C98" s="6" t="s">
-        <v>32</v>
+      <c r="C98" s="5" t="s">
+        <v>14</v>
       </c>
       <c r="D98" s="6" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="E98" s="6" t="s">
-        <v>33</v>
+        <v>15</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B99" s="8" t="s">
         <v>76</v>
       </c>
       <c r="C99" s="5" t="s">
-        <v>82</v>
+        <v>30</v>
       </c>
       <c r="D99" s="6" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="E99" s="6" t="s">
-        <v>83</v>
+        <v>31</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B100" s="8" t="s">
         <v>76</v>
       </c>
       <c r="C100" s="6" t="s">
-        <v>76</v>
+        <v>32</v>
       </c>
       <c r="D100" s="6" t="s">
         <v>17</v>
       </c>
       <c r="E100" s="6" t="s">
-        <v>77</v>
+        <v>33</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101" s="3">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B101" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="C101" s="6" t="s">
-        <v>30</v>
+      <c r="C101" s="5" t="s">
+        <v>82</v>
       </c>
       <c r="D101" s="6" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E101" s="6" t="s">
-        <v>31</v>
+        <v>83</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102" s="3">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B102" s="8" t="s">
         <v>76</v>
       </c>
       <c r="C102" s="6" t="s">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="D102" s="6" t="s">
         <v>17</v>
       </c>
       <c r="E102" s="6" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103" s="3">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B103" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="C103" s="5" t="s">
-        <v>27</v>
+      <c r="C103" s="6" t="s">
+        <v>30</v>
       </c>
       <c r="D103" s="6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E103" s="6" t="s">
-        <v>28</v>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A104" s="3">
+        <v>8</v>
+      </c>
+      <c r="B104" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="C104" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="D104" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E104" s="6" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105" s="3">
-        <v>1</v>
-      </c>
-      <c r="B105" s="4" t="s">
-        <v>78</v>
+        <v>9</v>
+      </c>
+      <c r="B105" s="8" t="s">
+        <v>76</v>
       </c>
       <c r="C105" s="5" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="D105" s="6" t="s">
         <v>6</v>
       </c>
       <c r="E105" s="6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A106" s="3">
-        <v>2</v>
-      </c>
-      <c r="B106" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="C106" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="D106" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="E106" s="6" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A107" s="3">
-        <v>3</v>
-      </c>
-      <c r="B107" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="C107" s="6" t="s">
-        <v>32</v>
+        <v>1</v>
+      </c>
+      <c r="B107" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="C107" s="5" t="s">
+        <v>14</v>
       </c>
       <c r="D107" s="6" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="E107" s="6" t="s">
-        <v>33</v>
+        <v>15</v>
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A108" s="3">
-        <v>4</v>
-      </c>
-      <c r="B108" s="4" t="s">
-        <v>78</v>
+        <v>2</v>
+      </c>
+      <c r="B108" s="8" t="s">
+        <v>70</v>
       </c>
       <c r="C108" s="5" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="D108" s="6" t="s">
         <v>17</v>
       </c>
       <c r="E108" s="6" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A109" s="3">
-        <v>5</v>
-      </c>
-      <c r="B109" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="C109" s="5" t="s">
-        <v>82</v>
+        <v>3</v>
+      </c>
+      <c r="B109" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="C109" s="6" t="s">
+        <v>27</v>
       </c>
       <c r="D109" s="6" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="E109" s="6" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A110" s="3">
-        <v>6</v>
-      </c>
-      <c r="B110" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="C110" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="D110" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="E110" s="6" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A111" s="3">
-        <v>7</v>
-      </c>
-      <c r="B111" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="C111" s="6" t="s">
-        <v>84</v>
+        <v>1</v>
+      </c>
+      <c r="B111" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="C111" s="5" t="s">
+        <v>14</v>
       </c>
       <c r="D111" s="6" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="E111" s="6" t="s">
-        <v>86</v>
+        <v>15</v>
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A112" s="3">
-        <v>8</v>
-      </c>
-      <c r="B112" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="C112" s="6" t="s">
-        <v>34</v>
+        <v>2</v>
+      </c>
+      <c r="B112" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="C112" s="5" t="s">
+        <v>66</v>
       </c>
       <c r="D112" s="6" t="s">
         <v>17</v>
       </c>
       <c r="E112" s="6" t="s">
-        <v>87</v>
+        <v>67</v>
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A113" s="3">
-        <v>9</v>
-      </c>
-      <c r="B113" s="4" t="s">
-        <v>78</v>
+        <v>3</v>
+      </c>
+      <c r="B113" s="8" t="s">
+        <v>65</v>
       </c>
       <c r="C113" s="6" t="s">
         <v>27</v>
@@ -2556,8 +2607,8 @@
       <c r="A115" s="3">
         <v>1</v>
       </c>
-      <c r="B115" s="4" t="s">
-        <v>80</v>
+      <c r="B115" s="8" t="s">
+        <v>68</v>
       </c>
       <c r="C115" s="5" t="s">
         <v>14</v>
@@ -2573,237 +2624,186 @@
       <c r="A116" s="3">
         <v>2</v>
       </c>
-      <c r="B116" s="4" t="s">
-        <v>80</v>
+      <c r="B116" s="8" t="s">
+        <v>68</v>
       </c>
       <c r="C116" s="5" t="s">
-        <v>30</v>
+        <v>68</v>
       </c>
       <c r="D116" s="6" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E116" s="6" t="s">
-        <v>31</v>
+        <v>69</v>
       </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A117" s="3">
         <v>3</v>
       </c>
-      <c r="B117" s="4" t="s">
-        <v>80</v>
+      <c r="B117" s="8" t="s">
+        <v>68</v>
       </c>
       <c r="C117" s="6" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D117" s="6" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="E117" s="6" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A118" s="3">
-        <v>4</v>
-      </c>
-      <c r="B118" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="C118" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="D118" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="E118" s="6" t="s">
-        <v>81</v>
+        <v>28</v>
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A119" s="3">
-        <v>5</v>
-      </c>
-      <c r="B119" s="4" t="s">
-        <v>80</v>
+        <v>1</v>
+      </c>
+      <c r="B119" s="8" t="s">
+        <v>72</v>
       </c>
       <c r="C119" s="5" t="s">
-        <v>82</v>
+        <v>14</v>
       </c>
       <c r="D119" s="6" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="E119" s="6" t="s">
-        <v>83</v>
+        <v>15</v>
       </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A120" s="3">
-        <v>6</v>
-      </c>
-      <c r="B120" s="4" t="s">
-        <v>80</v>
+        <v>2</v>
+      </c>
+      <c r="B120" s="8" t="s">
+        <v>72</v>
       </c>
       <c r="C120" s="5" t="s">
-        <v>30</v>
+        <v>72</v>
       </c>
       <c r="D120" s="6" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E120" s="6" t="s">
-        <v>31</v>
+        <v>73</v>
       </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A121" s="3">
-        <v>7</v>
-      </c>
-      <c r="B121" s="4" t="s">
-        <v>80</v>
+        <v>3</v>
+      </c>
+      <c r="B121" s="8" t="s">
+        <v>72</v>
       </c>
       <c r="C121" s="6" t="s">
-        <v>84</v>
+        <v>27</v>
       </c>
       <c r="D121" s="6" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="E121" s="6" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A122" s="3">
-        <v>8</v>
-      </c>
-      <c r="B122" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="C122" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="D122" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="E122" s="6" t="s">
-        <v>87</v>
+        <v>28</v>
       </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A123" s="3">
-        <v>9</v>
-      </c>
-      <c r="B123" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="C123" s="6" t="s">
-        <v>27</v>
+        <v>1</v>
+      </c>
+      <c r="B123" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="C123" s="5" t="s">
+        <v>14</v>
       </c>
       <c r="D123" s="6" t="s">
         <v>6</v>
       </c>
       <c r="E123" s="6" t="s">
-        <v>28</v>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A124" s="3">
+        <v>2</v>
+      </c>
+      <c r="B124" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="C124" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="D124" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E124" s="6" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A125" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B125" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="C125" s="5" t="s">
-        <v>14</v>
+        <v>74</v>
+      </c>
+      <c r="C125" s="6" t="s">
+        <v>27</v>
       </c>
       <c r="D125" s="6" t="s">
         <v>6</v>
       </c>
       <c r="E125" s="6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A126" s="3">
-        <v>2</v>
-      </c>
-      <c r="B126" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="C126" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="D126" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="E126" s="6" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A127" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B127" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="C127" s="6" t="s">
-        <v>30</v>
+        <v>75</v>
+      </c>
+      <c r="C127" s="5" t="s">
+        <v>14</v>
       </c>
       <c r="D127" s="6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E127" s="6" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A128" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B128" s="8" t="s">
-        <v>89</v>
+        <v>75</v>
       </c>
       <c r="C128" s="6" t="s">
-        <v>32</v>
+        <v>75</v>
       </c>
       <c r="D128" s="6" t="s">
         <v>17</v>
       </c>
       <c r="E128" s="6" t="s">
-        <v>33</v>
+        <v>69</v>
       </c>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A129" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B129" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="C129" s="6" t="s">
-        <v>34</v>
+        <v>75</v>
+      </c>
+      <c r="C129" s="5" t="s">
+        <v>27</v>
       </c>
       <c r="D129" s="6" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="E129" s="6" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A130" s="3">
-        <v>6</v>
-      </c>
-      <c r="B130" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="C130" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="D130" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="E130" s="6" t="s">
         <v>28</v>
       </c>
     </row>

--- a/Framework/Database/TestDataDB.xlsx
+++ b/Framework/Database/TestDataDB.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="LoginDetails" sheetId="2" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="477" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="492" uniqueCount="98">
   <si>
     <t>Application_Details</t>
   </si>
@@ -211,12 +211,6 @@
     <t>10.162.53.102:7001/OrderManagement/control/home</t>
   </si>
   <si>
-    <t>testing</t>
-  </si>
-  <si>
-    <t>testing123</t>
-  </si>
-  <si>
     <t>OSM_APP</t>
   </si>
   <si>
@@ -304,10 +298,28 @@
     <t>https://10.162.53.125:4443/ecommunications_oui_enu/start.swe?</t>
   </si>
   <si>
+    <t>YES</t>
+  </si>
+  <si>
+    <t>IDP</t>
+  </si>
+  <si>
+    <t>BillPayment</t>
+  </si>
+  <si>
+    <t>CRM_Level</t>
+  </si>
+  <si>
+    <t>MSISDN--97478119231||Pay_Type--Outstanding||Channel--Cash||Reference--312312312312||</t>
+  </si>
+  <si>
     <t>KALISARAVANAN</t>
   </si>
   <si>
     <t>Mav@2017</t>
+  </si>
+  <si>
+    <t>Bill Payment</t>
   </si>
 </sst>
 </file>
@@ -744,7 +756,7 @@
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -782,16 +794,16 @@
         <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="E2" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="F2" t="s">
         <v>58</v>
@@ -810,19 +822,13 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B4" t="s">
         <v>57</v>
       </c>
       <c r="C4" t="s">
         <v>60</v>
-      </c>
-      <c r="D4" t="s">
-        <v>61</v>
-      </c>
-      <c r="E4" t="s">
-        <v>62</v>
       </c>
     </row>
   </sheetData>
@@ -833,10 +839,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:H1"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -844,10 +850,10 @@
     <col min="1" max="1" width="6.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="22.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="87.140625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="14.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -875,6 +881,26 @@
       </c>
       <c r="H1" s="10" t="s">
         <v>56</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C2" t="s">
+        <v>91</v>
+      </c>
+      <c r="D2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E2" t="s">
+        <v>93</v>
+      </c>
+      <c r="G2" t="s">
+        <v>94</v>
       </c>
     </row>
   </sheetData>
@@ -886,10 +912,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:E129"/>
+  <dimension ref="A1:E133"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="D77" sqref="D77"/>
+    <sheetView topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="H111" sqref="H111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1027,13 +1053,13 @@
         <v>13</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D8" s="6" t="s">
         <v>17</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -1163,13 +1189,13 @@
         <v>29</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D17" s="6" t="s">
         <v>17</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -1220,7 +1246,7 @@
         <v>17</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
@@ -1322,7 +1348,7 @@
         <v>17</v>
       </c>
       <c r="E27" s="6" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
@@ -1384,7 +1410,7 @@
         <v>39</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D32" s="6" t="s">
         <v>17</v>
@@ -1407,7 +1433,7 @@
         <v>7</v>
       </c>
       <c r="E33" s="6" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
@@ -1441,7 +1467,7 @@
         <v>17</v>
       </c>
       <c r="E35" s="6" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
@@ -1636,7 +1662,7 @@
         <v>1</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C50" s="5" t="s">
         <v>14</v>
@@ -1653,7 +1679,7 @@
         <v>2</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C51" s="5" t="s">
         <v>42</v>
@@ -1670,7 +1696,7 @@
         <v>3</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C52" s="5" t="s">
         <v>44</v>
@@ -1687,7 +1713,7 @@
         <v>4</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C53" s="5" t="s">
         <v>21</v>
@@ -1704,7 +1730,7 @@
         <v>5</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C54" s="5" t="s">
         <v>23</v>
@@ -1721,7 +1747,7 @@
         <v>6</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C55" s="5" t="s">
         <v>25</v>
@@ -1738,16 +1764,16 @@
         <v>7</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C56" s="5" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D56" s="6" t="s">
         <v>17</v>
       </c>
       <c r="E56" s="6" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
@@ -1755,7 +1781,7 @@
         <v>8</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C57" s="6" t="s">
         <v>30</v>
@@ -1772,7 +1798,7 @@
         <v>9</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C58" s="6" t="s">
         <v>32</v>
@@ -1789,7 +1815,7 @@
         <v>10</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C59" s="6" t="s">
         <v>34</v>
@@ -1798,7 +1824,7 @@
         <v>17</v>
       </c>
       <c r="E59" s="6" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
@@ -1806,7 +1832,7 @@
         <v>11</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C60" s="5" t="s">
         <v>27</v>
@@ -1931,13 +1957,13 @@
         <v>47</v>
       </c>
       <c r="C68" s="5" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D68" s="6" t="s">
         <v>17</v>
       </c>
       <c r="E68" s="6" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
@@ -1962,7 +1988,7 @@
         <v>1</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C71" s="5" t="s">
         <v>14</v>
@@ -1979,7 +2005,7 @@
         <v>2</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C72" s="5" t="s">
         <v>30</v>
@@ -1996,7 +2022,7 @@
         <v>3</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C73" s="6" t="s">
         <v>32</v>
@@ -2013,16 +2039,16 @@
         <v>4</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C74" s="5" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D74" s="6" t="s">
         <v>17</v>
       </c>
       <c r="E74" s="6" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
@@ -2030,16 +2056,16 @@
         <v>5</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C75" s="5" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D75" s="6" t="s">
         <v>17</v>
       </c>
       <c r="E75" s="6" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
@@ -2047,7 +2073,7 @@
         <v>6</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C76" s="6" t="s">
         <v>30</v>
@@ -2064,16 +2090,16 @@
         <v>7</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C77" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="D77" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E77" s="6" t="s">
         <v>84</v>
-      </c>
-      <c r="D77" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="E77" s="6" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
@@ -2081,7 +2107,7 @@
         <v>8</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C78" s="6" t="s">
         <v>34</v>
@@ -2090,7 +2116,7 @@
         <v>17</v>
       </c>
       <c r="E78" s="6" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
@@ -2098,7 +2124,7 @@
         <v>9</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C79" s="6" t="s">
         <v>27</v>
@@ -2115,7 +2141,7 @@
         <v>1</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C81" s="5" t="s">
         <v>14</v>
@@ -2132,7 +2158,7 @@
         <v>2</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C82" s="5" t="s">
         <v>30</v>
@@ -2149,7 +2175,7 @@
         <v>3</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C83" s="6" t="s">
         <v>32</v>
@@ -2166,16 +2192,16 @@
         <v>4</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C84" s="5" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D84" s="6" t="s">
         <v>17</v>
       </c>
       <c r="E84" s="6" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
@@ -2183,16 +2209,16 @@
         <v>5</v>
       </c>
       <c r="B85" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="C85" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="C85" s="5" t="s">
-        <v>82</v>
-      </c>
       <c r="D85" s="6" t="s">
         <v>17</v>
       </c>
       <c r="E85" s="6" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
@@ -2200,7 +2226,7 @@
         <v>6</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C86" s="5" t="s">
         <v>30</v>
@@ -2217,16 +2243,16 @@
         <v>7</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C87" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="D87" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E87" s="6" t="s">
         <v>84</v>
-      </c>
-      <c r="D87" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="E87" s="6" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
@@ -2234,7 +2260,7 @@
         <v>8</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C88" s="6" t="s">
         <v>34</v>
@@ -2243,7 +2269,7 @@
         <v>17</v>
       </c>
       <c r="E88" s="6" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.25">
@@ -2251,7 +2277,7 @@
         <v>9</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C89" s="6" t="s">
         <v>27</v>
@@ -2268,7 +2294,7 @@
         <v>1</v>
       </c>
       <c r="B91" s="8" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C91" s="5" t="s">
         <v>14</v>
@@ -2285,10 +2311,10 @@
         <v>2</v>
       </c>
       <c r="B92" s="8" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C92" s="5" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D92" s="6" t="s">
         <v>17</v>
@@ -2302,7 +2328,7 @@
         <v>3</v>
       </c>
       <c r="B93" s="8" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C93" s="6" t="s">
         <v>30</v>
@@ -2319,7 +2345,7 @@
         <v>4</v>
       </c>
       <c r="B94" s="8" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C94" s="6" t="s">
         <v>32</v>
@@ -2336,7 +2362,7 @@
         <v>5</v>
       </c>
       <c r="B95" s="8" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C95" s="6" t="s">
         <v>34</v>
@@ -2345,7 +2371,7 @@
         <v>17</v>
       </c>
       <c r="E95" s="6" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.25">
@@ -2353,7 +2379,7 @@
         <v>6</v>
       </c>
       <c r="B96" s="8" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C96" s="6" t="s">
         <v>27</v>
@@ -2370,7 +2396,7 @@
         <v>1</v>
       </c>
       <c r="B98" s="8" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C98" s="5" t="s">
         <v>14</v>
@@ -2387,7 +2413,7 @@
         <v>2</v>
       </c>
       <c r="B99" s="8" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C99" s="5" t="s">
         <v>30</v>
@@ -2404,7 +2430,7 @@
         <v>3</v>
       </c>
       <c r="B100" s="8" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C100" s="6" t="s">
         <v>32</v>
@@ -2421,16 +2447,16 @@
         <v>4</v>
       </c>
       <c r="B101" s="8" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C101" s="5" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D101" s="6" t="s">
         <v>17</v>
       </c>
       <c r="E101" s="6" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.25">
@@ -2438,16 +2464,16 @@
         <v>5</v>
       </c>
       <c r="B102" s="8" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C102" s="6" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D102" s="6" t="s">
         <v>17</v>
       </c>
       <c r="E102" s="6" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.25">
@@ -2455,7 +2481,7 @@
         <v>7</v>
       </c>
       <c r="B103" s="8" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C103" s="6" t="s">
         <v>30</v>
@@ -2472,16 +2498,16 @@
         <v>8</v>
       </c>
       <c r="B104" s="8" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C104" s="6" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D104" s="6" t="s">
         <v>17</v>
       </c>
       <c r="E104" s="6" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.25">
@@ -2489,7 +2515,7 @@
         <v>9</v>
       </c>
       <c r="B105" s="8" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C105" s="5" t="s">
         <v>27</v>
@@ -2506,7 +2532,7 @@
         <v>1</v>
       </c>
       <c r="B107" s="8" t="s">
-        <v>70</v>
+        <v>92</v>
       </c>
       <c r="C107" s="5" t="s">
         <v>14</v>
@@ -2523,16 +2549,16 @@
         <v>2</v>
       </c>
       <c r="B108" s="8" t="s">
-        <v>70</v>
+        <v>92</v>
       </c>
       <c r="C108" s="5" t="s">
-        <v>70</v>
+        <v>92</v>
       </c>
       <c r="D108" s="6" t="s">
         <v>17</v>
       </c>
       <c r="E108" s="6" t="s">
-        <v>71</v>
+        <v>97</v>
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.25">
@@ -2540,9 +2566,9 @@
         <v>3</v>
       </c>
       <c r="B109" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="C109" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="C109" s="5" t="s">
         <v>27</v>
       </c>
       <c r="D109" s="6" t="s">
@@ -2557,7 +2583,7 @@
         <v>1</v>
       </c>
       <c r="B111" s="8" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="C111" s="5" t="s">
         <v>14</v>
@@ -2574,16 +2600,16 @@
         <v>2</v>
       </c>
       <c r="B112" s="8" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="C112" s="5" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D112" s="6" t="s">
         <v>17</v>
       </c>
       <c r="E112" s="6" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.25">
@@ -2591,7 +2617,7 @@
         <v>3</v>
       </c>
       <c r="B113" s="8" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="C113" s="6" t="s">
         <v>27</v>
@@ -2608,7 +2634,7 @@
         <v>1</v>
       </c>
       <c r="B115" s="8" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="C115" s="5" t="s">
         <v>14</v>
@@ -2625,16 +2651,16 @@
         <v>2</v>
       </c>
       <c r="B116" s="8" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="C116" s="5" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="D116" s="6" t="s">
         <v>17</v>
       </c>
       <c r="E116" s="6" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.25">
@@ -2642,7 +2668,7 @@
         <v>3</v>
       </c>
       <c r="B117" s="8" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="C117" s="6" t="s">
         <v>27</v>
@@ -2659,7 +2685,7 @@
         <v>1</v>
       </c>
       <c r="B119" s="8" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="C119" s="5" t="s">
         <v>14</v>
@@ -2676,16 +2702,16 @@
         <v>2</v>
       </c>
       <c r="B120" s="8" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="C120" s="5" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="D120" s="6" t="s">
         <v>17</v>
       </c>
       <c r="E120" s="6" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.25">
@@ -2693,7 +2719,7 @@
         <v>3</v>
       </c>
       <c r="B121" s="8" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="C121" s="6" t="s">
         <v>27</v>
@@ -2710,7 +2736,7 @@
         <v>1</v>
       </c>
       <c r="B123" s="8" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C123" s="5" t="s">
         <v>14</v>
@@ -2727,16 +2753,16 @@
         <v>2</v>
       </c>
       <c r="B124" s="8" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C124" s="5" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="D124" s="6" t="s">
         <v>17</v>
       </c>
       <c r="E124" s="6" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.25">
@@ -2744,7 +2770,7 @@
         <v>3</v>
       </c>
       <c r="B125" s="8" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C125" s="6" t="s">
         <v>27</v>
@@ -2761,7 +2787,7 @@
         <v>1</v>
       </c>
       <c r="B127" s="8" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C127" s="5" t="s">
         <v>14</v>
@@ -2778,16 +2804,16 @@
         <v>2</v>
       </c>
       <c r="B128" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="C128" s="6" t="s">
-        <v>75</v>
+        <v>72</v>
+      </c>
+      <c r="C128" s="5" t="s">
+        <v>72</v>
       </c>
       <c r="D128" s="6" t="s">
         <v>17</v>
       </c>
       <c r="E128" s="6" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.25">
@@ -2795,15 +2821,66 @@
         <v>3</v>
       </c>
       <c r="B129" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="C129" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="C129" s="6" t="s">
         <v>27</v>
       </c>
       <c r="D129" s="6" t="s">
         <v>6</v>
       </c>
       <c r="E129" s="6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A131" s="3">
+        <v>1</v>
+      </c>
+      <c r="B131" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="C131" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D131" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E131" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A132" s="3">
+        <v>2</v>
+      </c>
+      <c r="B132" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="C132" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="D132" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E132" s="6" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A133" s="3">
+        <v>3</v>
+      </c>
+      <c r="B133" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="C133" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D133" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E133" s="6" t="s">
         <v>28</v>
       </c>
     </row>

--- a/Framework/Database/TestDataDB.xlsx
+++ b/Framework/Database/TestDataDB.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
   </bookViews>
   <sheets>
     <sheet name="LoginDetails" sheetId="2" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="492" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="499" uniqueCount="95">
   <si>
     <t>Application_Details</t>
   </si>
@@ -232,9 +232,6 @@
     <t>Resumption of an account</t>
   </si>
   <si>
-    <t>Disconnect</t>
-  </si>
-  <si>
     <t>Disconnecting a number</t>
   </si>
   <si>
@@ -298,21 +295,9 @@
     <t>https://10.162.53.125:4443/ecommunications_oui_enu/start.swe?</t>
   </si>
   <si>
-    <t>YES</t>
-  </si>
-  <si>
-    <t>IDP</t>
-  </si>
-  <si>
     <t>BillPayment</t>
   </si>
   <si>
-    <t>CRM_Level</t>
-  </si>
-  <si>
-    <t>MSISDN--97478119231||Pay_Type--Outstanding||Channel--Cash||Reference--312312312312||</t>
-  </si>
-  <si>
     <t>KALISARAVANAN</t>
   </si>
   <si>
@@ -320,6 +305,12 @@
   </si>
   <si>
     <t>Bill Payment</t>
+  </si>
+  <si>
+    <t>Disconnection</t>
+  </si>
+  <si>
+    <t>TroubleTicket</t>
   </si>
 </sst>
 </file>
@@ -755,8 +746,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -794,16 +785,16 @@
         <v>6</v>
       </c>
       <c r="B2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C2" t="s">
         <v>88</v>
       </c>
-      <c r="C2" t="s">
-        <v>89</v>
-      </c>
       <c r="D2" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="E2" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="F2" t="s">
         <v>58</v>
@@ -839,10 +830,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:H1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -850,10 +841,10 @@
     <col min="1" max="1" width="6.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="22.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="87.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.7109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="14.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -881,26 +872,6 @@
       </c>
       <c r="H1" s="10" t="s">
         <v>56</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>90</v>
-      </c>
-      <c r="C2" t="s">
-        <v>91</v>
-      </c>
-      <c r="D2" t="s">
-        <v>92</v>
-      </c>
-      <c r="E2" t="s">
-        <v>93</v>
-      </c>
-      <c r="G2" t="s">
-        <v>94</v>
       </c>
     </row>
   </sheetData>
@@ -912,10 +883,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:E133"/>
+  <dimension ref="A1:E137"/>
   <sheetViews>
-    <sheetView topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="H111" sqref="H111"/>
+    <sheetView topLeftCell="A106" workbookViewId="0">
+      <selection activeCell="B117" sqref="B117"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1053,13 +1024,13 @@
         <v>13</v>
       </c>
       <c r="C8" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E8" s="6" t="s">
         <v>80</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -1189,13 +1160,13 @@
         <v>29</v>
       </c>
       <c r="C17" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E17" s="6" t="s">
         <v>80</v>
-      </c>
-      <c r="D17" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="E17" s="6" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -1246,7 +1217,7 @@
         <v>17</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
@@ -1348,7 +1319,7 @@
         <v>17</v>
       </c>
       <c r="E27" s="6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
@@ -1410,7 +1381,7 @@
         <v>39</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D32" s="6" t="s">
         <v>17</v>
@@ -1433,7 +1404,7 @@
         <v>7</v>
       </c>
       <c r="E33" s="6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
@@ -1467,7 +1438,7 @@
         <v>17</v>
       </c>
       <c r="E35" s="6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
@@ -1767,13 +1738,13 @@
         <v>62</v>
       </c>
       <c r="C56" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="D56" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E56" s="6" t="s">
         <v>80</v>
-      </c>
-      <c r="D56" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="E56" s="6" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
@@ -1824,7 +1795,7 @@
         <v>17</v>
       </c>
       <c r="E59" s="6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
@@ -1957,13 +1928,13 @@
         <v>47</v>
       </c>
       <c r="C68" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="D68" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E68" s="6" t="s">
         <v>80</v>
-      </c>
-      <c r="D68" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="E68" s="6" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
@@ -1988,7 +1959,7 @@
         <v>1</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C71" s="5" t="s">
         <v>14</v>
@@ -2005,7 +1976,7 @@
         <v>2</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C72" s="5" t="s">
         <v>30</v>
@@ -2022,7 +1993,7 @@
         <v>3</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C73" s="6" t="s">
         <v>32</v>
@@ -2039,16 +2010,16 @@
         <v>4</v>
       </c>
       <c r="B74" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C74" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="D74" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E74" s="6" t="s">
         <v>76</v>
-      </c>
-      <c r="C74" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="D74" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="E74" s="6" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
@@ -2056,16 +2027,16 @@
         <v>5</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C75" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="D75" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E75" s="6" t="s">
         <v>80</v>
-      </c>
-      <c r="D75" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="E75" s="6" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
@@ -2073,7 +2044,7 @@
         <v>6</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C76" s="6" t="s">
         <v>30</v>
@@ -2090,16 +2061,16 @@
         <v>7</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C77" s="6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D77" s="6" t="s">
         <v>17</v>
       </c>
       <c r="E77" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
@@ -2107,7 +2078,7 @@
         <v>8</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C78" s="6" t="s">
         <v>34</v>
@@ -2116,7 +2087,7 @@
         <v>17</v>
       </c>
       <c r="E78" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
@@ -2124,7 +2095,7 @@
         <v>9</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C79" s="6" t="s">
         <v>27</v>
@@ -2141,7 +2112,7 @@
         <v>1</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C81" s="5" t="s">
         <v>14</v>
@@ -2158,7 +2129,7 @@
         <v>2</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C82" s="5" t="s">
         <v>30</v>
@@ -2175,7 +2146,7 @@
         <v>3</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C83" s="6" t="s">
         <v>32</v>
@@ -2192,16 +2163,16 @@
         <v>4</v>
       </c>
       <c r="B84" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="C84" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="D84" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E84" s="6" t="s">
         <v>78</v>
-      </c>
-      <c r="C84" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="D84" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="E84" s="6" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
@@ -2209,16 +2180,16 @@
         <v>5</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C85" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="D85" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E85" s="6" t="s">
         <v>80</v>
-      </c>
-      <c r="D85" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="E85" s="6" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
@@ -2226,7 +2197,7 @@
         <v>6</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C86" s="5" t="s">
         <v>30</v>
@@ -2243,16 +2214,16 @@
         <v>7</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C87" s="6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D87" s="6" t="s">
         <v>17</v>
       </c>
       <c r="E87" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
@@ -2260,7 +2231,7 @@
         <v>8</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C88" s="6" t="s">
         <v>34</v>
@@ -2269,7 +2240,7 @@
         <v>17</v>
       </c>
       <c r="E88" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.25">
@@ -2277,7 +2248,7 @@
         <v>9</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C89" s="6" t="s">
         <v>27</v>
@@ -2294,7 +2265,7 @@
         <v>1</v>
       </c>
       <c r="B91" s="8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C91" s="5" t="s">
         <v>14</v>
@@ -2311,10 +2282,10 @@
         <v>2</v>
       </c>
       <c r="B92" s="8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C92" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D92" s="6" t="s">
         <v>17</v>
@@ -2328,7 +2299,7 @@
         <v>3</v>
       </c>
       <c r="B93" s="8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C93" s="6" t="s">
         <v>30</v>
@@ -2345,7 +2316,7 @@
         <v>4</v>
       </c>
       <c r="B94" s="8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C94" s="6" t="s">
         <v>32</v>
@@ -2362,7 +2333,7 @@
         <v>5</v>
       </c>
       <c r="B95" s="8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C95" s="6" t="s">
         <v>34</v>
@@ -2371,7 +2342,7 @@
         <v>17</v>
       </c>
       <c r="E95" s="6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.25">
@@ -2379,7 +2350,7 @@
         <v>6</v>
       </c>
       <c r="B96" s="8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C96" s="6" t="s">
         <v>27</v>
@@ -2396,7 +2367,7 @@
         <v>1</v>
       </c>
       <c r="B98" s="8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C98" s="5" t="s">
         <v>14</v>
@@ -2413,7 +2384,7 @@
         <v>2</v>
       </c>
       <c r="B99" s="8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C99" s="5" t="s">
         <v>30</v>
@@ -2430,7 +2401,7 @@
         <v>3</v>
       </c>
       <c r="B100" s="8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C100" s="6" t="s">
         <v>32</v>
@@ -2447,16 +2418,16 @@
         <v>4</v>
       </c>
       <c r="B101" s="8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C101" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="D101" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E101" s="6" t="s">
         <v>80</v>
-      </c>
-      <c r="D101" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="E101" s="6" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.25">
@@ -2464,16 +2435,16 @@
         <v>5</v>
       </c>
       <c r="B102" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="C102" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="D102" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E102" s="6" t="s">
         <v>74</v>
-      </c>
-      <c r="C102" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="D102" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="E102" s="6" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.25">
@@ -2481,7 +2452,7 @@
         <v>7</v>
       </c>
       <c r="B103" s="8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C103" s="6" t="s">
         <v>30</v>
@@ -2498,16 +2469,16 @@
         <v>8</v>
       </c>
       <c r="B104" s="8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C104" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D104" s="6" t="s">
         <v>17</v>
       </c>
       <c r="E104" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.25">
@@ -2515,7 +2486,7 @@
         <v>9</v>
       </c>
       <c r="B105" s="8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C105" s="5" t="s">
         <v>27</v>
@@ -2532,7 +2503,7 @@
         <v>1</v>
       </c>
       <c r="B107" s="8" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C107" s="5" t="s">
         <v>14</v>
@@ -2549,16 +2520,16 @@
         <v>2</v>
       </c>
       <c r="B108" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="C108" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="D108" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E108" s="6" t="s">
         <v>92</v>
-      </c>
-      <c r="C108" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="D108" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="E108" s="6" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.25">
@@ -2566,7 +2537,7 @@
         <v>3</v>
       </c>
       <c r="B109" s="8" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C109" s="5" t="s">
         <v>27</v>
@@ -2583,7 +2554,7 @@
         <v>1</v>
       </c>
       <c r="B111" s="8" t="s">
-        <v>68</v>
+        <v>93</v>
       </c>
       <c r="C111" s="5" t="s">
         <v>14</v>
@@ -2600,16 +2571,16 @@
         <v>2</v>
       </c>
       <c r="B112" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="C112" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="D112" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E112" s="6" t="s">
         <v>68</v>
-      </c>
-      <c r="C112" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="D112" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="E112" s="6" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.25">
@@ -2617,7 +2588,7 @@
         <v>3</v>
       </c>
       <c r="B113" s="8" t="s">
-        <v>68</v>
+        <v>93</v>
       </c>
       <c r="C113" s="6" t="s">
         <v>27</v>
@@ -2634,7 +2605,7 @@
         <v>1</v>
       </c>
       <c r="B115" s="8" t="s">
-        <v>63</v>
+        <v>94</v>
       </c>
       <c r="C115" s="5" t="s">
         <v>14</v>
@@ -2651,16 +2622,16 @@
         <v>2</v>
       </c>
       <c r="B116" s="8" t="s">
-        <v>63</v>
+        <v>94</v>
       </c>
       <c r="C116" s="5" t="s">
-        <v>64</v>
+        <v>94</v>
       </c>
       <c r="D116" s="6" t="s">
         <v>17</v>
       </c>
       <c r="E116" s="6" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.25">
@@ -2668,7 +2639,7 @@
         <v>3</v>
       </c>
       <c r="B117" s="8" t="s">
-        <v>63</v>
+        <v>94</v>
       </c>
       <c r="C117" s="6" t="s">
         <v>27</v>
@@ -2685,7 +2656,7 @@
         <v>1</v>
       </c>
       <c r="B119" s="8" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C119" s="5" t="s">
         <v>14</v>
@@ -2702,16 +2673,16 @@
         <v>2</v>
       </c>
       <c r="B120" s="8" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C120" s="5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D120" s="6" t="s">
         <v>17</v>
       </c>
       <c r="E120" s="6" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.25">
@@ -2719,7 +2690,7 @@
         <v>3</v>
       </c>
       <c r="B121" s="8" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C121" s="6" t="s">
         <v>27</v>
@@ -2736,7 +2707,7 @@
         <v>1</v>
       </c>
       <c r="B123" s="8" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C123" s="5" t="s">
         <v>14</v>
@@ -2753,16 +2724,16 @@
         <v>2</v>
       </c>
       <c r="B124" s="8" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C124" s="5" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="D124" s="6" t="s">
         <v>17</v>
       </c>
       <c r="E124" s="6" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.25">
@@ -2770,7 +2741,7 @@
         <v>3</v>
       </c>
       <c r="B125" s="8" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C125" s="6" t="s">
         <v>27</v>
@@ -2787,7 +2758,7 @@
         <v>1</v>
       </c>
       <c r="B127" s="8" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C127" s="5" t="s">
         <v>14</v>
@@ -2804,16 +2775,16 @@
         <v>2</v>
       </c>
       <c r="B128" s="8" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C128" s="5" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D128" s="6" t="s">
         <v>17</v>
       </c>
       <c r="E128" s="6" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.25">
@@ -2821,7 +2792,7 @@
         <v>3</v>
       </c>
       <c r="B129" s="8" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C129" s="6" t="s">
         <v>27</v>
@@ -2838,7 +2809,7 @@
         <v>1</v>
       </c>
       <c r="B131" s="8" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C131" s="5" t="s">
         <v>14</v>
@@ -2855,16 +2826,16 @@
         <v>2</v>
       </c>
       <c r="B132" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="C132" s="6" t="s">
-        <v>73</v>
+        <v>71</v>
+      </c>
+      <c r="C132" s="5" t="s">
+        <v>71</v>
       </c>
       <c r="D132" s="6" t="s">
         <v>17</v>
       </c>
       <c r="E132" s="6" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.25">
@@ -2872,15 +2843,66 @@
         <v>3</v>
       </c>
       <c r="B133" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="C133" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="C133" s="6" t="s">
         <v>27</v>
       </c>
       <c r="D133" s="6" t="s">
         <v>6</v>
       </c>
       <c r="E133" s="6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A135" s="3">
+        <v>1</v>
+      </c>
+      <c r="B135" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="C135" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D135" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E135" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A136" s="3">
+        <v>2</v>
+      </c>
+      <c r="B136" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="C136" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="D136" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E136" s="6" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A137" s="3">
+        <v>3</v>
+      </c>
+      <c r="B137" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="C137" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D137" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E137" s="6" t="s">
         <v>28</v>
       </c>
     </row>

--- a/Framework/Database/TestDataDB.xlsx
+++ b/Framework/Database/TestDataDB.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="499" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="513" uniqueCount="97">
   <si>
     <t>Application_Details</t>
   </si>
@@ -289,9 +289,6 @@
     <t>Change_SmartLimit</t>
   </si>
   <si>
-    <t>QA07</t>
-  </si>
-  <si>
     <t>https://10.162.53.125:4443/ecommunications_oui_enu/start.swe?</t>
   </si>
   <si>
@@ -311,6 +308,15 @@
   </si>
   <si>
     <t>TroubleTicket</t>
+  </si>
+  <si>
+    <t>Discounts</t>
+  </si>
+  <si>
+    <t>testing</t>
+  </si>
+  <si>
+    <t>testing123</t>
   </si>
 </sst>
 </file>
@@ -747,7 +753,7 @@
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -785,16 +791,16 @@
         <v>6</v>
       </c>
       <c r="B2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C2" t="s">
         <v>87</v>
       </c>
-      <c r="C2" t="s">
-        <v>88</v>
-      </c>
       <c r="D2" t="s">
+        <v>89</v>
+      </c>
+      <c r="E2" t="s">
         <v>90</v>
-      </c>
-      <c r="E2" t="s">
-        <v>91</v>
       </c>
       <c r="F2" t="s">
         <v>58</v>
@@ -820,6 +826,12 @@
       </c>
       <c r="C4" t="s">
         <v>60</v>
+      </c>
+      <c r="D4" t="s">
+        <v>95</v>
+      </c>
+      <c r="E4" t="s">
+        <v>96</v>
       </c>
     </row>
   </sheetData>
@@ -832,8 +844,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:H1"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -883,15 +895,15 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:E137"/>
+  <dimension ref="A1:E141"/>
   <sheetViews>
-    <sheetView topLeftCell="A106" workbookViewId="0">
-      <selection activeCell="B117" sqref="B117"/>
+    <sheetView topLeftCell="A109" workbookViewId="0">
+      <selection activeCell="B114" sqref="B114"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="30.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="21.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="26.140625" bestFit="1" customWidth="1"/>
@@ -2503,7 +2515,7 @@
         <v>1</v>
       </c>
       <c r="B107" s="8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C107" s="5" t="s">
         <v>14</v>
@@ -2520,16 +2532,16 @@
         <v>2</v>
       </c>
       <c r="B108" s="8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C108" s="5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D108" s="6" t="s">
         <v>17</v>
       </c>
       <c r="E108" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.25">
@@ -2537,7 +2549,7 @@
         <v>3</v>
       </c>
       <c r="B109" s="8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C109" s="5" t="s">
         <v>27</v>
@@ -2554,7 +2566,7 @@
         <v>1</v>
       </c>
       <c r="B111" s="8" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C111" s="5" t="s">
         <v>14</v>
@@ -2571,10 +2583,10 @@
         <v>2</v>
       </c>
       <c r="B112" s="8" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C112" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D112" s="6" t="s">
         <v>17</v>
@@ -2588,7 +2600,7 @@
         <v>3</v>
       </c>
       <c r="B113" s="8" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C113" s="6" t="s">
         <v>27</v>
@@ -2605,7 +2617,7 @@
         <v>1</v>
       </c>
       <c r="B115" s="8" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C115" s="5" t="s">
         <v>14</v>
@@ -2622,10 +2634,10 @@
         <v>2</v>
       </c>
       <c r="B116" s="8" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C116" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D116" s="6" t="s">
         <v>17</v>
@@ -2639,7 +2651,7 @@
         <v>3</v>
       </c>
       <c r="B117" s="8" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C117" s="6" t="s">
         <v>27</v>
@@ -2655,8 +2667,8 @@
       <c r="A119" s="3">
         <v>1</v>
       </c>
-      <c r="B119" s="8" t="s">
-        <v>63</v>
+      <c r="B119" s="3" t="s">
+        <v>94</v>
       </c>
       <c r="C119" s="5" t="s">
         <v>14</v>
@@ -2672,25 +2684,25 @@
       <c r="A120" s="3">
         <v>2</v>
       </c>
-      <c r="B120" s="8" t="s">
-        <v>63</v>
+      <c r="B120" s="3" t="s">
+        <v>94</v>
       </c>
       <c r="C120" s="5" t="s">
-        <v>64</v>
+        <v>94</v>
       </c>
       <c r="D120" s="6" t="s">
         <v>17</v>
       </c>
       <c r="E120" s="6" t="s">
-        <v>65</v>
+        <v>94</v>
       </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A121" s="3">
         <v>3</v>
       </c>
-      <c r="B121" s="8" t="s">
-        <v>63</v>
+      <c r="B121" s="3" t="s">
+        <v>94</v>
       </c>
       <c r="C121" s="6" t="s">
         <v>27</v>
@@ -2707,7 +2719,7 @@
         <v>1</v>
       </c>
       <c r="B123" s="8" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C123" s="5" t="s">
         <v>14</v>
@@ -2724,16 +2736,16 @@
         <v>2</v>
       </c>
       <c r="B124" s="8" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C124" s="5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D124" s="6" t="s">
         <v>17</v>
       </c>
       <c r="E124" s="6" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.25">
@@ -2741,7 +2753,7 @@
         <v>3</v>
       </c>
       <c r="B125" s="8" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C125" s="6" t="s">
         <v>27</v>
@@ -2758,7 +2770,7 @@
         <v>1</v>
       </c>
       <c r="B127" s="8" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C127" s="5" t="s">
         <v>14</v>
@@ -2775,16 +2787,16 @@
         <v>2</v>
       </c>
       <c r="B128" s="8" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C128" s="5" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="D128" s="6" t="s">
         <v>17</v>
       </c>
       <c r="E128" s="6" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.25">
@@ -2792,7 +2804,7 @@
         <v>3</v>
       </c>
       <c r="B129" s="8" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C129" s="6" t="s">
         <v>27</v>
@@ -2809,7 +2821,7 @@
         <v>1</v>
       </c>
       <c r="B131" s="8" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C131" s="5" t="s">
         <v>14</v>
@@ -2826,16 +2838,16 @@
         <v>2</v>
       </c>
       <c r="B132" s="8" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C132" s="5" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D132" s="6" t="s">
         <v>17</v>
       </c>
       <c r="E132" s="6" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.25">
@@ -2843,7 +2855,7 @@
         <v>3</v>
       </c>
       <c r="B133" s="8" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C133" s="6" t="s">
         <v>27</v>
@@ -2860,7 +2872,7 @@
         <v>1</v>
       </c>
       <c r="B135" s="8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C135" s="5" t="s">
         <v>14</v>
@@ -2877,16 +2889,16 @@
         <v>2</v>
       </c>
       <c r="B136" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="C136" s="6" t="s">
-        <v>72</v>
+        <v>71</v>
+      </c>
+      <c r="C136" s="5" t="s">
+        <v>71</v>
       </c>
       <c r="D136" s="6" t="s">
         <v>17</v>
       </c>
       <c r="E136" s="6" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.25">
@@ -2894,15 +2906,66 @@
         <v>3</v>
       </c>
       <c r="B137" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="C137" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D137" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E137" s="6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A139" s="3">
+        <v>1</v>
+      </c>
+      <c r="B139" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="C137" s="5" t="s">
+      <c r="C139" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D139" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E139" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A140" s="3">
+        <v>2</v>
+      </c>
+      <c r="B140" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="C140" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="D140" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E140" s="6" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A141" s="3">
+        <v>3</v>
+      </c>
+      <c r="B141" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="C141" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="D137" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="E137" s="6" t="s">
+      <c r="D141" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E141" s="6" t="s">
         <v>28</v>
       </c>
     </row>

--- a/Framework/Database/TestDataDB.xlsx
+++ b/Framework/Database/TestDataDB.xlsx
@@ -2,10 +2,10 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr codeName="ThisWorkbook"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vinodhinir\Desktop\Imran\Workspace_VFQA\Vodafone_QAR\Framework\Database\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ImranH2\Desktop\Imran\Workspace_VFQA\Vodafone_QAR\Framework\Database\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -16,7 +16,7 @@
     <sheet name="TestData" sheetId="1" r:id="rId2"/>
     <sheet name="Keywords" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="513" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="594" uniqueCount="116">
   <si>
     <t>Application_Details</t>
   </si>
@@ -34,9 +34,6 @@
     <t>Environment</t>
   </si>
   <si>
-    <t>URL</t>
-  </si>
-  <si>
     <t>VQ_Login_User</t>
   </si>
   <si>
@@ -202,128 +199,188 @@
     <t>QA06</t>
   </si>
   <si>
+    <t>http://10.162.53.91:8001/soa-infra/services/vfqamrgdomain/QueryRealTimeBalanceSiebelReqABCSImpl/queryrealtimebalancesiebelreqabcsimpl_client_ep?WSDL</t>
+  </si>
+  <si>
+    <t>10.162.53.102:7001/OrderManagement/control/home</t>
+  </si>
+  <si>
+    <t>OSM_APP</t>
+  </si>
+  <si>
+    <t>EnterprisePostpaid_Provisioning</t>
+  </si>
+  <si>
+    <t>Suspend</t>
+  </si>
+  <si>
+    <t>Suspension</t>
+  </si>
+  <si>
+    <t>Suspension of an account</t>
+  </si>
+  <si>
+    <t>Resume</t>
+  </si>
+  <si>
+    <t>Resumption of an account</t>
+  </si>
+  <si>
+    <t>Disconnecting a number</t>
+  </si>
+  <si>
+    <t>Change_PrimaryNumber</t>
+  </si>
+  <si>
+    <t>Change Primary Number</t>
+  </si>
+  <si>
+    <t>Barring</t>
+  </si>
+  <si>
+    <t>UnBarring</t>
+  </si>
+  <si>
+    <t>Change_MSISDN</t>
+  </si>
+  <si>
+    <t>Change MSISDN</t>
+  </si>
+  <si>
+    <t>Consumer_Migration</t>
+  </si>
+  <si>
+    <t>ConsumerMigration</t>
+  </si>
+  <si>
+    <t>Enterprise_Migration</t>
+  </si>
+  <si>
+    <t>EnterpriseMigration</t>
+  </si>
+  <si>
+    <t>RealTimeBalance_Screen</t>
+  </si>
+  <si>
+    <t>RTB Screen Navigating in CRM</t>
+  </si>
+  <si>
+    <t>RTB_Check</t>
+  </si>
+  <si>
+    <t>RTB Validation check</t>
+  </si>
+  <si>
+    <t>RTB Validation Check</t>
+  </si>
+  <si>
+    <t>RTB Validation Compare</t>
+  </si>
+  <si>
+    <t>RTB_Compare</t>
+  </si>
+  <si>
+    <t>Change_SmartLimit</t>
+  </si>
+  <si>
+    <t>BillPayment</t>
+  </si>
+  <si>
+    <t>KALISARAVANAN</t>
+  </si>
+  <si>
+    <t>Mav@2017</t>
+  </si>
+  <si>
+    <t>Bill Payment</t>
+  </si>
+  <si>
+    <t>Disconnection</t>
+  </si>
+  <si>
+    <t>TroubleTicket</t>
+  </si>
+  <si>
+    <t>Discounts</t>
+  </si>
+  <si>
+    <t>testing</t>
+  </si>
+  <si>
+    <t>testing123</t>
+  </si>
+  <si>
+    <t>LogoutSSH</t>
+  </si>
+  <si>
+    <t>Billgeneration</t>
+  </si>
+  <si>
+    <t>LoginSSH</t>
+  </si>
+  <si>
+    <t>BRM_Putty</t>
+  </si>
+  <si>
+    <t>QA07</t>
+  </si>
+  <si>
+    <t>URL/HOST</t>
+  </si>
+  <si>
+    <t>10.162.53.120</t>
+  </si>
+  <si>
+    <t>pin</t>
+  </si>
+  <si>
+    <t>brmsitenv</t>
+  </si>
+  <si>
+    <t>BillGeneration_AccountLevel</t>
+  </si>
+  <si>
+    <t>https://10.162.53.125:4443/ecommunications_oui_enu/start.swe?</t>
+  </si>
+  <si>
     <t>Chrome</t>
   </si>
   <si>
-    <t>http://10.162.53.91:8001/soa-infra/services/vfqamrgdomain/QueryRealTimeBalanceSiebelReqABCSImpl/queryrealtimebalancesiebelreqabcsimpl_client_ep?WSDL</t>
-  </si>
-  <si>
-    <t>10.162.53.102:7001/OrderManagement/control/home</t>
-  </si>
-  <si>
-    <t>OSM_APP</t>
-  </si>
-  <si>
-    <t>EnterprisePostpaid_Provisioning</t>
-  </si>
-  <si>
-    <t>Suspend</t>
-  </si>
-  <si>
-    <t>Suspension</t>
-  </si>
-  <si>
-    <t>Suspension of an account</t>
-  </si>
-  <si>
-    <t>Resume</t>
-  </si>
-  <si>
-    <t>Resumption of an account</t>
-  </si>
-  <si>
-    <t>Disconnecting a number</t>
-  </si>
-  <si>
-    <t>Change_PrimaryNumber</t>
-  </si>
-  <si>
-    <t>Change Primary Number</t>
-  </si>
-  <si>
-    <t>Barring</t>
-  </si>
-  <si>
-    <t>UnBarring</t>
-  </si>
-  <si>
-    <t>Change_MSISDN</t>
-  </si>
-  <si>
-    <t>Change MSISDN</t>
-  </si>
-  <si>
-    <t>Consumer_Migration</t>
-  </si>
-  <si>
-    <t>ConsumerMigration</t>
-  </si>
-  <si>
-    <t>Enterprise_Migration</t>
-  </si>
-  <si>
-    <t>EnterpriseMigration</t>
-  </si>
-  <si>
-    <t>RealTimeBalance_Screen</t>
-  </si>
-  <si>
-    <t>RTB Screen Navigating in CRM</t>
-  </si>
-  <si>
-    <t>RTB_Check</t>
-  </si>
-  <si>
-    <t>RTB Validation check</t>
-  </si>
-  <si>
-    <t>RTB Validation Check</t>
-  </si>
-  <si>
-    <t>RTB Validation Compare</t>
-  </si>
-  <si>
-    <t>RTB_Compare</t>
-  </si>
-  <si>
-    <t>Change_SmartLimit</t>
-  </si>
-  <si>
-    <t>https://10.162.53.125:4443/ecommunications_oui_enu/start.swe?</t>
-  </si>
-  <si>
-    <t>BillPayment</t>
-  </si>
-  <si>
-    <t>KALISARAVANAN</t>
-  </si>
-  <si>
-    <t>Mav@2017</t>
-  </si>
-  <si>
-    <t>Bill Payment</t>
-  </si>
-  <si>
-    <t>Disconnection</t>
-  </si>
-  <si>
-    <t>TroubleTicket</t>
-  </si>
-  <si>
-    <t>Discounts</t>
-  </si>
-  <si>
-    <t>testing</t>
-  </si>
-  <si>
-    <t>testing123</t>
+    <t>SIMSwap_Guided_Journey</t>
+  </si>
+  <si>
+    <t>SIMSwap Guided journey</t>
+  </si>
+  <si>
+    <t>SIMSwap_Global_Search</t>
+  </si>
+  <si>
+    <t>SIMSwap Global Search</t>
+  </si>
+  <si>
+    <t>Postpaid_Guided_Journey</t>
+  </si>
+  <si>
+    <t>Post-paid guided flow</t>
+  </si>
+  <si>
+    <t>ConsumerPostpaid_GuidedJourney</t>
+  </si>
+  <si>
+    <t>TransferOfService</t>
+  </si>
+  <si>
+    <t>TOS</t>
+  </si>
+  <si>
+    <t>Transfer of Service</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -357,6 +414,12 @@
       <color theme="1"/>
       <name val="Segoe UI"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="6">
@@ -442,7 +505,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -468,6 +531,9 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -750,10 +816,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -774,64 +840,81 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C2" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2" t="s">
+        <v>86</v>
+      </c>
+      <c r="E2" t="s">
         <v>87</v>
       </c>
-      <c r="D2" t="s">
-        <v>89</v>
-      </c>
-      <c r="E2" t="s">
-        <v>90</v>
-      </c>
       <c r="F2" t="s">
-        <v>58</v>
+        <v>105</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C3" t="s">
         <v>57</v>
-      </c>
-      <c r="C3" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C4" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D4" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="E4" t="s">
-        <v>96</v>
+        <v>93</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>97</v>
+      </c>
+      <c r="B5" t="s">
+        <v>98</v>
+      </c>
+      <c r="C5" t="s">
+        <v>100</v>
+      </c>
+      <c r="D5" t="s">
+        <v>101</v>
+      </c>
+      <c r="E5" t="s">
+        <v>102</v>
       </c>
     </row>
   </sheetData>
@@ -844,8 +927,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:H1"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -862,28 +945,28 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B1" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="C1" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="D1" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="E1" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="F1" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="G1" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="H1" s="10" t="s">
         <v>55</v>
-      </c>
-      <c r="H1" s="10" t="s">
-        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -895,35 +978,35 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:E141"/>
+  <dimension ref="A1:E165"/>
   <sheetViews>
-    <sheetView topLeftCell="A109" workbookViewId="0">
-      <selection activeCell="B114" sqref="B114"/>
+    <sheetView topLeftCell="A115" workbookViewId="0">
+      <selection activeCell="B134" sqref="B134"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="30.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="32.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="26.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>11</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -931,16 +1014,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="D2" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="6" t="s">
         <v>14</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -948,16 +1031,16 @@
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D3" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" s="6" t="s">
         <v>17</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -965,16 +1048,16 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C4" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="6" t="s">
         <v>19</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -982,16 +1065,16 @@
         <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C5" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" s="6" t="s">
         <v>21</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -999,16 +1082,16 @@
         <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C6" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" s="6" t="s">
         <v>23</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -1016,16 +1099,16 @@
         <v>6</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C7" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7" s="6" t="s">
         <v>25</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -1033,16 +1116,16 @@
         <v>7</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -1050,16 +1133,16 @@
         <v>8</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C9" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E9" s="6" t="s">
         <v>27</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="E9" s="6" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -1067,16 +1150,16 @@
         <v>1</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C11" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E11" s="6" t="s">
         <v>14</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="E11" s="6" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -1084,16 +1167,16 @@
         <v>2</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D12" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E12" s="6" t="s">
         <v>17</v>
-      </c>
-      <c r="E12" s="6" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -1101,16 +1184,16 @@
         <v>3</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C13" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E13" s="6" t="s">
         <v>19</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="E13" s="6" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -1118,16 +1201,16 @@
         <v>4</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C14" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E14" s="6" t="s">
         <v>21</v>
-      </c>
-      <c r="D14" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="E14" s="6" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
@@ -1135,16 +1218,16 @@
         <v>5</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C15" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E15" s="6" t="s">
         <v>23</v>
-      </c>
-      <c r="D15" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="E15" s="6" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
@@ -1152,16 +1235,16 @@
         <v>6</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C16" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E16" s="6" t="s">
         <v>25</v>
-      </c>
-      <c r="D16" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="E16" s="6" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
@@ -1169,16 +1252,16 @@
         <v>7</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -1186,16 +1269,16 @@
         <v>8</v>
       </c>
       <c r="B18" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C18" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="C18" s="6" t="s">
+      <c r="D18" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E18" s="6" t="s">
         <v>30</v>
-      </c>
-      <c r="D18" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="E18" s="6" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
@@ -1203,16 +1286,16 @@
         <v>9</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C19" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E19" s="6" t="s">
         <v>32</v>
-      </c>
-      <c r="D19" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="E19" s="6" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
@@ -1220,16 +1303,16 @@
         <v>10</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
@@ -1237,16 +1320,16 @@
         <v>11</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C21" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E21" s="6" t="s">
         <v>27</v>
-      </c>
-      <c r="D21" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="E21" s="6" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
@@ -1254,16 +1337,16 @@
         <v>1</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C23" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E23" s="6" t="s">
         <v>14</v>
-      </c>
-      <c r="D23" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="E23" s="6" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
@@ -1271,16 +1354,16 @@
         <v>2</v>
       </c>
       <c r="B24" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E24" s="6" t="s">
         <v>37</v>
-      </c>
-      <c r="C24" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="D24" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="E24" s="6" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
@@ -1288,16 +1371,16 @@
         <v>3</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C25" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E25" s="6" t="s">
         <v>30</v>
-      </c>
-      <c r="D25" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="E25" s="6" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
@@ -1305,16 +1388,16 @@
         <v>4</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C26" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E26" s="6" t="s">
         <v>32</v>
-      </c>
-      <c r="D26" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="E26" s="6" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
@@ -1322,16 +1405,16 @@
         <v>5</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E27" s="6" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
@@ -1339,16 +1422,16 @@
         <v>6</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C28" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D28" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E28" s="6" t="s">
         <v>27</v>
-      </c>
-      <c r="D28" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="E28" s="6" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
@@ -1356,16 +1439,16 @@
         <v>1</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C30" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D30" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E30" s="6" t="s">
         <v>14</v>
-      </c>
-      <c r="D30" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="E30" s="6" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
@@ -1373,16 +1456,16 @@
         <v>2</v>
       </c>
       <c r="B31" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D31" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E31" s="6" t="s">
         <v>39</v>
-      </c>
-      <c r="C31" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="D31" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="E31" s="6" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
@@ -1390,16 +1473,16 @@
         <v>3</v>
       </c>
       <c r="B32" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D32" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E32" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
@@ -1407,16 +1490,16 @@
         <v>4</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D33" s="6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E33" s="6" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
@@ -1424,16 +1507,16 @@
         <v>5</v>
       </c>
       <c r="B34" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C34" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D34" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E34" s="6" t="s">
         <v>32</v>
-      </c>
-      <c r="D34" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="E34" s="6" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
@@ -1441,16 +1524,16 @@
         <v>6</v>
       </c>
       <c r="B35" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D35" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E35" s="6" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
@@ -1458,16 +1541,16 @@
         <v>7</v>
       </c>
       <c r="B36" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C36" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D36" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E36" s="6" t="s">
         <v>27</v>
-      </c>
-      <c r="D36" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="E36" s="6" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
@@ -1475,16 +1558,16 @@
         <v>1</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C38" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D38" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E38" s="5" t="s">
         <v>14</v>
-      </c>
-      <c r="D38" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="E38" s="5" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
@@ -1492,16 +1575,16 @@
         <v>2</v>
       </c>
       <c r="B39" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C39" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D39" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E39" s="5" t="s">
         <v>35</v>
-      </c>
-      <c r="C39" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="D39" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="E39" s="5" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
@@ -1509,16 +1592,16 @@
         <v>3</v>
       </c>
       <c r="B40" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C40" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D40" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E40" s="5" t="s">
         <v>27</v>
-      </c>
-      <c r="D40" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="E40" s="5" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
@@ -1526,16 +1609,16 @@
         <v>1</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C42" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D42" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E42" s="5" t="s">
         <v>14</v>
-      </c>
-      <c r="D42" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="E42" s="5" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
@@ -1543,16 +1626,16 @@
         <v>2</v>
       </c>
       <c r="B43" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C43" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="C43" s="5" t="s">
+      <c r="D43" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E43" s="5" t="s">
         <v>42</v>
-      </c>
-      <c r="D43" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="E43" s="5" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
@@ -1560,16 +1643,16 @@
         <v>3</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C44" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="D44" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E44" s="5" t="s">
         <v>44</v>
-      </c>
-      <c r="D44" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="E44" s="5" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
@@ -1577,16 +1660,16 @@
         <v>4</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C45" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D45" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E45" s="5" t="s">
         <v>21</v>
-      </c>
-      <c r="D45" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="E45" s="5" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
@@ -1594,16 +1677,16 @@
         <v>5</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C46" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D46" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E46" s="5" t="s">
         <v>23</v>
-      </c>
-      <c r="D46" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="E46" s="5" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
@@ -1611,16 +1694,16 @@
         <v>6</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C47" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D47" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E47" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
@@ -1628,16 +1711,16 @@
         <v>7</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C48" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D48" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E48" s="5" t="s">
         <v>27</v>
-      </c>
-      <c r="D48" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="E48" s="5" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
@@ -1645,16 +1728,16 @@
         <v>1</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C50" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D50" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E50" s="5" t="s">
         <v>14</v>
-      </c>
-      <c r="D50" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="E50" s="5" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
@@ -1662,16 +1745,16 @@
         <v>2</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C51" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D51" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E51" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
@@ -1679,16 +1762,16 @@
         <v>3</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C52" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D52" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E52" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
@@ -1696,16 +1779,16 @@
         <v>4</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C53" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D53" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E53" s="5" t="s">
         <v>21</v>
-      </c>
-      <c r="D53" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="E53" s="5" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
@@ -1713,16 +1796,16 @@
         <v>5</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C54" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D54" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E54" s="5" t="s">
         <v>23</v>
-      </c>
-      <c r="D54" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="E54" s="5" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
@@ -1730,16 +1813,16 @@
         <v>6</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C55" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D55" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E55" s="5" t="s">
         <v>25</v>
-      </c>
-      <c r="D55" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="E55" s="5" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
@@ -1747,16 +1830,16 @@
         <v>7</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C56" s="5" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D56" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E56" s="6" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
@@ -1764,16 +1847,16 @@
         <v>8</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C57" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D57" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E57" s="6" t="s">
         <v>30</v>
-      </c>
-      <c r="D57" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="E57" s="6" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
@@ -1781,16 +1864,16 @@
         <v>9</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C58" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D58" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E58" s="6" t="s">
         <v>32</v>
-      </c>
-      <c r="D58" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="E58" s="6" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
@@ -1798,16 +1881,16 @@
         <v>10</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C59" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D59" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E59" s="6" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
@@ -1815,16 +1898,16 @@
         <v>11</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C60" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D60" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E60" s="5" t="s">
         <v>27</v>
-      </c>
-      <c r="D60" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="E60" s="5" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
@@ -1835,16 +1918,16 @@
         <v>1</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C62" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D62" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E62" s="5" t="s">
         <v>14</v>
-      </c>
-      <c r="D62" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="E62" s="5" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
@@ -1852,16 +1935,16 @@
         <v>2</v>
       </c>
       <c r="B63" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C63" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D63" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E63" s="5" t="s">
         <v>47</v>
-      </c>
-      <c r="C63" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="D63" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="E63" s="5" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
@@ -1869,16 +1952,16 @@
         <v>3</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C64" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D64" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E64" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
@@ -1886,16 +1969,16 @@
         <v>4</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C65" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D65" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E65" s="5" t="s">
         <v>21</v>
-      </c>
-      <c r="D65" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="E65" s="5" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
@@ -1903,16 +1986,16 @@
         <v>5</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C66" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D66" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E66" s="5" t="s">
         <v>23</v>
-      </c>
-      <c r="D66" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="E66" s="5" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
@@ -1920,16 +2003,16 @@
         <v>6</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C67" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D67" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E67" s="5" t="s">
         <v>25</v>
-      </c>
-      <c r="D67" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="E67" s="5" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
@@ -1937,16 +2020,16 @@
         <v>7</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C68" s="5" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D68" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E68" s="6" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
@@ -1954,16 +2037,16 @@
         <v>8</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C69" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D69" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E69" s="5" t="s">
         <v>27</v>
-      </c>
-      <c r="D69" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="E69" s="5" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
@@ -1971,16 +2054,16 @@
         <v>1</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C71" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D71" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E71" s="6" t="s">
         <v>14</v>
-      </c>
-      <c r="D71" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="E71" s="6" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
@@ -1988,16 +2071,16 @@
         <v>2</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C72" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D72" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E72" s="6" t="s">
         <v>30</v>
-      </c>
-      <c r="D72" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="E72" s="6" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
@@ -2005,16 +2088,16 @@
         <v>3</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C73" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D73" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E73" s="6" t="s">
         <v>32</v>
-      </c>
-      <c r="D73" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="E73" s="6" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
@@ -2022,16 +2105,16 @@
         <v>4</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C74" s="5" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D74" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E74" s="6" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
@@ -2039,16 +2122,16 @@
         <v>5</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C75" s="5" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D75" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E75" s="6" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
@@ -2056,16 +2139,16 @@
         <v>6</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C76" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D76" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E76" s="6" t="s">
         <v>30</v>
-      </c>
-      <c r="D76" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="E76" s="6" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
@@ -2073,16 +2156,16 @@
         <v>7</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C77" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="D77" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E77" s="6" t="s">
         <v>81</v>
-      </c>
-      <c r="D77" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="E77" s="6" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
@@ -2090,16 +2173,16 @@
         <v>8</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C78" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D78" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E78" s="6" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
@@ -2107,16 +2190,16 @@
         <v>9</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C79" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D79" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E79" s="6" t="s">
         <v>27</v>
-      </c>
-      <c r="D79" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="E79" s="6" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.25">
@@ -2124,16 +2207,16 @@
         <v>1</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C81" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D81" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E81" s="6" t="s">
         <v>14</v>
-      </c>
-      <c r="D81" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="E81" s="6" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
@@ -2141,16 +2224,16 @@
         <v>2</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C82" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D82" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E82" s="6" t="s">
         <v>30</v>
-      </c>
-      <c r="D82" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="E82" s="6" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
@@ -2158,16 +2241,16 @@
         <v>3</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C83" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D83" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E83" s="6" t="s">
         <v>32</v>
-      </c>
-      <c r="D83" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="E83" s="6" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.25">
@@ -2175,16 +2258,16 @@
         <v>4</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C84" s="5" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D84" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E84" s="6" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
@@ -2192,16 +2275,16 @@
         <v>5</v>
       </c>
       <c r="B85" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C85" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="C85" s="5" t="s">
-        <v>79</v>
-      </c>
       <c r="D85" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E85" s="6" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
@@ -2209,16 +2292,16 @@
         <v>6</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C86" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D86" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E86" s="6" t="s">
         <v>30</v>
-      </c>
-      <c r="D86" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="E86" s="6" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
@@ -2226,16 +2309,16 @@
         <v>7</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C87" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="D87" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E87" s="6" t="s">
         <v>81</v>
-      </c>
-      <c r="D87" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="E87" s="6" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
@@ -2243,16 +2326,16 @@
         <v>8</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C88" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D88" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E88" s="6" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.25">
@@ -2260,16 +2343,16 @@
         <v>9</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C89" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D89" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E89" s="6" t="s">
         <v>27</v>
-      </c>
-      <c r="D89" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="E89" s="6" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.25">
@@ -2277,16 +2360,16 @@
         <v>1</v>
       </c>
       <c r="B91" s="8" t="s">
-        <v>86</v>
+        <v>71</v>
       </c>
       <c r="C91" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D91" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E91" s="6" t="s">
         <v>14</v>
-      </c>
-      <c r="D91" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="E91" s="6" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
@@ -2294,16 +2377,16 @@
         <v>2</v>
       </c>
       <c r="B92" s="8" t="s">
-        <v>86</v>
+        <v>71</v>
       </c>
       <c r="C92" s="5" t="s">
-        <v>86</v>
+        <v>29</v>
       </c>
       <c r="D92" s="6" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="E92" s="6" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
@@ -2311,16 +2394,16 @@
         <v>3</v>
       </c>
       <c r="B93" s="8" t="s">
-        <v>86</v>
+        <v>71</v>
       </c>
       <c r="C93" s="6" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D93" s="6" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="E93" s="6" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.25">
@@ -2328,16 +2411,16 @@
         <v>4</v>
       </c>
       <c r="B94" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="C94" s="6" t="s">
-        <v>32</v>
+        <v>71</v>
+      </c>
+      <c r="C94" s="5" t="s">
+        <v>77</v>
       </c>
       <c r="D94" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E94" s="6" t="s">
-        <v>33</v>
+        <v>78</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.25">
@@ -2345,220 +2428,220 @@
         <v>5</v>
       </c>
       <c r="B95" s="8" t="s">
-        <v>86</v>
+        <v>71</v>
       </c>
       <c r="C95" s="6" t="s">
-        <v>34</v>
+        <v>71</v>
       </c>
       <c r="D95" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E95" s="6" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96" s="3">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B96" s="8" t="s">
-        <v>86</v>
+        <v>71</v>
       </c>
       <c r="C96" s="6" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D96" s="6" t="s">
         <v>6</v>
       </c>
       <c r="E96" s="6" t="s">
-        <v>28</v>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A97" s="3">
+        <v>8</v>
+      </c>
+      <c r="B97" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="C97" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="D97" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E97" s="6" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98" s="3">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="B98" s="8" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C98" s="5" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="D98" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E98" s="6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A99" s="3">
-        <v>2</v>
-      </c>
-      <c r="B99" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="C99" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="D99" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="E99" s="6" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B100" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="C100" s="6" t="s">
-        <v>32</v>
+        <v>85</v>
+      </c>
+      <c r="C100" s="5" t="s">
+        <v>13</v>
       </c>
       <c r="D100" s="6" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="E100" s="6" t="s">
-        <v>33</v>
+        <v>14</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B101" s="8" t="s">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="C101" s="5" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="D101" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E101" s="6" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B102" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="C102" s="6" t="s">
-        <v>73</v>
+        <v>85</v>
+      </c>
+      <c r="C102" s="5" t="s">
+        <v>26</v>
       </c>
       <c r="D102" s="6" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="E102" s="6" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A103" s="3">
-        <v>7</v>
-      </c>
-      <c r="B103" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="C103" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="D103" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="E103" s="6" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104" s="3">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="B104" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="C104" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
+      </c>
+      <c r="C104" s="5" t="s">
+        <v>13</v>
       </c>
       <c r="D104" s="6" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="E104" s="6" t="s">
-        <v>83</v>
+        <v>14</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105" s="3">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="B105" s="8" t="s">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="C105" s="5" t="s">
-        <v>27</v>
+        <v>84</v>
       </c>
       <c r="D105" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E105" s="6" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A106" s="3">
+        <v>3</v>
+      </c>
+      <c r="B106" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="C106" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D106" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="E105" s="6" t="s">
-        <v>28</v>
+      <c r="E106" s="6" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A107" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B107" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="C107" s="5" t="s">
-        <v>14</v>
+        <v>84</v>
+      </c>
+      <c r="C107" s="6" t="s">
+        <v>31</v>
       </c>
       <c r="D107" s="6" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="E107" s="6" t="s">
-        <v>15</v>
+        <v>32</v>
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A108" s="3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B108" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="C108" s="5" t="s">
-        <v>88</v>
+        <v>84</v>
+      </c>
+      <c r="C108" s="6" t="s">
+        <v>33</v>
       </c>
       <c r="D108" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E108" s="6" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A109" s="3">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B109" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="C109" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="C109" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D109" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E109" s="6" t="s">
         <v>27</v>
-      </c>
-      <c r="D109" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="E109" s="6" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.25">
@@ -2566,16 +2649,16 @@
         <v>1</v>
       </c>
       <c r="B111" s="8" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C111" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D111" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E111" s="6" t="s">
         <v>14</v>
-      </c>
-      <c r="D111" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="E111" s="6" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.25">
@@ -2583,16 +2666,16 @@
         <v>2</v>
       </c>
       <c r="B112" s="8" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C112" s="5" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D112" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E112" s="6" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.25">
@@ -2600,16 +2683,16 @@
         <v>3</v>
       </c>
       <c r="B113" s="8" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C113" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D113" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E113" s="6" t="s">
         <v>27</v>
-      </c>
-      <c r="D113" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="E113" s="6" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.25">
@@ -2617,16 +2700,16 @@
         <v>1</v>
       </c>
       <c r="B115" s="8" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C115" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D115" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E115" s="6" t="s">
         <v>14</v>
-      </c>
-      <c r="D115" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="E115" s="6" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.25">
@@ -2634,16 +2717,16 @@
         <v>2</v>
       </c>
       <c r="B116" s="8" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C116" s="5" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="D116" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E116" s="6" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.25">
@@ -2651,16 +2734,16 @@
         <v>3</v>
       </c>
       <c r="B117" s="8" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C117" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D117" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E117" s="6" t="s">
         <v>27</v>
-      </c>
-      <c r="D117" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="E117" s="6" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.25">
@@ -2668,16 +2751,16 @@
         <v>1</v>
       </c>
       <c r="B119" s="3" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C119" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D119" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E119" s="6" t="s">
         <v>14</v>
-      </c>
-      <c r="D119" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="E119" s="6" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.25">
@@ -2685,16 +2768,16 @@
         <v>2</v>
       </c>
       <c r="B120" s="3" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C120" s="5" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="D120" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E120" s="6" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.25">
@@ -2702,16 +2785,16 @@
         <v>3</v>
       </c>
       <c r="B121" s="3" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C121" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D121" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E121" s="6" t="s">
         <v>27</v>
-      </c>
-      <c r="D121" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="E121" s="6" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.25">
@@ -2719,16 +2802,16 @@
         <v>1</v>
       </c>
       <c r="B123" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="C123" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="C123" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="D123" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="E123" s="6" t="s">
         <v>14</v>
-      </c>
-      <c r="D123" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="E123" s="6" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.25">
@@ -2736,16 +2819,16 @@
         <v>2</v>
       </c>
       <c r="B124" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="C124" s="5" t="s">
-        <v>64</v>
+        <v>103</v>
+      </c>
+      <c r="C124" s="6" t="s">
+        <v>103</v>
       </c>
       <c r="D124" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E124" s="6" t="s">
-        <v>65</v>
+        <v>95</v>
       </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.25">
@@ -2753,16 +2836,16 @@
         <v>3</v>
       </c>
       <c r="B125" s="8" t="s">
-        <v>63</v>
+        <v>103</v>
       </c>
       <c r="C125" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="D125" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="E125" s="6" t="s">
         <v>27</v>
-      </c>
-      <c r="D125" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="E125" s="6" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.25">
@@ -2770,16 +2853,16 @@
         <v>1</v>
       </c>
       <c r="B127" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="C127" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="C127" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D127" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E127" s="6" t="s">
         <v>14</v>
-      </c>
-      <c r="D127" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="E127" s="6" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.25">
@@ -2787,16 +2870,16 @@
         <v>2</v>
       </c>
       <c r="B128" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="C128" s="5" t="s">
-        <v>66</v>
+        <v>106</v>
+      </c>
+      <c r="C128" s="6" t="s">
+        <v>106</v>
       </c>
       <c r="D128" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E128" s="6" t="s">
-        <v>67</v>
+        <v>107</v>
       </c>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.25">
@@ -2804,33 +2887,40 @@
         <v>3</v>
       </c>
       <c r="B129" s="8" t="s">
-        <v>66</v>
+        <v>106</v>
       </c>
       <c r="C129" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D129" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E129" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="D129" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="E129" s="6" t="s">
-        <v>28</v>
-      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A130" s="12"/>
+      <c r="B130" s="12"/>
+      <c r="C130" s="12"/>
+      <c r="D130" s="12"/>
+      <c r="E130" s="12"/>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A131" s="3">
         <v>1</v>
       </c>
       <c r="B131" s="8" t="s">
-        <v>69</v>
+        <v>112</v>
       </c>
       <c r="C131" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D131" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E131" s="6" t="s">
         <v>14</v>
-      </c>
-      <c r="D131" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="E131" s="6" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.25">
@@ -2838,16 +2928,16 @@
         <v>2</v>
       </c>
       <c r="B132" s="8" t="s">
-        <v>69</v>
+        <v>112</v>
       </c>
       <c r="C132" s="5" t="s">
-        <v>69</v>
+        <v>110</v>
       </c>
       <c r="D132" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E132" s="6" t="s">
-        <v>70</v>
+        <v>111</v>
       </c>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.25">
@@ -2855,67 +2945,84 @@
         <v>3</v>
       </c>
       <c r="B133" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="C133" s="6" t="s">
-        <v>27</v>
+        <v>112</v>
+      </c>
+      <c r="C133" s="5" t="s">
+        <v>77</v>
       </c>
       <c r="D133" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E133" s="6" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A134" s="3">
+        <v>4</v>
+      </c>
+      <c r="B134" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="C134" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D134" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="E133" s="6" t="s">
-        <v>28</v>
+      <c r="E134" s="6" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A135" s="3">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B135" s="8" t="s">
-        <v>71</v>
+        <v>112</v>
       </c>
       <c r="C135" s="5" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="D135" s="6" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="E135" s="6" t="s">
-        <v>15</v>
+        <v>32</v>
       </c>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A136" s="3">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B136" s="8" t="s">
-        <v>71</v>
+        <v>112</v>
       </c>
       <c r="C136" s="5" t="s">
-        <v>71</v>
+        <v>33</v>
       </c>
       <c r="D136" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E136" s="6" t="s">
-        <v>65</v>
+        <v>80</v>
       </c>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A137" s="3">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="B137" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="C137" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="C137" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D137" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E137" s="6" t="s">
         <v>27</v>
-      </c>
-      <c r="D137" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="E137" s="6" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.25">
@@ -2923,16 +3030,16 @@
         <v>1</v>
       </c>
       <c r="B139" s="8" t="s">
-        <v>72</v>
+        <v>113</v>
       </c>
       <c r="C139" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D139" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E139" s="6" t="s">
         <v>14</v>
-      </c>
-      <c r="D139" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="E139" s="6" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.25">
@@ -2940,16 +3047,16 @@
         <v>2</v>
       </c>
       <c r="B140" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="C140" s="6" t="s">
-        <v>72</v>
+        <v>113</v>
+      </c>
+      <c r="C140" s="5" t="s">
+        <v>114</v>
       </c>
       <c r="D140" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E140" s="6" t="s">
-        <v>67</v>
+        <v>115</v>
       </c>
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.25">
@@ -2957,16 +3064,322 @@
         <v>3</v>
       </c>
       <c r="B141" s="8" t="s">
-        <v>72</v>
+        <v>113</v>
       </c>
       <c r="C141" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D141" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E141" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="D141" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="E141" s="6" t="s">
-        <v>28</v>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A143" s="3">
+        <v>1</v>
+      </c>
+      <c r="B143" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="C143" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D143" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E143" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A144" s="3">
+        <v>2</v>
+      </c>
+      <c r="B144" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="C144" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="D144" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E144" s="6" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A145" s="3">
+        <v>3</v>
+      </c>
+      <c r="B145" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="C145" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D145" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E145" s="6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A147" s="3">
+        <v>1</v>
+      </c>
+      <c r="B147" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="C147" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D147" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E147" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A148" s="3">
+        <v>2</v>
+      </c>
+      <c r="B148" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="C148" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="D148" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E148" s="6" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A149" s="3">
+        <v>3</v>
+      </c>
+      <c r="B149" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="C149" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D149" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E149" s="6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A151" s="3">
+        <v>1</v>
+      </c>
+      <c r="B151" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="C151" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D151" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E151" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A152" s="3">
+        <v>2</v>
+      </c>
+      <c r="B152" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="C152" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="D152" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E152" s="6" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A153" s="3">
+        <v>3</v>
+      </c>
+      <c r="B153" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="C153" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D153" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E153" s="6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A155" s="3">
+        <v>1</v>
+      </c>
+      <c r="B155" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="C155" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D155" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E155" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A156" s="3">
+        <v>2</v>
+      </c>
+      <c r="B156" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="C156" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="D156" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E156" s="6" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A157" s="3">
+        <v>3</v>
+      </c>
+      <c r="B157" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="C157" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D157" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E157" s="6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A159" s="3">
+        <v>1</v>
+      </c>
+      <c r="B159" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="C159" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D159" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E159" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A160" s="3">
+        <v>2</v>
+      </c>
+      <c r="B160" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="C160" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="D160" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E160" s="6" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A161" s="3">
+        <v>3</v>
+      </c>
+      <c r="B161" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="C161" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D161" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E161" s="6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A163" s="3">
+        <v>1</v>
+      </c>
+      <c r="B163" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="C163" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D163" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E163" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A164" s="3">
+        <v>2</v>
+      </c>
+      <c r="B164" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="C164" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="D164" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E164" s="6" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A165" s="3">
+        <v>3</v>
+      </c>
+      <c r="B165" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="C165" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D165" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E165" s="6" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>

--- a/Framework/Database/TestDataDB.xlsx
+++ b/Framework/Database/TestDataDB.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="594" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="610" uniqueCount="115">
   <si>
     <t>Application_Details</t>
   </si>
@@ -340,9 +340,6 @@
     <t>BillGeneration_AccountLevel</t>
   </si>
   <si>
-    <t>https://10.162.53.125:4443/ecommunications_oui_enu/start.swe?</t>
-  </si>
-  <si>
     <t>Chrome</t>
   </si>
   <si>
@@ -370,10 +367,10 @@
     <t>TransferOfService</t>
   </si>
   <si>
-    <t>TOS</t>
-  </si>
-  <si>
     <t>Transfer of Service</t>
+  </si>
+  <si>
+    <t>https://10.162.53.100:4443/ecommunications_oui_enu/start.swe?</t>
   </si>
 </sst>
 </file>
@@ -819,7 +816,7 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -860,7 +857,7 @@
         <v>56</v>
       </c>
       <c r="C2" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="D2" t="s">
         <v>86</v>
@@ -869,7 +866,7 @@
         <v>87</v>
       </c>
       <c r="F2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -928,7 +925,7 @@
   <dimension ref="A1:H1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -978,10 +975,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:E165"/>
+  <dimension ref="A1:E169"/>
   <sheetViews>
-    <sheetView topLeftCell="A115" workbookViewId="0">
-      <selection activeCell="B134" sqref="B134"/>
+    <sheetView topLeftCell="A130" workbookViewId="0">
+      <selection activeCell="C140" sqref="C140"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2853,7 +2850,7 @@
         <v>1</v>
       </c>
       <c r="B127" s="8" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C127" s="6" t="s">
         <v>13</v>
@@ -2870,16 +2867,16 @@
         <v>2</v>
       </c>
       <c r="B128" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="C128" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="D128" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E128" s="6" t="s">
         <v>106</v>
-      </c>
-      <c r="C128" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="D128" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="E128" s="6" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.25">
@@ -2887,7 +2884,7 @@
         <v>3</v>
       </c>
       <c r="B129" s="8" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C129" s="6" t="s">
         <v>26</v>
@@ -2911,7 +2908,7 @@
         <v>1</v>
       </c>
       <c r="B131" s="8" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C131" s="5" t="s">
         <v>13</v>
@@ -2928,16 +2925,16 @@
         <v>2</v>
       </c>
       <c r="B132" s="8" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C132" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="D132" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E132" s="6" t="s">
         <v>110</v>
-      </c>
-      <c r="D132" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="E132" s="6" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.25">
@@ -2945,7 +2942,7 @@
         <v>3</v>
       </c>
       <c r="B133" s="8" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C133" s="5" t="s">
         <v>77</v>
@@ -2962,7 +2959,7 @@
         <v>4</v>
       </c>
       <c r="B134" s="8" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C134" s="5" t="s">
         <v>29</v>
@@ -2979,7 +2976,7 @@
         <v>5</v>
       </c>
       <c r="B135" s="8" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C135" s="5" t="s">
         <v>31</v>
@@ -2996,7 +2993,7 @@
         <v>6</v>
       </c>
       <c r="B136" s="8" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C136" s="5" t="s">
         <v>33</v>
@@ -3013,7 +3010,7 @@
         <v>9</v>
       </c>
       <c r="B137" s="8" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C137" s="5" t="s">
         <v>26</v>
@@ -3030,7 +3027,7 @@
         <v>1</v>
       </c>
       <c r="B139" s="8" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C139" s="5" t="s">
         <v>13</v>
@@ -3047,16 +3044,16 @@
         <v>2</v>
       </c>
       <c r="B140" s="8" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C140" s="5" t="s">
-        <v>114</v>
+        <v>29</v>
       </c>
       <c r="D140" s="6" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="E140" s="6" t="s">
-        <v>115</v>
+        <v>30</v>
       </c>
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.25">
@@ -3064,60 +3061,77 @@
         <v>3</v>
       </c>
       <c r="B141" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="C141" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D141" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E141" s="6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A142" s="3">
+        <v>4</v>
+      </c>
+      <c r="B142" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="C142" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="D142" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E142" s="6" t="s">
         <v>113</v>
-      </c>
-      <c r="C141" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="D141" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E141" s="6" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A143" s="3">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B143" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="C143" s="5" t="s">
-        <v>13</v>
+        <v>112</v>
+      </c>
+      <c r="C143" s="6" t="s">
+        <v>29</v>
       </c>
       <c r="D143" s="6" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E143" s="6" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A144" s="3">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B144" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="C144" s="5" t="s">
-        <v>62</v>
+        <v>112</v>
+      </c>
+      <c r="C144" s="6" t="s">
+        <v>83</v>
       </c>
       <c r="D144" s="6" t="s">
         <v>16</v>
       </c>
       <c r="E144" s="6" t="s">
-        <v>63</v>
+        <v>81</v>
       </c>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A145" s="3">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B145" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="C145" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="C145" s="5" t="s">
         <v>26</v>
       </c>
       <c r="D145" s="6" t="s">
@@ -3132,7 +3146,7 @@
         <v>1</v>
       </c>
       <c r="B147" s="8" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C147" s="5" t="s">
         <v>13</v>
@@ -3149,16 +3163,16 @@
         <v>2</v>
       </c>
       <c r="B148" s="8" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C148" s="5" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D148" s="6" t="s">
         <v>16</v>
       </c>
       <c r="E148" s="6" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.25">
@@ -3166,7 +3180,7 @@
         <v>3</v>
       </c>
       <c r="B149" s="8" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C149" s="6" t="s">
         <v>26</v>
@@ -3183,7 +3197,7 @@
         <v>1</v>
       </c>
       <c r="B151" s="8" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C151" s="5" t="s">
         <v>13</v>
@@ -3200,16 +3214,16 @@
         <v>2</v>
       </c>
       <c r="B152" s="8" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C152" s="5" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D152" s="6" t="s">
         <v>16</v>
       </c>
       <c r="E152" s="6" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.25">
@@ -3217,7 +3231,7 @@
         <v>3</v>
       </c>
       <c r="B153" s="8" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C153" s="6" t="s">
         <v>26</v>
@@ -3234,7 +3248,7 @@
         <v>1</v>
       </c>
       <c r="B155" s="8" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C155" s="5" t="s">
         <v>13</v>
@@ -3251,16 +3265,16 @@
         <v>2</v>
       </c>
       <c r="B156" s="8" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C156" s="5" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D156" s="6" t="s">
         <v>16</v>
       </c>
       <c r="E156" s="6" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.25">
@@ -3268,7 +3282,7 @@
         <v>3</v>
       </c>
       <c r="B157" s="8" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C157" s="6" t="s">
         <v>26</v>
@@ -3285,7 +3299,7 @@
         <v>1</v>
       </c>
       <c r="B159" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C159" s="5" t="s">
         <v>13</v>
@@ -3302,16 +3316,16 @@
         <v>2</v>
       </c>
       <c r="B160" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="C160" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
+      </c>
+      <c r="C160" s="5" t="s">
+        <v>69</v>
       </c>
       <c r="D160" s="6" t="s">
         <v>16</v>
       </c>
       <c r="E160" s="6" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.25">
@@ -3319,9 +3333,9 @@
         <v>3</v>
       </c>
       <c r="B161" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="C161" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="C161" s="6" t="s">
         <v>26</v>
       </c>
       <c r="D161" s="6" t="s">
@@ -3336,7 +3350,7 @@
         <v>1</v>
       </c>
       <c r="B163" s="8" t="s">
-        <v>108</v>
+        <v>70</v>
       </c>
       <c r="C163" s="5" t="s">
         <v>13</v>
@@ -3353,16 +3367,16 @@
         <v>2</v>
       </c>
       <c r="B164" s="8" t="s">
-        <v>108</v>
-      </c>
-      <c r="C164" s="5" t="s">
-        <v>108</v>
+        <v>70</v>
+      </c>
+      <c r="C164" s="6" t="s">
+        <v>70</v>
       </c>
       <c r="D164" s="6" t="s">
         <v>16</v>
       </c>
       <c r="E164" s="6" t="s">
-        <v>109</v>
+        <v>65</v>
       </c>
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.25">
@@ -3370,7 +3384,7 @@
         <v>3</v>
       </c>
       <c r="B165" s="8" t="s">
-        <v>108</v>
+        <v>70</v>
       </c>
       <c r="C165" s="5" t="s">
         <v>26</v>
@@ -3379,6 +3393,57 @@
         <v>5</v>
       </c>
       <c r="E165" s="6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A167" s="3">
+        <v>1</v>
+      </c>
+      <c r="B167" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="C167" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D167" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E167" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A168" s="3">
+        <v>2</v>
+      </c>
+      <c r="B168" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="C168" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="D168" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E168" s="6" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A169" s="3">
+        <v>3</v>
+      </c>
+      <c r="B169" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="C169" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D169" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E169" s="6" t="s">
         <v>27</v>
       </c>
     </row>

--- a/Framework/Database/TestDataDB.xlsx
+++ b/Framework/Database/TestDataDB.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ImranH2\Desktop\Imran\Workspace_VFQA\Vodafone_QAR\Framework\Database\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KalivaradhanS\Desktop\Workspace_VFQA\Vodafone_QAR\Framework\Database\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="LoginDetails" sheetId="2" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="610" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="679" uniqueCount="126">
   <si>
     <t>Application_Details</t>
   </si>
@@ -355,22 +355,55 @@
     <t>SIMSwap Global Search</t>
   </si>
   <si>
-    <t>Postpaid_Guided_Journey</t>
-  </si>
-  <si>
     <t>Post-paid guided flow</t>
   </si>
   <si>
+    <t>TransferOfService</t>
+  </si>
+  <si>
+    <t>Transfer of Service</t>
+  </si>
+  <si>
+    <t>ConsumerFixedLine_Provision</t>
+  </si>
+  <si>
+    <t>PlanSelection_FL</t>
+  </si>
+  <si>
+    <t>OSM_Login</t>
+  </si>
+  <si>
+    <t>OSM_SearchFL</t>
+  </si>
+  <si>
+    <t>EnterpriseFixedLine_Provision</t>
+  </si>
+  <si>
+    <t>PlanSelection_FL_ENT</t>
+  </si>
+  <si>
+    <t>login into OSM</t>
+  </si>
+  <si>
+    <t>Update the Status</t>
+  </si>
+  <si>
+    <t>YES</t>
+  </si>
+  <si>
+    <t>IDP</t>
+  </si>
+  <si>
+    <t>NewCustomer</t>
+  </si>
+  <si>
+    <t>MSISDN--97478152521||SIM--8962702800901163521||PlanName--Postpaid Red 250 Promotion||</t>
+  </si>
+  <si>
+    <t>https://10.162.53.125:4443/ecommunications_oui_enu/start.swe?</t>
+  </si>
+  <si>
     <t>ConsumerPostpaid_GuidedJourney</t>
-  </si>
-  <si>
-    <t>TransferOfService</t>
-  </si>
-  <si>
-    <t>Transfer of Service</t>
-  </si>
-  <si>
-    <t>https://10.162.53.100:4443/ecommunications_oui_enu/start.swe?</t>
   </si>
 </sst>
 </file>
@@ -815,8 +848,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -857,7 +890,7 @@
         <v>56</v>
       </c>
       <c r="C2" t="s">
-        <v>114</v>
+        <v>124</v>
       </c>
       <c r="D2" t="s">
         <v>86</v>
@@ -922,10 +955,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:H1"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -933,10 +966,10 @@
     <col min="1" max="1" width="6.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.85546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="22.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="88.28515625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="14.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -964,6 +997,26 @@
       </c>
       <c r="H1" s="10" t="s">
         <v>55</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>120</v>
+      </c>
+      <c r="C2" t="s">
+        <v>121</v>
+      </c>
+      <c r="D2" t="s">
+        <v>125</v>
+      </c>
+      <c r="E2" t="s">
+        <v>122</v>
+      </c>
+      <c r="G2" t="s">
+        <v>123</v>
       </c>
     </row>
   </sheetData>
@@ -975,16 +1028,16 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:E169"/>
+  <dimension ref="A1:E187"/>
   <sheetViews>
-    <sheetView topLeftCell="A130" workbookViewId="0">
-      <selection activeCell="C140" sqref="C140"/>
+    <sheetView tabSelected="1" topLeftCell="A118" workbookViewId="0">
+      <selection activeCell="C132" sqref="C132"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="32.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="26.140625" bestFit="1" customWidth="1"/>
   </cols>
@@ -2908,7 +2961,7 @@
         <v>1</v>
       </c>
       <c r="B131" s="8" t="s">
-        <v>111</v>
+        <v>125</v>
       </c>
       <c r="C131" s="5" t="s">
         <v>13</v>
@@ -2925,16 +2978,16 @@
         <v>2</v>
       </c>
       <c r="B132" s="8" t="s">
-        <v>111</v>
+        <v>125</v>
       </c>
       <c r="C132" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="D132" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E132" s="6" t="s">
         <v>109</v>
-      </c>
-      <c r="D132" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="E132" s="6" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.25">
@@ -2942,7 +2995,7 @@
         <v>3</v>
       </c>
       <c r="B133" s="8" t="s">
-        <v>111</v>
+        <v>125</v>
       </c>
       <c r="C133" s="5" t="s">
         <v>77</v>
@@ -2959,7 +3012,7 @@
         <v>4</v>
       </c>
       <c r="B134" s="8" t="s">
-        <v>111</v>
+        <v>125</v>
       </c>
       <c r="C134" s="5" t="s">
         <v>29</v>
@@ -2976,7 +3029,7 @@
         <v>5</v>
       </c>
       <c r="B135" s="8" t="s">
-        <v>111</v>
+        <v>125</v>
       </c>
       <c r="C135" s="5" t="s">
         <v>31</v>
@@ -2993,7 +3046,7 @@
         <v>6</v>
       </c>
       <c r="B136" s="8" t="s">
-        <v>111</v>
+        <v>125</v>
       </c>
       <c r="C136" s="5" t="s">
         <v>33</v>
@@ -3010,7 +3063,7 @@
         <v>9</v>
       </c>
       <c r="B137" s="8" t="s">
-        <v>111</v>
+        <v>125</v>
       </c>
       <c r="C137" s="5" t="s">
         <v>26</v>
@@ -3027,7 +3080,7 @@
         <v>1</v>
       </c>
       <c r="B139" s="8" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C139" s="5" t="s">
         <v>13</v>
@@ -3044,7 +3097,7 @@
         <v>2</v>
       </c>
       <c r="B140" s="8" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C140" s="5" t="s">
         <v>29</v>
@@ -3061,7 +3114,7 @@
         <v>3</v>
       </c>
       <c r="B141" s="8" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C141" s="6" t="s">
         <v>31</v>
@@ -3078,16 +3131,16 @@
         <v>4</v>
       </c>
       <c r="B142" s="8" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C142" s="5" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D142" s="6" t="s">
         <v>16</v>
       </c>
       <c r="E142" s="6" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.25">
@@ -3095,7 +3148,7 @@
         <v>5</v>
       </c>
       <c r="B143" s="8" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C143" s="6" t="s">
         <v>29</v>
@@ -3112,7 +3165,7 @@
         <v>6</v>
       </c>
       <c r="B144" s="8" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C144" s="6" t="s">
         <v>83</v>
@@ -3129,7 +3182,7 @@
         <v>7</v>
       </c>
       <c r="B145" s="8" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C145" s="5" t="s">
         <v>26</v>
@@ -3444,6 +3497,278 @@
         <v>5</v>
       </c>
       <c r="E169" s="6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A171" s="3">
+        <v>1</v>
+      </c>
+      <c r="B171" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="C171" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D171" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E171" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A172" s="3">
+        <v>2</v>
+      </c>
+      <c r="B172" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="C172" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D172" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E172" s="5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A173" s="3">
+        <v>3</v>
+      </c>
+      <c r="B173" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="C173" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D173" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E173" s="5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A174" s="3">
+        <v>4</v>
+      </c>
+      <c r="B174" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="C174" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D174" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E174" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A175" s="3">
+        <v>5</v>
+      </c>
+      <c r="B175" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="C175" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D175" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E175" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A176" s="3">
+        <v>6</v>
+      </c>
+      <c r="B176" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="C176" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="D176" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E176" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A177" s="3">
+        <v>7</v>
+      </c>
+      <c r="B177" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="C177" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D177" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E177" s="6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A178" s="3">
+        <v>8</v>
+      </c>
+      <c r="B178" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="C178" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="D178" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="E178" s="6" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A179" s="3">
+        <v>9</v>
+      </c>
+      <c r="B179" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="C179" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="D179" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E179" s="6" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A181" s="3">
+        <v>1</v>
+      </c>
+      <c r="B181" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="C181" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D181" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E181" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A182" s="3">
+        <v>2</v>
+      </c>
+      <c r="B182" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="C182" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D182" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E182" s="5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A183" s="3">
+        <v>3</v>
+      </c>
+      <c r="B183" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="C183" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="D183" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E183" s="5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A184" s="3">
+        <v>4</v>
+      </c>
+      <c r="B184" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="C184" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D184" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E184" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A185" s="3">
+        <v>5</v>
+      </c>
+      <c r="B185" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="C185" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D185" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E185" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A186" s="3">
+        <v>6</v>
+      </c>
+      <c r="B186" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="C186" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="D186" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E186" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A187" s="3">
+        <v>7</v>
+      </c>
+      <c r="B187" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="C187" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D187" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E187" s="6" t="s">
         <v>27</v>
       </c>
     </row>
